--- a/documents/Effort and Velocity.xlsx
+++ b/documents/Effort and Velocity.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="295"/>
   </bookViews>
   <sheets>
     <sheet name="Product" sheetId="1" r:id="rId1"/>
     <sheet name="Sp1" sheetId="3" r:id="rId2"/>
+    <sheet name="Sp2" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="42">
   <si>
     <t>Sprint 1</t>
   </si>
@@ -105,6 +106,42 @@
   </si>
   <si>
     <t>Total Weekly Effort</t>
+  </si>
+  <si>
+    <t>Estimated Planned Effort</t>
+  </si>
+  <si>
+    <t>Add colors to graph background</t>
+  </si>
+  <si>
+    <t>4, 5, and 8</t>
+  </si>
+  <si>
+    <t>Add option for inputing concrete temp</t>
+  </si>
+  <si>
+    <t>Show weather variables when hovering over a point and add metric</t>
+  </si>
+  <si>
+    <t>Added</t>
+  </si>
+  <si>
+    <t>Improve input and output UI</t>
+  </si>
+  <si>
+    <t>Validation for Zip Code</t>
+  </si>
+  <si>
+    <t>Total:</t>
+  </si>
+  <si>
+    <t>Sprint 2</t>
+  </si>
+  <si>
+    <t>Week 3</t>
+  </si>
+  <si>
+    <t>Week 4</t>
   </si>
 </sst>
 </file>
@@ -218,7 +255,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="36">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -357,30 +394,6 @@
         <color indexed="8"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -627,8 +640,125 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
-      <right/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="8"/>
       </top>
@@ -639,39 +769,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="166">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -681,12 +784,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -694,52 +791,31 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -750,38 +826,100 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -790,118 +928,228 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -971,10 +1219,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Product!$D$4:$O$4</c:f>
+              <c:f>Product!$D$4:$X$4</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0" formatCode="[$-409]d\-mmm;@">
                   <c:v>41939</c:v>
                 </c:pt>
@@ -1010,16 +1258,43 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>41950</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="[$-409]d\-mmm;@">
+                  <c:v>41975</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="[$-409]d\-mmm;@">
+                  <c:v>41976</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="[$-409]d\-mmm;@">
+                  <c:v>41977</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="[$-409]d\-mmm;@">
+                  <c:v>41978</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="[$-409]d\-mmm;@">
+                  <c:v>41979</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="[$-409]d\-mmm;@">
+                  <c:v>41980</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="[$-409]d\-mmm;@">
+                  <c:v>41981</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="[$-409]d\-mmm;@">
+                  <c:v>41982</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="[$-409]d\-mmm;@">
+                  <c:v>41983</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Product!$D$14:$O$14</c:f>
+              <c:f>Product!$D$14:$X$14</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0.75</c:v>
                 </c:pt>
@@ -1055,6 +1330,33 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>1.3125</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2115384615384615</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.125</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.984375</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.2794117647058822</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.2083333333333333</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.1447368421052631</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.0874999999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.0357142857142858</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1072,10 +1374,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Product!$D$4:$O$4</c:f>
+              <c:f>Product!$D$4:$X$4</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0" formatCode="[$-409]d\-mmm;@">
                   <c:v>41939</c:v>
                 </c:pt>
@@ -1111,16 +1413,43 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>41950</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="[$-409]d\-mmm;@">
+                  <c:v>41975</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="[$-409]d\-mmm;@">
+                  <c:v>41976</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="[$-409]d\-mmm;@">
+                  <c:v>41977</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="[$-409]d\-mmm;@">
+                  <c:v>41978</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="[$-409]d\-mmm;@">
+                  <c:v>41979</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="[$-409]d\-mmm;@">
+                  <c:v>41980</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="[$-409]d\-mmm;@">
+                  <c:v>41981</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="[$-409]d\-mmm;@">
+                  <c:v>41982</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="[$-409]d\-mmm;@">
+                  <c:v>41983</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Product!$D$9:$O$9</c:f>
+              <c:f>Product!$D$9:$X$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0.75</c:v>
                 </c:pt>
@@ -1155,6 +1484,33 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1172,11 +1528,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="45870464"/>
-        <c:axId val="48612096"/>
+        <c:axId val="105016704"/>
+        <c:axId val="105018496"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="45870464"/>
+        <c:axId val="105016704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1186,14 +1542,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="48612096"/>
+        <c:crossAx val="105018496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="48612096"/>
+        <c:axId val="105018496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1204,7 +1560,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="45870464"/>
+        <c:crossAx val="105016704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1477,11 +1833,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="48928256"/>
-        <c:axId val="55034624"/>
+        <c:axId val="114222208"/>
+        <c:axId val="114223744"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="48928256"/>
+        <c:axId val="114222208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1491,14 +1847,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="55034624"/>
+        <c:crossAx val="114223744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="55034624"/>
+        <c:axId val="114223744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1509,7 +1865,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="48928256"/>
+        <c:crossAx val="114222208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1782,11 +2138,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="68338432"/>
-        <c:axId val="70804608"/>
+        <c:axId val="114695552"/>
+        <c:axId val="114709632"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="68338432"/>
+        <c:axId val="114695552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1796,14 +2152,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70804608"/>
+        <c:crossAx val="114709632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="70804608"/>
+        <c:axId val="114709632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1814,7 +2170,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68338432"/>
+        <c:crossAx val="114695552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2090,11 +2446,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="106049920"/>
-        <c:axId val="106051456"/>
+        <c:axId val="114747264"/>
+        <c:axId val="114748800"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="106049920"/>
+        <c:axId val="114747264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2104,14 +2460,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106051456"/>
+        <c:crossAx val="114748800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="106051456"/>
+        <c:axId val="114748800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2122,7 +2478,1083 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106049920"/>
+        <c:crossAx val="114747264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Team Effort</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Velocity</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sp2'!$D$2:$L$2</c:f>
+              <c:numCache>
+                <c:formatCode>[$-409]d\-mmm;@</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>41975</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41976</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41977</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41978</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41979</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41980</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41981</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41982</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41983</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sp2'!$D$33:$L$33</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.8571428571428571</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Effort</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sp2'!$D$2:$L$2</c:f>
+              <c:numCache>
+                <c:formatCode>[$-409]d\-mmm;@</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>41975</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41976</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41977</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41978</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41979</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41980</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41981</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41982</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41983</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sp2'!$D$25:$L$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="38541184"/>
+        <c:axId val="38542720"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="38541184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="[$-409]d\-mmm;@" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="38542720"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="38542720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="38541184"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Bryan Effort</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Velocity</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sp2'!$D$2:$L$2</c:f>
+              <c:numCache>
+                <c:formatCode>[$-409]d\-mmm;@</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>41975</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41976</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41977</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41978</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41979</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41980</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41981</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41982</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41983</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sp2'!$D$30:$L$30</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.09375</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.92105263157894735</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.79545454545454541</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.625</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Effort</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sp2'!$D$2:$L$2</c:f>
+              <c:numCache>
+                <c:formatCode>[$-409]d\-mmm;@</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>41975</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41976</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41977</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41978</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41979</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41980</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41981</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41982</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41983</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sp2'!$D$26:$L$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="102859904"/>
+        <c:axId val="102861440"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="102859904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="[$-409]d\-mmm;@" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="102861440"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="102861440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="102859904"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Dan Effort</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Velocity</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sp2'!$D$2:$L$2</c:f>
+              <c:numCache>
+                <c:formatCode>[$-409]d\-mmm;@</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>41975</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41976</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41977</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41978</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41979</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41980</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41981</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41982</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41983</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sp2'!$D$31:$L$31</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Effort</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sp2'!$D$2:$L$2</c:f>
+              <c:numCache>
+                <c:formatCode>[$-409]d\-mmm;@</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>41975</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41976</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41977</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41978</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41979</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41980</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41981</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41982</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41983</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sp2'!$D$27:$L$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="39539072"/>
+        <c:axId val="39540608"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="39539072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="[$-409]d\-mmm;@" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="39540608"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="39540608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="39539072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Zach Effort</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Velocity</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sp2'!$D$2:$L$2</c:f>
+              <c:numCache>
+                <c:formatCode>[$-409]d\-mmm;@</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>41975</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41976</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41977</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41978</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41979</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41980</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41981</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41982</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41983</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sp2'!$D$32:$L$32</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Effort</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sp2'!$D$2:$L$2</c:f>
+              <c:numCache>
+                <c:formatCode>[$-409]d\-mmm;@</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>41975</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41976</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41977</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41978</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41979</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41980</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41981</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41982</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41983</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sp2'!$D$28:$L$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="39554048"/>
+        <c:axId val="39588608"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="39554048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="[$-409]d\-mmm;@" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="39588608"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="39588608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="39554048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2199,10 +3631,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Product!$D$4:$O$4</c:f>
+              <c:f>Product!$D$4:$X$4</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0" formatCode="[$-409]d\-mmm;@">
                   <c:v>41939</c:v>
                 </c:pt>
@@ -2238,51 +3670,105 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>41950</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="[$-409]d\-mmm;@">
+                  <c:v>41975</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="[$-409]d\-mmm;@">
+                  <c:v>41976</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="[$-409]d\-mmm;@">
+                  <c:v>41977</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="[$-409]d\-mmm;@">
+                  <c:v>41978</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="[$-409]d\-mmm;@">
+                  <c:v>41979</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="[$-409]d\-mmm;@">
+                  <c:v>41980</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="[$-409]d\-mmm;@">
+                  <c:v>41981</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="[$-409]d\-mmm;@">
+                  <c:v>41982</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="[$-409]d\-mmm;@">
+                  <c:v>41983</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Product!$D$11:$O$11</c:f>
+              <c:f>Product!$D$11:$X$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0.25</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.16666666666666666</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.125</c:v>
+                  <c:v>0.1875</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.1</c:v>
+                  <c:v>0.15</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.39473684210526316</c:v>
+                  <c:v>0.45833333333333331</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>0.9642857142857143</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.4259259259259258</c:v>
+                  <c:v>0.84375</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.2833333333333334</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.1666666666666667</c:v>
+                  <c:v>0.67500000000000004</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.0694444444444444</c:v>
+                  <c:v>0.61363636363636365</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.98717948717948723</c:v>
+                  <c:v>0.5625</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.51923076923076927</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.48214285714285715</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.421875</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.70833333333333337</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.67105263157894735</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.63749999999999996</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.6071428571428571</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2300,10 +3786,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Product!$D$4:$O$4</c:f>
+              <c:f>Product!$D$4:$X$4</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0" formatCode="[$-409]d\-mmm;@">
                   <c:v>41939</c:v>
                 </c:pt>
@@ -2339,16 +3825,43 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>41950</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="[$-409]d\-mmm;@">
+                  <c:v>41975</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="[$-409]d\-mmm;@">
+                  <c:v>41976</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="[$-409]d\-mmm;@">
+                  <c:v>41977</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="[$-409]d\-mmm;@">
+                  <c:v>41978</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="[$-409]d\-mmm;@">
+                  <c:v>41979</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="[$-409]d\-mmm;@">
+                  <c:v>41980</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="[$-409]d\-mmm;@">
+                  <c:v>41981</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="[$-409]d\-mmm;@">
+                  <c:v>41982</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="[$-409]d\-mmm;@">
+                  <c:v>41983</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Product!$D$6:$O$6</c:f>
+              <c:f>Product!$D$6:$X$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0.75</c:v>
                 </c:pt>
@@ -2383,6 +3896,33 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2400,11 +3940,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="116871168"/>
-        <c:axId val="116874240"/>
+        <c:axId val="105326464"/>
+        <c:axId val="105328000"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="116871168"/>
+        <c:axId val="105326464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2414,14 +3954,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116874240"/>
+        <c:crossAx val="105328000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="116874240"/>
+        <c:axId val="105328000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2432,7 +3972,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116871168"/>
+        <c:crossAx val="105326464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2509,10 +4049,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Product!$D$4:$O$4</c:f>
+              <c:f>Product!$D$4:$X$4</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0" formatCode="[$-409]d\-mmm;@">
                   <c:v>41939</c:v>
                 </c:pt>
@@ -2548,16 +4088,43 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>41950</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="[$-409]d\-mmm;@">
+                  <c:v>41975</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="[$-409]d\-mmm;@">
+                  <c:v>41976</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="[$-409]d\-mmm;@">
+                  <c:v>41977</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="[$-409]d\-mmm;@">
+                  <c:v>41978</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="[$-409]d\-mmm;@">
+                  <c:v>41979</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="[$-409]d\-mmm;@">
+                  <c:v>41980</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="[$-409]d\-mmm;@">
+                  <c:v>41981</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="[$-409]d\-mmm;@">
+                  <c:v>41982</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="[$-409]d\-mmm;@">
+                  <c:v>41983</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Product!$D$12:$O$12</c:f>
+              <c:f>Product!$D$12:$X$12</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2593,6 +4160,33 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0.58333333333333337</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.53846153846153844</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.46666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.4375</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.41176470588235292</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.3888888888888889</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.36842105263157893</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.33333333333333331</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2610,10 +4204,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Product!$D$4:$O$4</c:f>
+              <c:f>Product!$D$4:$X$4</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0" formatCode="[$-409]d\-mmm;@">
                   <c:v>41939</c:v>
                 </c:pt>
@@ -2649,16 +4243,43 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>41950</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="[$-409]d\-mmm;@">
+                  <c:v>41975</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="[$-409]d\-mmm;@">
+                  <c:v>41976</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="[$-409]d\-mmm;@">
+                  <c:v>41977</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="[$-409]d\-mmm;@">
+                  <c:v>41978</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="[$-409]d\-mmm;@">
+                  <c:v>41979</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="[$-409]d\-mmm;@">
+                  <c:v>41980</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="[$-409]d\-mmm;@">
+                  <c:v>41981</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="[$-409]d\-mmm;@">
+                  <c:v>41982</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="[$-409]d\-mmm;@">
+                  <c:v>41983</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Product!$D$7:$O$7</c:f>
+              <c:f>Product!$D$7:$X$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2693,6 +4314,33 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2710,11 +4358,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="111969408"/>
-        <c:axId val="111970944"/>
+        <c:axId val="105353600"/>
+        <c:axId val="105355136"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="111969408"/>
+        <c:axId val="105353600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2724,14 +4372,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111970944"/>
+        <c:crossAx val="105355136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="111970944"/>
+        <c:axId val="105355136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2742,7 +4390,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111969408"/>
+        <c:crossAx val="105353600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2819,10 +4467,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Product!$D$4:$O$4</c:f>
+              <c:f>Product!$D$4:$X$4</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0" formatCode="[$-409]d\-mmm;@">
                   <c:v>41939</c:v>
                 </c:pt>
@@ -2858,16 +4506,43 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>41950</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="[$-409]d\-mmm;@">
+                  <c:v>41975</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="[$-409]d\-mmm;@">
+                  <c:v>41976</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="[$-409]d\-mmm;@">
+                  <c:v>41977</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="[$-409]d\-mmm;@">
+                  <c:v>41978</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="[$-409]d\-mmm;@">
+                  <c:v>41979</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="[$-409]d\-mmm;@">
+                  <c:v>41980</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="[$-409]d\-mmm;@">
+                  <c:v>41981</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="[$-409]d\-mmm;@">
+                  <c:v>41982</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="[$-409]d\-mmm;@">
+                  <c:v>41983</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Product!$D$13:$O$13</c:f>
+              <c:f>Product!$D$13:$X$13</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2903,6 +4578,33 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0.16666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.15384615384615385</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.14285714285714285</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.13333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.11764705882352941</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.1111111111111111</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.10526315789473684</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9.5238095238095233E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2920,10 +4622,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Product!$D$4:$O$4</c:f>
+              <c:f>Product!$D$4:$X$4</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0" formatCode="[$-409]d\-mmm;@">
                   <c:v>41939</c:v>
                 </c:pt>
@@ -2959,16 +4661,43 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>41950</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="[$-409]d\-mmm;@">
+                  <c:v>41975</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="[$-409]d\-mmm;@">
+                  <c:v>41976</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="[$-409]d\-mmm;@">
+                  <c:v>41977</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="[$-409]d\-mmm;@">
+                  <c:v>41978</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="[$-409]d\-mmm;@">
+                  <c:v>41979</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="[$-409]d\-mmm;@">
+                  <c:v>41980</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="[$-409]d\-mmm;@">
+                  <c:v>41981</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="[$-409]d\-mmm;@">
+                  <c:v>41982</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="[$-409]d\-mmm;@">
+                  <c:v>41983</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Product!$D$8:$O$8</c:f>
+              <c:f>Product!$D$8:$X$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3003,6 +4732,33 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3020,11 +4776,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="48842240"/>
-        <c:axId val="72561792"/>
+        <c:axId val="108399232"/>
+        <c:axId val="108401024"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="48842240"/>
+        <c:axId val="108399232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3034,14 +4790,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72561792"/>
+        <c:crossAx val="108401024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="72561792"/>
+        <c:axId val="108401024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3052,7 +4808,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="48842240"/>
+        <c:crossAx val="108399232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3129,30 +4885,42 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Product!$D$22:$E$22</c:f>
+              <c:f>Product!$D$22:$G$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Product!$D$31:$E$31</c:f>
+              <c:f>Product!$D$31:$G$31</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>2.75</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>7.875</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.4375</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3170,30 +4938,42 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Product!$D$22:$E$22</c:f>
+              <c:f>Product!$D$22:$G$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Product!$D$26:$E$26</c:f>
+              <c:f>Product!$D$26:$G$26</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>2.75</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3210,11 +4990,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="111632384"/>
-        <c:axId val="111656320"/>
+        <c:axId val="108430464"/>
+        <c:axId val="108432000"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="111632384"/>
+        <c:axId val="108430464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3224,7 +5004,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111656320"/>
+        <c:crossAx val="108432000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3232,7 +5012,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="111656320"/>
+        <c:axId val="108432000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3243,7 +5023,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111632384"/>
+        <c:crossAx val="108430464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3320,30 +5100,42 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Product!$D$22:$E$22</c:f>
+              <c:f>Product!$D$22:$G$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Product!$D$28:$E$28</c:f>
+              <c:f>Product!$D$28:$G$28</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>2.75</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>3.375</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.1875</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3361,30 +5153,42 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Product!$D$22:$E$22</c:f>
+              <c:f>Product!$D$22:$G$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Product!$D$23:$E$23</c:f>
+              <c:f>Product!$D$23:$G$23</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>2.75</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3401,11 +5205,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="121014528"/>
-        <c:axId val="121024512"/>
+        <c:axId val="114107904"/>
+        <c:axId val="114109440"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="121014528"/>
+        <c:axId val="114107904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3415,7 +5219,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121024512"/>
+        <c:crossAx val="114109440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3423,7 +5227,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="121024512"/>
+        <c:axId val="114109440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3434,7 +5238,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121014528"/>
+        <c:crossAx val="114107904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3511,30 +5315,42 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Product!$D$22:$E$22</c:f>
+              <c:f>Product!$D$22:$G$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Product!$D$29:$E$29</c:f>
+              <c:f>Product!$D$29:$G$29</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.3333333333333335</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3552,30 +5368,42 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Product!$D$22:$E$22</c:f>
+              <c:f>Product!$D$22:$G$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Product!$D$24:$E$24</c:f>
+              <c:f>Product!$D$24:$G$24</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3592,11 +5420,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="131270528"/>
-        <c:axId val="131272064"/>
+        <c:axId val="114141440"/>
+        <c:axId val="114143232"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="131270528"/>
+        <c:axId val="114141440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3606,7 +5434,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="131272064"/>
+        <c:crossAx val="114143232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3614,7 +5442,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="131272064"/>
+        <c:axId val="114143232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3625,7 +5453,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="131270528"/>
+        <c:crossAx val="114141440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3702,30 +5530,42 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Product!$D$22:$E$22</c:f>
+              <c:f>Product!$D$22:$G$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Product!$D$30:$E$30</c:f>
+              <c:f>Product!$D$30:$G$30</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3743,30 +5583,42 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Product!$D$22:$E$22</c:f>
+              <c:f>Product!$D$22:$G$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Product!$D$25:$E$25</c:f>
+              <c:f>Product!$D$25:$G$25</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3783,11 +5635,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="106342272"/>
-        <c:axId val="107211008"/>
+        <c:axId val="114254592"/>
+        <c:axId val="114256128"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="106342272"/>
+        <c:axId val="114254592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3797,7 +5649,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107211008"/>
+        <c:crossAx val="114256128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3805,7 +5657,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="107211008"/>
+        <c:axId val="114256128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3816,7 +5668,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106342272"/>
+        <c:crossAx val="114254592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4089,11 +5941,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="46312064"/>
-        <c:axId val="46490752"/>
+        <c:axId val="114195072"/>
+        <c:axId val="114196864"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="46312064"/>
+        <c:axId val="114195072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4103,14 +5955,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="46490752"/>
+        <c:crossAx val="114196864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="46490752"/>
+        <c:axId val="114196864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4121,7 +5973,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="46312064"/>
+        <c:crossAx val="114195072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4533,6 +6385,139 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -4820,10 +6805,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:P36"/>
+  <dimension ref="B2:X36"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="J90" sqref="J90"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4831,895 +6816,1591 @@
     <col min="3" max="3" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D2" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="10"/>
-    </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D3" s="1" t="s">
+    <row r="2" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="D2" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="61"/>
+      <c r="P2" s="59" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q2" s="60"/>
+      <c r="R2" s="60"/>
+      <c r="S2" s="60"/>
+      <c r="T2" s="60"/>
+      <c r="U2" s="60"/>
+      <c r="V2" s="60"/>
+      <c r="W2" s="60"/>
+      <c r="X2" s="61"/>
+    </row>
+    <row r="3" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="D3" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="8" t="s">
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="10"/>
-    </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D4" s="4">
+      <c r="K3" s="60"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="60"/>
+      <c r="N3" s="60"/>
+      <c r="O3" s="61"/>
+      <c r="P3" s="59" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q3" s="60"/>
+      <c r="R3" s="60"/>
+      <c r="S3" s="60"/>
+      <c r="T3" s="60"/>
+      <c r="U3" s="59" t="s">
+        <v>41</v>
+      </c>
+      <c r="V3" s="60"/>
+      <c r="W3" s="60"/>
+      <c r="X3" s="61"/>
+    </row>
+    <row r="4" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="D4" s="1">
         <v>41939</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="2">
         <v>41940</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="1">
         <v>41941</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="2">
         <v>41942</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="1">
         <v>41943</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="2">
         <v>41944</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="1">
         <v>41945</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="2">
         <v>41946</v>
       </c>
-      <c r="L4" s="4">
+      <c r="L4" s="1">
         <v>41947</v>
       </c>
-      <c r="M4" s="5">
+      <c r="M4" s="2">
         <v>41948</v>
       </c>
-      <c r="N4" s="4">
+      <c r="N4" s="1">
         <v>41949</v>
       </c>
-      <c r="O4" s="5">
+      <c r="O4" s="2">
         <v>41950</v>
       </c>
-    </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D5" s="7">
+      <c r="P4" s="1">
+        <v>41975</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>41976</v>
+      </c>
+      <c r="R4" s="1">
+        <v>41977</v>
+      </c>
+      <c r="S4" s="1">
+        <v>41978</v>
+      </c>
+      <c r="T4" s="1">
+        <v>41979</v>
+      </c>
+      <c r="U4" s="1">
+        <v>41980</v>
+      </c>
+      <c r="V4" s="1">
+        <v>41981</v>
+      </c>
+      <c r="W4" s="1">
+        <v>41982</v>
+      </c>
+      <c r="X4" s="1">
+        <v>41983</v>
+      </c>
+    </row>
+    <row r="5" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="D5" s="4">
         <v>1</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="4">
         <v>2</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="4">
         <v>3</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="4">
         <v>4</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="4">
         <v>5</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="4">
         <v>6</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J5" s="4">
         <v>7</v>
       </c>
-      <c r="K5" s="7">
+      <c r="K5" s="4">
         <v>8</v>
       </c>
-      <c r="L5" s="7">
+      <c r="L5" s="4">
         <v>9</v>
       </c>
-      <c r="M5" s="7">
+      <c r="M5" s="4">
         <v>10</v>
       </c>
-      <c r="N5" s="7">
+      <c r="N5" s="4">
         <v>11</v>
       </c>
-      <c r="O5" s="7">
+      <c r="O5" s="4">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B6" s="84" t="s">
+      <c r="P5" s="4">
+        <v>13</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>14</v>
+      </c>
+      <c r="R5" s="4">
+        <v>15</v>
+      </c>
+      <c r="S5" s="4">
+        <v>16</v>
+      </c>
+      <c r="T5" s="4">
+        <v>17</v>
+      </c>
+      <c r="U5" s="4">
+        <v>18</v>
+      </c>
+      <c r="V5" s="4">
+        <v>19</v>
+      </c>
+      <c r="W5" s="4">
+        <v>20</v>
+      </c>
+      <c r="X5" s="4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B6" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="101" t="s">
+      <c r="C6" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="78">
+      <c r="D6" s="122">
         <v>0.75</v>
       </c>
-      <c r="E6" s="78">
-        <v>0</v>
-      </c>
-      <c r="F6" s="78">
-        <v>0</v>
-      </c>
-      <c r="G6" s="78">
-        <v>0</v>
-      </c>
-      <c r="H6" s="78">
-        <v>0</v>
-      </c>
-      <c r="I6" s="78">
+      <c r="E6" s="123">
+        <v>0</v>
+      </c>
+      <c r="F6" s="123">
+        <v>0</v>
+      </c>
+      <c r="G6" s="123">
+        <v>0</v>
+      </c>
+      <c r="H6" s="123">
+        <v>0</v>
+      </c>
+      <c r="I6" s="123">
         <v>2</v>
       </c>
-      <c r="J6" s="78">
+      <c r="J6" s="123">
         <v>4</v>
       </c>
-      <c r="K6" s="78">
-        <v>0</v>
-      </c>
-      <c r="L6" s="78">
-        <v>0</v>
-      </c>
-      <c r="M6" s="78">
-        <v>0</v>
-      </c>
-      <c r="N6" s="78">
-        <v>0</v>
-      </c>
-      <c r="O6" s="78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B7" s="85"/>
-      <c r="C7" s="102" t="s">
+      <c r="K6" s="123">
+        <v>0</v>
+      </c>
+      <c r="L6" s="123">
+        <v>0</v>
+      </c>
+      <c r="M6" s="123">
+        <v>0</v>
+      </c>
+      <c r="N6" s="123">
+        <v>0</v>
+      </c>
+      <c r="O6" s="124">
+        <v>0</v>
+      </c>
+      <c r="P6" s="125">
+        <f>'Sp2'!D26</f>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="126">
+        <f>'Sp2'!E26</f>
+        <v>0</v>
+      </c>
+      <c r="R6" s="126">
+        <f>'Sp2'!F26</f>
+        <v>0</v>
+      </c>
+      <c r="S6" s="126">
+        <f>'Sp2'!G26</f>
+        <v>0</v>
+      </c>
+      <c r="T6" s="126">
+        <f>'Sp2'!H26</f>
+        <v>6</v>
+      </c>
+      <c r="U6" s="126">
+        <f>'Sp2'!I26</f>
+        <v>0</v>
+      </c>
+      <c r="V6" s="126">
+        <f>'Sp2'!J26</f>
+        <v>0</v>
+      </c>
+      <c r="W6" s="126">
+        <f>'Sp2'!K26</f>
+        <v>0</v>
+      </c>
+      <c r="X6" s="127">
+        <f>'Sp2'!L26</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B7" s="63"/>
+      <c r="C7" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="78">
-        <v>0</v>
-      </c>
-      <c r="E7" s="78">
-        <v>0</v>
-      </c>
-      <c r="F7" s="78">
-        <v>0</v>
-      </c>
-      <c r="G7" s="78">
-        <v>0</v>
-      </c>
-      <c r="H7" s="78">
-        <v>0</v>
-      </c>
-      <c r="I7" s="78">
-        <v>0</v>
-      </c>
-      <c r="J7" s="78">
+      <c r="D7" s="118">
+        <v>0</v>
+      </c>
+      <c r="E7" s="42">
+        <v>0</v>
+      </c>
+      <c r="F7" s="42">
+        <v>0</v>
+      </c>
+      <c r="G7" s="42">
+        <v>0</v>
+      </c>
+      <c r="H7" s="42">
+        <v>0</v>
+      </c>
+      <c r="I7" s="42">
+        <v>0</v>
+      </c>
+      <c r="J7" s="42">
         <v>2</v>
       </c>
-      <c r="K7" s="78">
+      <c r="K7" s="42">
         <v>5</v>
       </c>
-      <c r="L7" s="78">
-        <v>0</v>
-      </c>
-      <c r="M7" s="78">
-        <v>0</v>
-      </c>
-      <c r="N7" s="78">
-        <v>0</v>
-      </c>
-      <c r="O7" s="78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B8" s="85"/>
-      <c r="C8" s="103" t="s">
+      <c r="L7" s="42">
+        <v>0</v>
+      </c>
+      <c r="M7" s="42">
+        <v>0</v>
+      </c>
+      <c r="N7" s="42">
+        <v>0</v>
+      </c>
+      <c r="O7" s="43">
+        <v>0</v>
+      </c>
+      <c r="P7" s="112">
+        <f>'Sp2'!D27</f>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="107">
+        <f>'Sp2'!E27</f>
+        <v>0</v>
+      </c>
+      <c r="R7" s="107">
+        <f>'Sp2'!F27</f>
+        <v>0</v>
+      </c>
+      <c r="S7" s="107">
+        <f>'Sp2'!G27</f>
+        <v>0</v>
+      </c>
+      <c r="T7" s="107">
+        <f>'Sp2'!H27</f>
+        <v>0</v>
+      </c>
+      <c r="U7" s="107">
+        <f>'Sp2'!I27</f>
+        <v>0</v>
+      </c>
+      <c r="V7" s="107">
+        <f>'Sp2'!J27</f>
+        <v>0</v>
+      </c>
+      <c r="W7" s="107">
+        <f>'Sp2'!K27</f>
+        <v>0</v>
+      </c>
+      <c r="X7" s="113">
+        <f>'Sp2'!L27</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B8" s="63"/>
+      <c r="C8" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="78">
-        <v>0</v>
-      </c>
-      <c r="E8" s="78">
-        <v>0</v>
-      </c>
-      <c r="F8" s="78">
-        <v>0</v>
-      </c>
-      <c r="G8" s="78">
-        <v>0</v>
-      </c>
-      <c r="H8" s="78">
-        <v>0</v>
-      </c>
-      <c r="I8" s="78">
-        <v>0</v>
-      </c>
-      <c r="J8" s="78">
+      <c r="D8" s="118">
+        <v>0</v>
+      </c>
+      <c r="E8" s="42">
+        <v>0</v>
+      </c>
+      <c r="F8" s="42">
+        <v>0</v>
+      </c>
+      <c r="G8" s="42">
+        <v>0</v>
+      </c>
+      <c r="H8" s="42">
+        <v>0</v>
+      </c>
+      <c r="I8" s="42">
+        <v>0</v>
+      </c>
+      <c r="J8" s="42">
         <v>1.5</v>
       </c>
-      <c r="K8" s="78">
+      <c r="K8" s="42">
         <v>0.5</v>
       </c>
-      <c r="L8" s="78">
-        <v>0</v>
-      </c>
-      <c r="M8" s="78">
-        <v>0</v>
-      </c>
-      <c r="N8" s="78">
-        <v>0</v>
-      </c>
-      <c r="O8" s="78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B9" s="86"/>
-      <c r="C9" s="104" t="s">
+      <c r="L8" s="42">
+        <v>0</v>
+      </c>
+      <c r="M8" s="42">
+        <v>0</v>
+      </c>
+      <c r="N8" s="42">
+        <v>0</v>
+      </c>
+      <c r="O8" s="43">
+        <v>0</v>
+      </c>
+      <c r="P8" s="112">
+        <f>'Sp2'!D28</f>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="107">
+        <f>'Sp2'!E28</f>
+        <v>0</v>
+      </c>
+      <c r="R8" s="107">
+        <f>'Sp2'!F28</f>
+        <v>0</v>
+      </c>
+      <c r="S8" s="107">
+        <f>'Sp2'!G28</f>
+        <v>0</v>
+      </c>
+      <c r="T8" s="107">
+        <f>'Sp2'!H28</f>
+        <v>0</v>
+      </c>
+      <c r="U8" s="107">
+        <f>'Sp2'!I28</f>
+        <v>0</v>
+      </c>
+      <c r="V8" s="107">
+        <f>'Sp2'!J28</f>
+        <v>0</v>
+      </c>
+      <c r="W8" s="107">
+        <f>'Sp2'!K28</f>
+        <v>0</v>
+      </c>
+      <c r="X8" s="113">
+        <f>'Sp2'!L28</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B9" s="64"/>
+      <c r="C9" s="116" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="107">
+      <c r="D9" s="119">
         <v>0.75</v>
       </c>
-      <c r="E9" s="107">
-        <v>0</v>
-      </c>
-      <c r="F9" s="107">
-        <v>0</v>
-      </c>
-      <c r="G9" s="107">
-        <v>0</v>
-      </c>
-      <c r="H9" s="107">
-        <v>0</v>
-      </c>
-      <c r="I9" s="107">
+      <c r="E9" s="120">
+        <v>0</v>
+      </c>
+      <c r="F9" s="120">
+        <v>0</v>
+      </c>
+      <c r="G9" s="120">
+        <v>0</v>
+      </c>
+      <c r="H9" s="120">
+        <v>0</v>
+      </c>
+      <c r="I9" s="120">
         <v>2</v>
       </c>
-      <c r="J9" s="107">
+      <c r="J9" s="120">
         <v>7.5</v>
       </c>
-      <c r="K9" s="107">
+      <c r="K9" s="120">
         <v>5.5</v>
       </c>
-      <c r="L9" s="107">
-        <v>0</v>
-      </c>
-      <c r="M9" s="107">
-        <v>0</v>
-      </c>
-      <c r="N9" s="107">
-        <v>0</v>
-      </c>
-      <c r="O9" s="107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B10" s="14"/>
-    </row>
-    <row r="11" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="84" t="s">
+      <c r="L9" s="120">
+        <v>0</v>
+      </c>
+      <c r="M9" s="120">
+        <v>0</v>
+      </c>
+      <c r="N9" s="120">
+        <v>0</v>
+      </c>
+      <c r="O9" s="121">
+        <v>0</v>
+      </c>
+      <c r="P9" s="128">
+        <f>'Sp2'!D25</f>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="129">
+        <f>'Sp2'!E25</f>
+        <v>0</v>
+      </c>
+      <c r="R9" s="129">
+        <f>'Sp2'!F25</f>
+        <v>0</v>
+      </c>
+      <c r="S9" s="129">
+        <f>'Sp2'!G25</f>
+        <v>0</v>
+      </c>
+      <c r="T9" s="129">
+        <f>'Sp2'!H25</f>
+        <v>6</v>
+      </c>
+      <c r="U9" s="129">
+        <f>'Sp2'!I25</f>
+        <v>0</v>
+      </c>
+      <c r="V9" s="129">
+        <f>'Sp2'!J25</f>
+        <v>0</v>
+      </c>
+      <c r="W9" s="129">
+        <f>'Sp2'!K25</f>
+        <v>0</v>
+      </c>
+      <c r="X9" s="130">
+        <f>'Sp2'!L25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B10" s="5"/>
+      <c r="D10" s="114"/>
+      <c r="E10" s="96"/>
+      <c r="F10" s="96"/>
+      <c r="G10" s="96"/>
+      <c r="H10" s="96"/>
+      <c r="I10" s="96"/>
+      <c r="J10" s="96"/>
+      <c r="K10" s="96"/>
+      <c r="L10" s="96"/>
+      <c r="M10" s="96"/>
+      <c r="N10" s="96"/>
+      <c r="O10" s="115"/>
+      <c r="P10" s="114"/>
+      <c r="Q10" s="96"/>
+      <c r="R10" s="96"/>
+      <c r="S10" s="96"/>
+      <c r="T10" s="96"/>
+      <c r="U10" s="96"/>
+      <c r="V10" s="96"/>
+      <c r="W10" s="96"/>
+      <c r="X10" s="115"/>
+    </row>
+    <row r="11" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="101" t="s">
+      <c r="C11" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="71">
+      <c r="D11" s="33">
         <v>0.75</v>
       </c>
-      <c r="E11" s="71">
+      <c r="E11" s="33">
+        <f>AVERAGE($D$6:E6)</f>
+        <v>0.375</v>
+      </c>
+      <c r="F11" s="33">
+        <f>AVERAGE($D$6:F6)</f>
         <v>0.25</v>
       </c>
-      <c r="F11" s="71">
+      <c r="G11" s="33">
+        <f>AVERAGE($D$6:G6)</f>
+        <v>0.1875</v>
+      </c>
+      <c r="H11" s="33">
+        <f>AVERAGE($D$6:H6)</f>
+        <v>0.15</v>
+      </c>
+      <c r="I11" s="33">
+        <f>AVERAGE($D$6:I6)</f>
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="J11" s="33">
+        <f>AVERAGE($D$6:J6)</f>
+        <v>0.9642857142857143</v>
+      </c>
+      <c r="K11" s="33">
+        <f>AVERAGE($D$6:K6)</f>
+        <v>0.84375</v>
+      </c>
+      <c r="L11" s="33">
+        <f>AVERAGE($D$6:L6)</f>
+        <v>0.75</v>
+      </c>
+      <c r="M11" s="33">
+        <f>AVERAGE($D$6:M6)</f>
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="N11" s="33">
+        <f>AVERAGE($D$6:N6)</f>
+        <v>0.61363636363636365</v>
+      </c>
+      <c r="O11" s="37">
+        <f>AVERAGE($D$6:O6)</f>
+        <v>0.5625</v>
+      </c>
+      <c r="P11" s="33">
+        <f>AVERAGE($D$6:P6)</f>
+        <v>0.51923076923076927</v>
+      </c>
+      <c r="Q11" s="33">
+        <f>AVERAGE($D$6:Q6)</f>
+        <v>0.48214285714285715</v>
+      </c>
+      <c r="R11" s="33">
+        <f>AVERAGE($D$6:R6)</f>
+        <v>0.45</v>
+      </c>
+      <c r="S11" s="33">
+        <f>AVERAGE($D$6:S6)</f>
+        <v>0.421875</v>
+      </c>
+      <c r="T11" s="33">
+        <f>AVERAGE($D$6:T6)</f>
+        <v>0.75</v>
+      </c>
+      <c r="U11" s="33">
+        <f>AVERAGE($D$6:U6)</f>
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="V11" s="33">
+        <f>AVERAGE($D$6:V6)</f>
+        <v>0.67105263157894735</v>
+      </c>
+      <c r="W11" s="33">
+        <f>AVERAGE($D$6:W6)</f>
+        <v>0.63749999999999996</v>
+      </c>
+      <c r="X11" s="37">
+        <f>AVERAGE($D$6:X6)</f>
+        <v>0.6071428571428571</v>
+      </c>
+    </row>
+    <row r="12" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B12" s="63"/>
+      <c r="C12" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="38">
+        <v>0</v>
+      </c>
+      <c r="E12" s="38">
+        <f>AVERAGE($D$7:E7)</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="38">
+        <f>AVERAGE($D$7:F7)</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="38">
+        <f>AVERAGE($D$7:G7)</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="38">
+        <f>AVERAGE($D$7:H7)</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="38">
+        <f>AVERAGE($D$7:I7)</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="38">
+        <f>AVERAGE($D$7:J7)</f>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="K12" s="38">
+        <f>AVERAGE($D$7:K7)</f>
+        <v>0.875</v>
+      </c>
+      <c r="L12" s="38">
+        <f>AVERAGE($D$7:L7)</f>
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="M12" s="38">
+        <f>AVERAGE($D$7:M7)</f>
+        <v>0.7</v>
+      </c>
+      <c r="N12" s="38">
+        <f>AVERAGE($D$7:N7)</f>
+        <v>0.63636363636363635</v>
+      </c>
+      <c r="O12" s="39">
+        <f>AVERAGE($D$7:O7)</f>
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P12" s="38">
+        <f>AVERAGE($D$7:P7)</f>
+        <v>0.53846153846153844</v>
+      </c>
+      <c r="Q12" s="38">
+        <f>AVERAGE($D$7:Q7)</f>
+        <v>0.5</v>
+      </c>
+      <c r="R12" s="38">
+        <f>AVERAGE($D$7:R7)</f>
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="S12" s="38">
+        <f>AVERAGE($D$7:S7)</f>
+        <v>0.4375</v>
+      </c>
+      <c r="T12" s="38">
+        <f>AVERAGE($D$7:T7)</f>
+        <v>0.41176470588235292</v>
+      </c>
+      <c r="U12" s="38">
+        <f>AVERAGE($D$7:U7)</f>
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="V12" s="38">
+        <f>AVERAGE($D$7:V7)</f>
+        <v>0.36842105263157893</v>
+      </c>
+      <c r="W12" s="38">
+        <f>AVERAGE($D$7:W7)</f>
+        <v>0.35</v>
+      </c>
+      <c r="X12" s="39">
+        <f>AVERAGE($D$7:X7)</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="13" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B13" s="63"/>
+      <c r="C13" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="38">
+        <v>0</v>
+      </c>
+      <c r="E13" s="38">
+        <f>AVERAGE($D$8:E8)</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="38">
+        <f>AVERAGE($D$8:F8)</f>
+        <v>0</v>
+      </c>
+      <c r="G13" s="38">
+        <f>AVERAGE($D$8:G8)</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="38">
+        <f>AVERAGE($D$8:H8)</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="38">
+        <f>AVERAGE($D$8:I8)</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="38">
+        <f>AVERAGE($D$8:J8)</f>
+        <v>0.21428571428571427</v>
+      </c>
+      <c r="K13" s="38">
+        <f>AVERAGE($D$8:K8)</f>
+        <v>0.25</v>
+      </c>
+      <c r="L13" s="38">
+        <f>AVERAGE($D$8:L8)</f>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="M13" s="38">
+        <f>AVERAGE($D$8:M8)</f>
+        <v>0.2</v>
+      </c>
+      <c r="N13" s="38">
+        <f>AVERAGE($D$8:N8)</f>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="O13" s="39">
+        <f>AVERAGE($D$8:O8)</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="G11" s="71">
+      <c r="P13" s="38">
+        <f>AVERAGE($D$8:P8)</f>
+        <v>0.15384615384615385</v>
+      </c>
+      <c r="Q13" s="38">
+        <f>AVERAGE($D$8:Q8)</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="R13" s="38">
+        <f>AVERAGE($D$8:R8)</f>
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="S13" s="38">
+        <f>AVERAGE($D$8:S8)</f>
         <v>0.125</v>
       </c>
-      <c r="H11" s="71">
+      <c r="T13" s="38">
+        <f>AVERAGE($D$8:T8)</f>
+        <v>0.11764705882352941</v>
+      </c>
+      <c r="U13" s="38">
+        <f>AVERAGE($D$8:U8)</f>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="V13" s="38">
+        <f>AVERAGE($D$8:V8)</f>
+        <v>0.10526315789473684</v>
+      </c>
+      <c r="W13" s="38">
+        <f>AVERAGE($D$8:W8)</f>
         <v>0.1</v>
       </c>
-      <c r="I11" s="71">
-        <v>0.39473684210526316</v>
-      </c>
-      <c r="J11" s="71">
-        <v>1</v>
-      </c>
-      <c r="K11" s="71">
-        <v>1.4259259259259258</v>
-      </c>
-      <c r="L11" s="71">
-        <v>1.2833333333333334</v>
-      </c>
-      <c r="M11" s="71">
-        <v>1.1666666666666667</v>
-      </c>
-      <c r="N11" s="71">
-        <v>1.0694444444444444</v>
-      </c>
-      <c r="O11" s="71">
-        <v>0.98717948717948723</v>
-      </c>
-      <c r="P11" s="71"/>
-    </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B12" s="85"/>
-      <c r="C12" s="102" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="71">
-        <v>0</v>
-      </c>
-      <c r="E12" s="71">
-        <v>0</v>
-      </c>
-      <c r="F12" s="71">
-        <v>0</v>
-      </c>
-      <c r="G12" s="71">
-        <v>0</v>
-      </c>
-      <c r="H12" s="71">
-        <v>0</v>
-      </c>
-      <c r="I12" s="71">
-        <v>0</v>
-      </c>
-      <c r="J12" s="71">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="K12" s="71">
-        <v>0.875</v>
-      </c>
-      <c r="L12" s="71">
-        <v>0.77777777777777779</v>
-      </c>
-      <c r="M12" s="71">
-        <v>0.7</v>
-      </c>
-      <c r="N12" s="71">
-        <v>0.63636363636363635</v>
-      </c>
-      <c r="O12" s="71">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="P12" s="71"/>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B13" s="85"/>
-      <c r="C13" s="103" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="71">
-        <v>0</v>
-      </c>
-      <c r="E13" s="71">
-        <v>0</v>
-      </c>
-      <c r="F13" s="71">
-        <v>0</v>
-      </c>
-      <c r="G13" s="71">
-        <v>0</v>
-      </c>
-      <c r="H13" s="71">
-        <v>0</v>
-      </c>
-      <c r="I13" s="71">
-        <v>0</v>
-      </c>
-      <c r="J13" s="71">
-        <v>0.21428571428571427</v>
-      </c>
-      <c r="K13" s="71">
+      <c r="X13" s="39">
+        <f>AVERAGE($D$8:X8)</f>
+        <v>9.5238095238095233E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B14" s="64"/>
+      <c r="C14" s="116" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="133">
+        <v>0.75</v>
+      </c>
+      <c r="E14" s="140">
+        <f>AVERAGE($D$9:E9)</f>
+        <v>0.375</v>
+      </c>
+      <c r="F14" s="140">
+        <f>AVERAGE($D$9:F9)</f>
         <v>0.25</v>
       </c>
-      <c r="L13" s="71">
-        <v>0.22222222222222221</v>
-      </c>
-      <c r="M13" s="71">
-        <v>0.2</v>
-      </c>
-      <c r="N13" s="71">
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="O13" s="71">
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="P13" s="71"/>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B14" s="86"/>
-      <c r="C14" s="104" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" s="105">
-        <v>0.75</v>
-      </c>
-      <c r="E14" s="105">
-        <v>0.375</v>
-      </c>
-      <c r="F14" s="105">
-        <v>0.25</v>
-      </c>
-      <c r="G14" s="105">
+      <c r="G14" s="140">
+        <f>AVERAGE($D$9:G9)</f>
         <v>0.1875</v>
       </c>
-      <c r="H14" s="105">
+      <c r="H14" s="140">
+        <f>AVERAGE($D$9:H9)</f>
         <v>0.15</v>
       </c>
-      <c r="I14" s="105">
+      <c r="I14" s="140">
+        <f>AVERAGE($D$9:I9)</f>
         <v>0.45833333333333331</v>
       </c>
-      <c r="J14" s="105">
+      <c r="J14" s="140">
+        <f>AVERAGE($D$9:J9)</f>
         <v>1.4642857142857142</v>
       </c>
-      <c r="K14" s="105">
+      <c r="K14" s="140">
+        <f>AVERAGE($D$9:K9)</f>
         <v>1.96875</v>
       </c>
-      <c r="L14" s="105">
+      <c r="L14" s="140">
+        <f>AVERAGE($D$9:L9)</f>
         <v>1.75</v>
       </c>
-      <c r="M14" s="105">
+      <c r="M14" s="140">
+        <f>AVERAGE($D$9:M9)</f>
         <v>1.575</v>
       </c>
-      <c r="N14" s="105">
+      <c r="N14" s="140">
+        <f>AVERAGE($D$9:N9)</f>
         <v>1.4318181818181819</v>
       </c>
-      <c r="O14" s="105">
+      <c r="O14" s="141">
+        <f>AVERAGE($D$9:O9)</f>
         <v>1.3125</v>
       </c>
-      <c r="P14" s="87"/>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B15" s="14"/>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B16" s="11" t="s">
+      <c r="P14" s="140">
+        <f>AVERAGE($D$9:P9)</f>
+        <v>1.2115384615384615</v>
+      </c>
+      <c r="Q14" s="140">
+        <f>AVERAGE($D$9:Q9)</f>
+        <v>1.125</v>
+      </c>
+      <c r="R14" s="140">
+        <f>AVERAGE($D$9:R9)</f>
+        <v>1.05</v>
+      </c>
+      <c r="S14" s="140">
+        <f>AVERAGE($D$9:S9)</f>
+        <v>0.984375</v>
+      </c>
+      <c r="T14" s="140">
+        <f>AVERAGE($D$9:T9)</f>
+        <v>1.2794117647058822</v>
+      </c>
+      <c r="U14" s="140">
+        <f>AVERAGE($D$9:U9)</f>
+        <v>1.2083333333333333</v>
+      </c>
+      <c r="V14" s="140">
+        <f>AVERAGE($D$9:V9)</f>
+        <v>1.1447368421052631</v>
+      </c>
+      <c r="W14" s="140">
+        <f>AVERAGE($D$9:W9)</f>
+        <v>1.0874999999999999</v>
+      </c>
+      <c r="X14" s="141">
+        <f>AVERAGE($D$9:X9)</f>
+        <v>1.0357142857142858</v>
+      </c>
+    </row>
+    <row r="15" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B15" s="5"/>
+      <c r="D15" s="114"/>
+      <c r="E15" s="96"/>
+      <c r="F15" s="96"/>
+      <c r="G15" s="96"/>
+      <c r="H15" s="96"/>
+      <c r="I15" s="96"/>
+      <c r="J15" s="96"/>
+      <c r="K15" s="96"/>
+      <c r="L15" s="96"/>
+      <c r="M15" s="96"/>
+      <c r="N15" s="96"/>
+      <c r="O15" s="115"/>
+      <c r="P15" s="114"/>
+      <c r="Q15" s="96"/>
+      <c r="R15" s="96"/>
+      <c r="S15" s="96"/>
+      <c r="T15" s="96"/>
+      <c r="U15" s="96"/>
+      <c r="V15" s="96"/>
+      <c r="W15" s="96"/>
+      <c r="X15" s="115"/>
+    </row>
+    <row r="16" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B16" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="134" t="s">
         <v>7</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="97">
         <f>D6</f>
         <v>0.75</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="131">
         <f>D16+E6</f>
         <v>0.75</v>
       </c>
-      <c r="F16">
-        <f t="shared" ref="F16:O16" si="0">E16+F6</f>
+      <c r="F16" s="131">
+        <f t="shared" ref="F16:P16" si="0">E16+F6</f>
         <v>0.75</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="131">
         <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="131">
         <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="131">
         <f t="shared" si="0"/>
         <v>2.75</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="131">
         <f t="shared" si="0"/>
         <v>6.75</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="131">
         <f t="shared" si="0"/>
         <v>6.75</v>
       </c>
-      <c r="L16">
+      <c r="L16" s="131">
         <f t="shared" si="0"/>
         <v>6.75</v>
       </c>
-      <c r="M16">
+      <c r="M16" s="131">
         <f t="shared" si="0"/>
         <v>6.75</v>
       </c>
-      <c r="N16">
+      <c r="N16" s="131">
         <f t="shared" si="0"/>
         <v>6.75</v>
       </c>
-      <c r="O16">
+      <c r="O16" s="132">
         <f t="shared" si="0"/>
         <v>6.75</v>
       </c>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B17" s="11"/>
-      <c r="C17" s="13" t="s">
+      <c r="P16" s="132">
+        <f t="shared" si="0"/>
+        <v>6.75</v>
+      </c>
+      <c r="Q16" s="132">
+        <f t="shared" ref="Q16:Q19" si="1">P16+Q6</f>
+        <v>6.75</v>
+      </c>
+      <c r="R16" s="132">
+        <f t="shared" ref="R16:R19" si="2">Q16+R6</f>
+        <v>6.75</v>
+      </c>
+      <c r="S16" s="132">
+        <f t="shared" ref="S16:S19" si="3">R16+S6</f>
+        <v>6.75</v>
+      </c>
+      <c r="T16" s="132">
+        <f t="shared" ref="T16:T19" si="4">S16+T6</f>
+        <v>12.75</v>
+      </c>
+      <c r="U16" s="132">
+        <f t="shared" ref="U16:U19" si="5">T16+U6</f>
+        <v>12.75</v>
+      </c>
+      <c r="V16" s="132">
+        <f t="shared" ref="V16:V19" si="6">U16+V6</f>
+        <v>12.75</v>
+      </c>
+      <c r="W16" s="132">
+        <f t="shared" ref="W16:W19" si="7">V16+W6</f>
+        <v>12.75</v>
+      </c>
+      <c r="X16" s="132">
+        <f t="shared" ref="X16:X19" si="8">W16+X6</f>
+        <v>12.75</v>
+      </c>
+    </row>
+    <row r="17" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B17" s="68"/>
+      <c r="C17" s="117" t="s">
         <v>8</v>
       </c>
-      <c r="D17">
-        <f t="shared" ref="D17:D19" si="1">D7</f>
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <f t="shared" ref="E17:O19" si="2">D17+E7</f>
-        <v>0</v>
-      </c>
-      <c r="F17">
+      <c r="D17" s="114">
+        <f t="shared" ref="D17:D19" si="9">D7</f>
+        <v>0</v>
+      </c>
+      <c r="E17" s="96">
+        <f t="shared" ref="E17:P19" si="10">D17+E7</f>
+        <v>0</v>
+      </c>
+      <c r="F17" s="96">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="96">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H17" s="96">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="96">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="96">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="K17" s="96">
+        <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="L17" s="96">
+        <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="M17" s="96">
+        <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="N17" s="96">
+        <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="O17" s="115">
+        <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="P17" s="115">
+        <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="Q17" s="115">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="R17" s="115">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J17">
+        <v>7</v>
+      </c>
+      <c r="S17" s="115">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="T17" s="115">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="U17" s="115">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="V17" s="115">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="W17" s="115">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="X17" s="115">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B18" s="68"/>
+      <c r="C18" s="117" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="114">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E18" s="96">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F18" s="96">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="96">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="96">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="96">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="96">
+        <f t="shared" si="10"/>
+        <v>1.5</v>
+      </c>
+      <c r="K18" s="96">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="L18" s="96">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="M18" s="96">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="N18" s="96">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="O18" s="115">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="P18" s="115">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="Q18" s="115">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="R18" s="115">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="K17">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="L17">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="M17">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="N17">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="O17">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B18" s="11"/>
-      <c r="C18" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18">
+      <c r="S18" s="115">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="T18" s="115">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="U18" s="115">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="V18" s="115">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="W18" s="115">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="X18" s="115">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B19" s="69"/>
+      <c r="C19" s="135" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="119">
+        <f t="shared" si="9"/>
+        <v>0.75</v>
+      </c>
+      <c r="E19" s="120">
+        <f t="shared" si="10"/>
+        <v>0.75</v>
+      </c>
+      <c r="F19" s="120">
+        <f t="shared" si="10"/>
+        <v>0.75</v>
+      </c>
+      <c r="G19" s="120">
+        <f t="shared" si="10"/>
+        <v>0.75</v>
+      </c>
+      <c r="H19" s="120">
+        <f t="shared" si="10"/>
+        <v>0.75</v>
+      </c>
+      <c r="I19" s="120">
+        <f t="shared" si="10"/>
+        <v>2.75</v>
+      </c>
+      <c r="J19" s="120">
+        <f t="shared" si="10"/>
+        <v>10.25</v>
+      </c>
+      <c r="K19" s="120">
+        <f t="shared" si="10"/>
+        <v>15.75</v>
+      </c>
+      <c r="L19" s="120">
+        <f t="shared" si="10"/>
+        <v>15.75</v>
+      </c>
+      <c r="M19" s="120">
+        <f t="shared" si="10"/>
+        <v>15.75</v>
+      </c>
+      <c r="N19" s="120">
+        <f t="shared" si="10"/>
+        <v>15.75</v>
+      </c>
+      <c r="O19" s="121">
+        <f t="shared" si="10"/>
+        <v>15.75</v>
+      </c>
+      <c r="P19" s="121">
+        <f t="shared" si="10"/>
+        <v>15.75</v>
+      </c>
+      <c r="Q19" s="121">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <f t="shared" si="2"/>
-        <v>1.5</v>
-      </c>
-      <c r="K18">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="L18">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="M18">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="N18">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="O18">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B19" s="11"/>
-      <c r="C19" s="99" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" s="106">
-        <f t="shared" si="1"/>
-        <v>0.75</v>
-      </c>
-      <c r="E19" s="106">
-        <f t="shared" si="2"/>
-        <v>0.75</v>
-      </c>
-      <c r="F19" s="106">
-        <f t="shared" si="2"/>
-        <v>0.75</v>
-      </c>
-      <c r="G19" s="106">
-        <f t="shared" si="2"/>
-        <v>0.75</v>
-      </c>
-      <c r="H19" s="106">
-        <f t="shared" si="2"/>
-        <v>0.75</v>
-      </c>
-      <c r="I19" s="106">
-        <f t="shared" si="2"/>
-        <v>2.75</v>
-      </c>
-      <c r="J19" s="106">
-        <f t="shared" si="2"/>
-        <v>10.25</v>
-      </c>
-      <c r="K19" s="106">
+        <v>15.75</v>
+      </c>
+      <c r="R19" s="121">
         <f t="shared" si="2"/>
         <v>15.75</v>
       </c>
-      <c r="L19" s="106">
-        <f t="shared" si="2"/>
+      <c r="S19" s="121">
+        <f t="shared" si="3"/>
         <v>15.75</v>
       </c>
-      <c r="M19" s="106">
-        <f t="shared" si="2"/>
-        <v>15.75</v>
-      </c>
-      <c r="N19" s="106">
-        <f t="shared" si="2"/>
-        <v>15.75</v>
-      </c>
-      <c r="O19" s="106">
-        <f t="shared" si="2"/>
-        <v>15.75</v>
-      </c>
-    </row>
-    <row r="21" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="94" t="s">
+      <c r="T19" s="121">
+        <f t="shared" si="4"/>
+        <v>21.75</v>
+      </c>
+      <c r="U19" s="121">
+        <f t="shared" si="5"/>
+        <v>21.75</v>
+      </c>
+      <c r="V19" s="121">
+        <f t="shared" si="6"/>
+        <v>21.75</v>
+      </c>
+      <c r="W19" s="121">
+        <f t="shared" si="7"/>
+        <v>21.75</v>
+      </c>
+      <c r="X19" s="121">
+        <f t="shared" si="8"/>
+        <v>21.75</v>
+      </c>
+    </row>
+    <row r="21" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B21" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="94"/>
-      <c r="D21" s="95">
+      <c r="C21" s="155"/>
+      <c r="D21" s="159">
         <v>1</v>
       </c>
-      <c r="E21" s="95"/>
-    </row>
-    <row r="22" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B22" s="94" t="s">
+      <c r="E21" s="160"/>
+      <c r="F21" s="157">
+        <v>2</v>
+      </c>
+      <c r="G21" s="55"/>
+    </row>
+    <row r="22" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B22" s="142" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="94"/>
-      <c r="D22" s="96">
+      <c r="C22" s="156"/>
+      <c r="D22" s="161">
         <v>1</v>
       </c>
-      <c r="E22" s="96">
+      <c r="E22" s="162">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B23" s="11" t="s">
+      <c r="F22" s="158">
+        <v>3</v>
+      </c>
+      <c r="G22" s="143">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B23" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="134" t="s">
         <v>7</v>
       </c>
-      <c r="D23" s="97">
+      <c r="D23" s="163">
         <f xml:space="preserve"> SUM(D6:I6)</f>
         <v>2.75</v>
       </c>
-      <c r="E23" s="97">
+      <c r="E23" s="147">
         <f xml:space="preserve"> SUM(J6:O6)</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B24" s="11"/>
-      <c r="C24" s="13" t="s">
+      <c r="F23" s="146">
+        <f xml:space="preserve"> SUM(P6:T6)</f>
+        <v>6</v>
+      </c>
+      <c r="G23" s="147">
+        <f xml:space="preserve"> SUM(L6:Q6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B24" s="68"/>
+      <c r="C24" s="117" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="97">
-        <f t="shared" ref="D24:D26" si="3" xml:space="preserve"> SUM(D7:I7)</f>
-        <v>0</v>
-      </c>
-      <c r="E24" s="97">
-        <f t="shared" ref="E24:E26" si="4" xml:space="preserve"> SUM(J7:O7)</f>
+      <c r="D24" s="164">
+        <f t="shared" ref="D24:D26" si="11" xml:space="preserve"> SUM(D7:I7)</f>
+        <v>0</v>
+      </c>
+      <c r="E24" s="149">
+        <f t="shared" ref="E24:E26" si="12" xml:space="preserve"> SUM(J7:O7)</f>
         <v>7</v>
       </c>
-    </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B25" s="11"/>
-      <c r="C25" s="13" t="s">
+      <c r="F24" s="148">
+        <f t="shared" ref="F24:F26" si="13" xml:space="preserve"> SUM(P7:T7)</f>
+        <v>0</v>
+      </c>
+      <c r="G24" s="149">
+        <f t="shared" ref="G24:G26" si="14" xml:space="preserve"> SUM(L7:Q7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B25" s="68"/>
+      <c r="C25" s="117" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="97">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E25" s="97">
-        <f t="shared" si="4"/>
+      <c r="D25" s="164">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E25" s="149">
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B26" s="11"/>
-      <c r="C26" s="99" t="s">
+      <c r="F25" s="148">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="G25" s="149">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B26" s="69"/>
+      <c r="C26" s="135" t="s">
         <v>4</v>
       </c>
-      <c r="D26" s="97">
-        <f t="shared" si="3"/>
+      <c r="D26" s="165">
+        <f t="shared" si="11"/>
         <v>2.75</v>
       </c>
-      <c r="E26" s="97">
-        <f t="shared" si="4"/>
+      <c r="E26" s="151">
+        <f t="shared" si="12"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B27" s="98"/>
-      <c r="C27" s="100"/>
-    </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B28" s="44" t="s">
+      <c r="F26" s="150">
+        <f t="shared" si="13"/>
+        <v>6</v>
+      </c>
+      <c r="G26" s="151">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B27" s="144"/>
+      <c r="C27" s="145"/>
+    </row>
+    <row r="28" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B28" s="152" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="C28" s="134" t="s">
         <v>7</v>
       </c>
-      <c r="D28" s="97">
+      <c r="D28" s="163">
         <f xml:space="preserve"> D23</f>
         <v>2.75</v>
       </c>
-      <c r="E28" s="97">
+      <c r="E28" s="147">
         <f xml:space="preserve"> AVERAGE($D$23:E23)</f>
         <v>3.375</v>
       </c>
-    </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B29" s="47"/>
-      <c r="C29" s="13" t="s">
+      <c r="F28" s="146">
+        <f xml:space="preserve"> AVERAGE($D$23:F23)</f>
+        <v>4.25</v>
+      </c>
+      <c r="G28" s="147">
+        <f xml:space="preserve"> AVERAGE($D$23:G23)</f>
+        <v>3.1875</v>
+      </c>
+    </row>
+    <row r="29" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B29" s="153"/>
+      <c r="C29" s="117" t="s">
         <v>8</v>
       </c>
-      <c r="D29" s="97">
-        <f t="shared" ref="D29:D31" si="5" xml:space="preserve"> D24</f>
-        <v>0</v>
-      </c>
-      <c r="E29" s="97">
+      <c r="D29" s="164">
+        <f t="shared" ref="D29:F31" si="15" xml:space="preserve"> D24</f>
+        <v>0</v>
+      </c>
+      <c r="E29" s="149">
         <f xml:space="preserve"> AVERAGE($D$24:E24)</f>
         <v>3.5</v>
       </c>
-    </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B30" s="47"/>
-      <c r="C30" s="13" t="s">
+      <c r="F29" s="148">
+        <f xml:space="preserve"> AVERAGE($D$24:F24)</f>
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="G29" s="149">
+        <f xml:space="preserve"> AVERAGE($D$24:G24)</f>
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="30" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B30" s="153"/>
+      <c r="C30" s="117" t="s">
         <v>9</v>
       </c>
-      <c r="D30" s="97">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E30" s="97">
+      <c r="D30" s="164">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="E30" s="149">
         <f xml:space="preserve"> AVERAGE($D$25:E25)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B31" s="48"/>
-      <c r="C31" s="99" t="s">
+      <c r="F30" s="148">
+        <f xml:space="preserve"> AVERAGE($D$25:F25)</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G30" s="149">
+        <f xml:space="preserve"> AVERAGE($D$25:G25)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="31" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B31" s="154"/>
+      <c r="C31" s="135" t="s">
         <v>4</v>
       </c>
-      <c r="D31" s="97">
-        <f t="shared" si="5"/>
+      <c r="D31" s="165">
+        <f t="shared" si="15"/>
         <v>2.75</v>
       </c>
-      <c r="E31" s="97">
+      <c r="E31" s="151">
         <f xml:space="preserve"> AVERAGE($D$26:E26)</f>
         <v>7.875</v>
       </c>
-    </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B32" s="14"/>
-      <c r="C32" s="15"/>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" s="11" t="s">
+      <c r="F31" s="150">
+        <f xml:space="preserve"> AVERAGE($D$26:F26)</f>
+        <v>7.25</v>
+      </c>
+      <c r="G31" s="151">
+        <f xml:space="preserve"> AVERAGE($D$26:G26)</f>
+        <v>5.4375</v>
+      </c>
+    </row>
+    <row r="32" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B32" s="5"/>
+      <c r="C32" s="6"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="C33" s="12" t="s">
+      <c r="C33" s="134" t="s">
         <v>7</v>
       </c>
-      <c r="D33" s="97">
+      <c r="D33" s="163">
         <f xml:space="preserve"> D23</f>
         <v>2.75</v>
       </c>
-      <c r="E33" s="97">
+      <c r="E33" s="147">
         <f xml:space="preserve"> D33 + E23</f>
         <v>6.75</v>
       </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34" s="11"/>
-      <c r="C34" s="13" t="s">
+      <c r="F33" s="146">
+        <f t="shared" ref="F33:G36" si="16" xml:space="preserve"> E33 + F23</f>
+        <v>12.75</v>
+      </c>
+      <c r="G33" s="147">
+        <f t="shared" si="16"/>
+        <v>12.75</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B34" s="68"/>
+      <c r="C34" s="117" t="s">
         <v>8</v>
       </c>
-      <c r="D34" s="97">
-        <f t="shared" ref="D34:D36" si="6" xml:space="preserve"> D24</f>
-        <v>0</v>
-      </c>
-      <c r="E34" s="97">
-        <f t="shared" ref="E34:E36" si="7" xml:space="preserve"> D34 + E24</f>
+      <c r="D34" s="164">
+        <f t="shared" ref="D34:F36" si="17" xml:space="preserve"> D24</f>
+        <v>0</v>
+      </c>
+      <c r="E34" s="149">
+        <f t="shared" ref="E34:E36" si="18" xml:space="preserve"> D34 + E24</f>
         <v>7</v>
       </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B35" s="11"/>
-      <c r="C35" s="13" t="s">
+      <c r="F34" s="148">
+        <f t="shared" si="16"/>
+        <v>7</v>
+      </c>
+      <c r="G34" s="149">
+        <f t="shared" si="16"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B35" s="68"/>
+      <c r="C35" s="117" t="s">
         <v>9</v>
       </c>
-      <c r="D35" s="97">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="E35" s="97">
-        <f t="shared" si="7"/>
+      <c r="D35" s="164">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="E35" s="149">
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B36" s="11"/>
-      <c r="C36" s="99" t="s">
+      <c r="F35" s="148">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="G35" s="149">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B36" s="69"/>
+      <c r="C36" s="135" t="s">
         <v>4</v>
       </c>
-      <c r="D36" s="97">
-        <f t="shared" si="6"/>
+      <c r="D36" s="165">
+        <f t="shared" si="17"/>
         <v>2.75</v>
       </c>
-      <c r="E36" s="97">
-        <f t="shared" si="7"/>
+      <c r="E36" s="151">
+        <f t="shared" si="18"/>
         <v>15.75</v>
       </c>
+      <c r="F36" s="150">
+        <f t="shared" si="16"/>
+        <v>21.75</v>
+      </c>
+      <c r="G36" s="151">
+        <f t="shared" si="16"/>
+        <v>21.75</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="B28:B31"/>
+  <mergeCells count="16">
+    <mergeCell ref="P3:T3"/>
+    <mergeCell ref="U3:X3"/>
+    <mergeCell ref="P2:X2"/>
     <mergeCell ref="B33:B36"/>
     <mergeCell ref="D3:I3"/>
     <mergeCell ref="J3:O3"/>
@@ -5727,9 +8408,19 @@
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="B11:B14"/>
     <mergeCell ref="B16:B19"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="B28:B31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="E11:X14" formulaRange="1"/>
+  </ignoredErrors>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5737,8 +8428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="S40" sqref="S40"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5748,1396 +8439,1407 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="2" t="s">
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="3"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="86"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="1">
         <v>41939</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="2">
         <v>41940</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="1">
         <v>41941</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="2">
         <v>41942</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="1">
         <v>41943</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="2">
         <v>41944</v>
       </c>
-      <c r="J2" s="4">
+      <c r="J2" s="1">
         <v>41945</v>
       </c>
-      <c r="K2" s="5">
+      <c r="K2" s="2">
         <v>41946</v>
       </c>
-      <c r="L2" s="4">
+      <c r="L2" s="1">
         <v>41947</v>
       </c>
-      <c r="M2" s="5">
+      <c r="M2" s="2">
         <v>41948</v>
       </c>
-      <c r="N2" s="4">
+      <c r="N2" s="1">
         <v>41949</v>
       </c>
-      <c r="O2" s="5">
+      <c r="O2" s="2">
         <v>41950</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="3">
         <v>1</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="3">
         <v>2</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="3">
         <v>3</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="3">
         <v>4</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="3">
         <v>5</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="3">
         <v>6</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3" s="3">
         <v>7</v>
       </c>
-      <c r="K3" s="6">
+      <c r="K3" s="3">
         <v>8</v>
       </c>
-      <c r="L3" s="6">
+      <c r="L3" s="3">
         <v>9</v>
       </c>
-      <c r="M3" s="6">
+      <c r="M3" s="3">
         <v>10</v>
       </c>
-      <c r="N3" s="6">
+      <c r="N3" s="3">
         <v>11</v>
       </c>
-      <c r="O3" s="6">
+      <c r="O3" s="3">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="18" t="s">
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="20">
+      <c r="B5" s="87">
         <v>2</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="22">
+      <c r="D5" s="11">
         <f t="shared" ref="D5:O5" si="0">SUM(D6:D8)</f>
         <v>0.75</v>
       </c>
-      <c r="E5" s="22">
+      <c r="E5" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F5" s="22">
+      <c r="F5" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G5" s="22">
+      <c r="G5" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H5" s="22">
+      <c r="H5" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I5" s="22">
+      <c r="I5" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J5" s="22">
+      <c r="J5" s="11">
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
-      <c r="K5" s="22">
+      <c r="K5" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L5" s="22">
+      <c r="L5" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M5" s="22">
+      <c r="M5" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N5" s="22">
+      <c r="N5" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O5" s="22">
+      <c r="O5" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P5" s="23">
+      <c r="P5" s="12">
         <f>SUM(D5:O5)</f>
         <v>3.25</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="24"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="26" t="s">
+      <c r="A6" s="79"/>
+      <c r="B6" s="88"/>
+      <c r="C6" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="27">
+      <c r="D6" s="14">
         <v>0.75</v>
       </c>
-      <c r="E6" s="27"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="28"/>
-      <c r="N6" s="28"/>
-      <c r="O6" s="28"/>
-      <c r="P6" s="29">
+      <c r="E6" s="14"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="16">
         <f t="shared" ref="P6:P25" si="1">SUM(D6:O6)</f>
         <v>0.75</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="24"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="26" t="s">
+      <c r="A7" s="79"/>
+      <c r="B7" s="88"/>
+      <c r="C7" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28">
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15">
         <v>2</v>
       </c>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="28"/>
-      <c r="O7" s="28"/>
-      <c r="P7" s="29">
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="16">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="24"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="30" t="s">
+      <c r="A8" s="79"/>
+      <c r="B8" s="88"/>
+      <c r="C8" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="32">
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19">
         <v>0.5</v>
       </c>
-      <c r="K8" s="32"/>
-      <c r="L8" s="32"/>
-      <c r="M8" s="32"/>
-      <c r="N8" s="32"/>
-      <c r="O8" s="32"/>
-      <c r="P8" s="33">
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="19"/>
+      <c r="P8" s="20">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="24"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="34" t="s">
+      <c r="A9" s="79"/>
+      <c r="B9" s="88"/>
+      <c r="C9" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="22">
+      <c r="D9" s="11">
         <f t="shared" ref="D9:O9" si="2">SUM(D10:D12)</f>
         <v>0</v>
       </c>
-      <c r="E9" s="22">
+      <c r="E9" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F9" s="22">
+      <c r="F9" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G9" s="22">
+      <c r="G9" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H9" s="22">
+      <c r="H9" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I9" s="22">
+      <c r="I9" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J9" s="22">
+      <c r="J9" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K9" s="22">
+      <c r="K9" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L9" s="22">
+      <c r="L9" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M9" s="22">
+      <c r="M9" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N9" s="22">
+      <c r="N9" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O9" s="22">
+      <c r="O9" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P9" s="23">
+      <c r="P9" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="24"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="26" t="s">
+      <c r="A10" s="79"/>
+      <c r="B10" s="88"/>
+      <c r="C10" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="28"/>
-      <c r="O10" s="28"/>
-      <c r="P10" s="29">
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="24"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="26" t="s">
+      <c r="A11" s="79"/>
+      <c r="B11" s="88"/>
+      <c r="C11" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="28"/>
-      <c r="P11" s="29">
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="24"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="30" t="s">
+      <c r="A12" s="79"/>
+      <c r="B12" s="88"/>
+      <c r="C12" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="32"/>
-      <c r="L12" s="32"/>
-      <c r="M12" s="32"/>
-      <c r="N12" s="32"/>
-      <c r="O12" s="32"/>
-      <c r="P12" s="33">
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="24"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="34" t="s">
+      <c r="A13" s="79"/>
+      <c r="B13" s="88"/>
+      <c r="C13" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="22">
+      <c r="D13" s="11">
         <f t="shared" ref="D13:O13" si="3">SUM(D14:D16)</f>
         <v>0</v>
       </c>
-      <c r="E13" s="22">
+      <c r="E13" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F13" s="22">
+      <c r="F13" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G13" s="22">
+      <c r="G13" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H13" s="22">
+      <c r="H13" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I13" s="22">
+      <c r="I13" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J13" s="22">
+      <c r="J13" s="11">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="K13" s="22">
+      <c r="K13" s="11">
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="L13" s="22">
+      <c r="L13" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M13" s="22">
+      <c r="M13" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N13" s="22">
+      <c r="N13" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O13" s="22">
+      <c r="O13" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P13" s="23">
+      <c r="P13" s="12">
         <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="24"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="26" t="s">
+      <c r="A14" s="79"/>
+      <c r="B14" s="88"/>
+      <c r="C14" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="28"/>
-      <c r="O14" s="28"/>
-      <c r="P14" s="29">
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="24"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="26" t="s">
+      <c r="A15" s="79"/>
+      <c r="B15" s="88"/>
+      <c r="C15" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="28"/>
-      <c r="N15" s="28"/>
-      <c r="O15" s="28"/>
-      <c r="P15" s="29">
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="24"/>
-      <c r="B16" s="35"/>
-      <c r="C16" s="30" t="s">
+      <c r="A16" s="79"/>
+      <c r="B16" s="89"/>
+      <c r="C16" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="32">
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19">
         <v>1</v>
       </c>
-      <c r="K16" s="32">
+      <c r="K16" s="19">
         <v>0.5</v>
       </c>
-      <c r="L16" s="32"/>
-      <c r="M16" s="32"/>
-      <c r="N16" s="32"/>
-      <c r="O16" s="32"/>
-      <c r="P16" s="33">
+      <c r="L16" s="19"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="20">
         <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="24"/>
-      <c r="B17" s="20">
+      <c r="A17" s="79"/>
+      <c r="B17" s="87">
         <v>3</v>
       </c>
-      <c r="C17" s="34" t="s">
+      <c r="C17" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="22">
+      <c r="D17" s="11">
         <f t="shared" ref="D17:O17" si="4">SUM(D18:D20)</f>
         <v>0</v>
       </c>
-      <c r="E17" s="22">
+      <c r="E17" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F17" s="22">
+      <c r="F17" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G17" s="22">
+      <c r="G17" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H17" s="22">
+      <c r="H17" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I17" s="22">
+      <c r="I17" s="11">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="J17" s="22">
+      <c r="J17" s="11">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="K17" s="22">
+      <c r="K17" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L17" s="22">
+      <c r="L17" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M17" s="22">
+      <c r="M17" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N17" s="22">
+      <c r="N17" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O17" s="22">
+      <c r="O17" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P17" s="23">
+      <c r="P17" s="12">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="24"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="26" t="s">
+      <c r="A18" s="79"/>
+      <c r="B18" s="88"/>
+      <c r="C18" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28">
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15">
         <v>2</v>
       </c>
-      <c r="J18" s="28">
+      <c r="J18" s="15">
         <v>4</v>
       </c>
-      <c r="K18" s="28"/>
-      <c r="L18" s="28"/>
-      <c r="M18" s="28"/>
-      <c r="N18" s="28"/>
-      <c r="O18" s="28"/>
-      <c r="P18" s="29">
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="16">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="24"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="26" t="s">
+      <c r="A19" s="79"/>
+      <c r="B19" s="88"/>
+      <c r="C19" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="28"/>
-      <c r="M19" s="28"/>
-      <c r="N19" s="28"/>
-      <c r="O19" s="28"/>
-      <c r="P19" s="29">
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="15"/>
+      <c r="P19" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="24"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="30" t="s">
+      <c r="A20" s="79"/>
+      <c r="B20" s="89"/>
+      <c r="C20" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="32"/>
-      <c r="L20" s="32"/>
-      <c r="M20" s="32"/>
-      <c r="N20" s="32"/>
-      <c r="O20" s="32"/>
-      <c r="P20" s="33">
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="19"/>
+      <c r="O20" s="19"/>
+      <c r="P20" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="24"/>
-      <c r="B21" s="37"/>
-      <c r="C21" s="34" t="s">
+      <c r="A21" s="79"/>
+      <c r="B21" s="90"/>
+      <c r="C21" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="38">
+      <c r="D21" s="22">
         <f t="shared" ref="D21:O21" si="5">SUM(D22:D24)</f>
         <v>0</v>
       </c>
-      <c r="E21" s="38">
+      <c r="E21" s="22">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F21" s="38">
+      <c r="F21" s="22">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G21" s="38">
+      <c r="G21" s="22">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H21" s="38">
+      <c r="H21" s="22">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I21" s="38">
+      <c r="I21" s="22">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J21" s="38">
+      <c r="J21" s="22">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K21" s="38">
+      <c r="K21" s="22">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="L21" s="38">
+      <c r="L21" s="22">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M21" s="38">
+      <c r="M21" s="22">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N21" s="38">
+      <c r="N21" s="22">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O21" s="38">
+      <c r="O21" s="22">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P21" s="23">
+      <c r="P21" s="12">
         <f>SUM(D21:O21)</f>
         <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="24"/>
-      <c r="B22" s="39"/>
-      <c r="C22" s="26" t="s">
+      <c r="A22" s="79"/>
+      <c r="B22" s="91"/>
+      <c r="C22" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="28"/>
-      <c r="M22" s="28"/>
-      <c r="N22" s="28"/>
-      <c r="O22" s="28"/>
-      <c r="P22" s="29">
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="15"/>
+      <c r="P22" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="24"/>
-      <c r="B23" s="39"/>
-      <c r="C23" s="26" t="s">
+      <c r="A23" s="79"/>
+      <c r="B23" s="91"/>
+      <c r="C23" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="28">
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15">
         <v>5</v>
       </c>
-      <c r="L23" s="28"/>
-      <c r="M23" s="28"/>
-      <c r="N23" s="28"/>
-      <c r="O23" s="28"/>
-      <c r="P23" s="29">
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="16">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="36"/>
-      <c r="B24" s="40"/>
-      <c r="C24" s="30" t="s">
+      <c r="A24" s="80"/>
+      <c r="B24" s="92"/>
+      <c r="C24" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="32"/>
-      <c r="J24" s="32"/>
-      <c r="K24" s="32"/>
-      <c r="L24" s="32"/>
-      <c r="M24" s="32"/>
-      <c r="N24" s="32"/>
-      <c r="O24" s="32"/>
-      <c r="P24" s="33">
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="19"/>
+      <c r="N24" s="19"/>
+      <c r="O24" s="19"/>
+      <c r="P24" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C25" s="82" t="s">
+      <c r="C25" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="D25" s="83">
+      <c r="D25" s="47">
         <f t="shared" ref="D25:O25" si="6">SUM(D5,D9,D13,D17,D21)</f>
         <v>0.75</v>
       </c>
-      <c r="E25" s="83">
+      <c r="E25" s="47">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F25" s="83">
+      <c r="F25" s="47">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G25" s="83">
+      <c r="G25" s="47">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H25" s="83">
+      <c r="H25" s="47">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I25" s="83">
+      <c r="I25" s="47">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="J25" s="83">
+      <c r="J25" s="47">
         <f t="shared" si="6"/>
         <v>7.5</v>
       </c>
-      <c r="K25" s="83">
+      <c r="K25" s="47">
         <f t="shared" si="6"/>
         <v>5.5</v>
       </c>
-      <c r="L25" s="83">
+      <c r="L25" s="47">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="M25" s="83">
+      <c r="M25" s="47">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="N25" s="83">
+      <c r="N25" s="47">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O25" s="83">
+      <c r="O25" s="47">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P25" s="23">
+      <c r="P25" s="12">
         <f t="shared" si="1"/>
         <v>15.75</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C26" s="26" t="s">
+      <c r="C26" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="78">
+      <c r="D26" s="42">
         <f t="shared" ref="D26:P26" si="7">SUM(D6,D10,D14,D18,D22)</f>
         <v>0.75</v>
       </c>
-      <c r="E26" s="78">
+      <c r="E26" s="42">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F26" s="78">
+      <c r="F26" s="42">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G26" s="78">
+      <c r="G26" s="42">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H26" s="78">
+      <c r="H26" s="42">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I26" s="78">
+      <c r="I26" s="42">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="J26" s="78">
+      <c r="J26" s="42">
         <f t="shared" si="7"/>
         <v>4</v>
       </c>
-      <c r="K26" s="78">
+      <c r="K26" s="42">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L26" s="78">
+      <c r="L26" s="42">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M26" s="78">
+      <c r="M26" s="42">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="N26" s="78">
+      <c r="N26" s="42">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O26" s="78">
+      <c r="O26" s="42">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="P26" s="79">
+      <c r="P26" s="43">
         <f t="shared" si="7"/>
         <v>6.75</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C27" s="26" t="s">
+      <c r="C27" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="78">
+      <c r="D27" s="42">
         <f t="shared" ref="D27:P27" si="8">SUM(D7,D11,D15,D19,D23)</f>
         <v>0</v>
       </c>
-      <c r="E27" s="78">
+      <c r="E27" s="42">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="F27" s="78">
+      <c r="F27" s="42">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="G27" s="78">
+      <c r="G27" s="42">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="H27" s="78">
+      <c r="H27" s="42">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I27" s="78">
+      <c r="I27" s="42">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J27" s="78">
+      <c r="J27" s="42">
         <f t="shared" si="8"/>
         <v>2</v>
       </c>
-      <c r="K27" s="78">
+      <c r="K27" s="42">
         <f t="shared" si="8"/>
         <v>5</v>
       </c>
-      <c r="L27" s="78">
+      <c r="L27" s="42">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M27" s="78">
+      <c r="M27" s="42">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="N27" s="78">
+      <c r="N27" s="42">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="O27" s="78">
+      <c r="O27" s="42">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="P27" s="79">
+      <c r="P27" s="43">
         <f t="shared" si="8"/>
         <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C28" s="30" t="s">
+      <c r="C28" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D28" s="80">
+      <c r="D28" s="44">
         <f t="shared" ref="D28:P28" si="9">SUM(D8,D12,D16,D20,D24)</f>
         <v>0</v>
       </c>
-      <c r="E28" s="80">
+      <c r="E28" s="44">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="F28" s="80">
+      <c r="F28" s="44">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G28" s="80">
+      <c r="G28" s="44">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="H28" s="80">
+      <c r="H28" s="44">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="I28" s="80">
+      <c r="I28" s="44">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="J28" s="80">
+      <c r="J28" s="44">
         <f t="shared" si="9"/>
         <v>1.5</v>
       </c>
-      <c r="K28" s="80">
+      <c r="K28" s="44">
         <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
-      <c r="L28" s="80">
+      <c r="L28" s="44">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="M28" s="80">
+      <c r="M28" s="44">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="N28" s="80">
+      <c r="N28" s="44">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="O28" s="80">
+      <c r="O28" s="44">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="P28" s="81">
+      <c r="P28" s="45">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="68" t="s">
+      <c r="A30" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="88" t="s">
+      <c r="B30" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="C30" s="89"/>
-      <c r="D30" s="63">
+      <c r="C30" s="49"/>
+      <c r="D30" s="32">
         <f xml:space="preserve"> D26</f>
         <v>0.75</v>
       </c>
-      <c r="E30" s="64">
+      <c r="E30" s="33">
         <f xml:space="preserve"> AVERAGE($D$18:E26)</f>
         <v>0.25</v>
       </c>
-      <c r="F30" s="64">
+      <c r="F30" s="33">
         <f xml:space="preserve"> AVERAGE($D$18:F26)</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="G30" s="64">
+      <c r="G30" s="33">
         <f xml:space="preserve"> AVERAGE($D$18:G26)</f>
         <v>0.125</v>
       </c>
-      <c r="H30" s="64">
+      <c r="H30" s="33">
         <f xml:space="preserve"> AVERAGE($D$18:H26)</f>
         <v>0.1</v>
       </c>
-      <c r="I30" s="64">
+      <c r="I30" s="33">
         <f xml:space="preserve"> AVERAGE($D$18:I26)</f>
         <v>0.39473684210526316</v>
       </c>
-      <c r="J30" s="64">
+      <c r="J30" s="33">
         <f xml:space="preserve"> AVERAGE($D$18:J26)</f>
         <v>1</v>
       </c>
-      <c r="K30" s="64">
+      <c r="K30" s="33">
         <f xml:space="preserve"> AVERAGE($D$18:K26)</f>
         <v>1.4259259259259258</v>
       </c>
-      <c r="L30" s="64">
+      <c r="L30" s="33">
         <f xml:space="preserve"> AVERAGE($D$18:L26)</f>
         <v>1.2833333333333334</v>
       </c>
-      <c r="M30" s="64">
+      <c r="M30" s="33">
         <f xml:space="preserve"> AVERAGE($D$18:M26)</f>
         <v>1.1666666666666667</v>
       </c>
-      <c r="N30" s="64">
+      <c r="N30" s="33">
         <f xml:space="preserve"> AVERAGE($D$18:N26)</f>
         <v>1.0694444444444444</v>
       </c>
-      <c r="O30" s="69">
+      <c r="O30" s="37">
         <f xml:space="preserve"> AVERAGE($D$18:O26)</f>
         <v>0.98717948717948723</v>
       </c>
     </row>
     <row r="31" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="70"/>
-      <c r="B31" s="90" t="s">
+      <c r="A31" s="68"/>
+      <c r="B31" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="C31" s="91"/>
-      <c r="D31" s="71">
+      <c r="C31" s="51"/>
+      <c r="D31" s="38">
         <f xml:space="preserve"> D27</f>
         <v>0</v>
       </c>
-      <c r="E31" s="71">
+      <c r="E31" s="38">
         <f xml:space="preserve"> AVERAGE($D$27:E27)</f>
         <v>0</v>
       </c>
-      <c r="F31" s="71">
+      <c r="F31" s="38">
         <f xml:space="preserve"> AVERAGE($D$27:F27)</f>
         <v>0</v>
       </c>
-      <c r="G31" s="71">
+      <c r="G31" s="38">
         <f xml:space="preserve"> AVERAGE($D$27:G27)</f>
         <v>0</v>
       </c>
-      <c r="H31" s="71">
+      <c r="H31" s="38">
         <f xml:space="preserve"> AVERAGE($D$27:H27)</f>
         <v>0</v>
       </c>
-      <c r="I31" s="71">
+      <c r="I31" s="38">
         <f xml:space="preserve"> AVERAGE($D$27:I27)</f>
         <v>0</v>
       </c>
-      <c r="J31" s="71">
+      <c r="J31" s="38">
         <f xml:space="preserve"> AVERAGE($D$27:J27)</f>
         <v>0.2857142857142857</v>
       </c>
-      <c r="K31" s="71">
+      <c r="K31" s="38">
         <f xml:space="preserve"> AVERAGE($D$27:K27)</f>
         <v>0.875</v>
       </c>
-      <c r="L31" s="71">
+      <c r="L31" s="38">
         <f xml:space="preserve"> AVERAGE($D$27:L27)</f>
         <v>0.77777777777777779</v>
       </c>
-      <c r="M31" s="71">
+      <c r="M31" s="38">
         <f xml:space="preserve"> AVERAGE($D$27:M27)</f>
         <v>0.7</v>
       </c>
-      <c r="N31" s="71">
+      <c r="N31" s="38">
         <f xml:space="preserve"> AVERAGE($D$27:N27)</f>
         <v>0.63636363636363635</v>
       </c>
-      <c r="O31" s="72">
+      <c r="O31" s="39">
         <f xml:space="preserve"> AVERAGE($D$27:O27)</f>
         <v>0.58333333333333337</v>
       </c>
     </row>
     <row r="32" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="70"/>
-      <c r="B32" s="92" t="s">
+      <c r="A32" s="68"/>
+      <c r="B32" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="C32" s="93"/>
-      <c r="D32" s="65">
+      <c r="C32" s="53"/>
+      <c r="D32" s="34">
         <f xml:space="preserve"> D28</f>
         <v>0</v>
       </c>
-      <c r="E32" s="65">
+      <c r="E32" s="34">
         <f xml:space="preserve"> AVERAGE($D$28:E28)</f>
         <v>0</v>
       </c>
-      <c r="F32" s="65">
+      <c r="F32" s="34">
         <f xml:space="preserve"> AVERAGE($D$28:F28)</f>
         <v>0</v>
       </c>
-      <c r="G32" s="65">
+      <c r="G32" s="34">
         <f xml:space="preserve"> AVERAGE($D$28:G28)</f>
         <v>0</v>
       </c>
-      <c r="H32" s="65">
+      <c r="H32" s="34">
         <f xml:space="preserve"> AVERAGE($D$28:H28)</f>
         <v>0</v>
       </c>
-      <c r="I32" s="65">
+      <c r="I32" s="34">
         <f xml:space="preserve"> AVERAGE($D$28:I28)</f>
         <v>0</v>
       </c>
-      <c r="J32" s="65">
+      <c r="J32" s="34">
         <f xml:space="preserve"> AVERAGE($D$28:J28)</f>
         <v>0.21428571428571427</v>
       </c>
-      <c r="K32" s="65">
+      <c r="K32" s="34">
         <f xml:space="preserve"> AVERAGE($D$28:K28)</f>
         <v>0.25</v>
       </c>
-      <c r="L32" s="65">
+      <c r="L32" s="34">
         <f xml:space="preserve"> AVERAGE($D$28:L28)</f>
         <v>0.22222222222222221</v>
       </c>
-      <c r="M32" s="65">
+      <c r="M32" s="34">
         <f xml:space="preserve"> AVERAGE($D$28:M28)</f>
         <v>0.2</v>
       </c>
-      <c r="N32" s="65">
+      <c r="N32" s="34">
         <f xml:space="preserve"> AVERAGE($D$28:N28)</f>
         <v>0.18181818181818182</v>
       </c>
-      <c r="O32" s="73">
+      <c r="O32" s="40">
         <f xml:space="preserve"> AVERAGE($D$28:O28)</f>
         <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="74"/>
-      <c r="B33" s="75" t="s">
+      <c r="A33" s="69"/>
+      <c r="B33" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="C33" s="76"/>
-      <c r="D33" s="66">
+      <c r="C33" s="66"/>
+      <c r="D33" s="35">
         <f xml:space="preserve"> D25</f>
         <v>0.75</v>
       </c>
-      <c r="E33" s="67">
+      <c r="E33" s="36">
         <f xml:space="preserve"> AVERAGE($D$25:E25)</f>
         <v>0.375</v>
       </c>
-      <c r="F33" s="67">
+      <c r="F33" s="36">
         <f xml:space="preserve"> AVERAGE($D$25:F25)</f>
         <v>0.25</v>
       </c>
-      <c r="G33" s="67">
+      <c r="G33" s="36">
         <f xml:space="preserve"> AVERAGE($D$25:G25)</f>
         <v>0.1875</v>
       </c>
-      <c r="H33" s="67">
+      <c r="H33" s="36">
         <f xml:space="preserve"> AVERAGE($D$25:H25)</f>
         <v>0.15</v>
       </c>
-      <c r="I33" s="67">
+      <c r="I33" s="36">
         <f xml:space="preserve"> AVERAGE($D$25:I25)</f>
         <v>0.45833333333333331</v>
       </c>
-      <c r="J33" s="67">
+      <c r="J33" s="36">
         <f xml:space="preserve"> AVERAGE($D$25:J25)</f>
         <v>1.4642857142857142</v>
       </c>
-      <c r="K33" s="67">
+      <c r="K33" s="36">
         <f xml:space="preserve"> AVERAGE($D$25:K25)</f>
         <v>1.96875</v>
       </c>
-      <c r="L33" s="67">
+      <c r="L33" s="36">
         <f xml:space="preserve"> AVERAGE($D$25:L25)</f>
         <v>1.75</v>
       </c>
-      <c r="M33" s="67">
+      <c r="M33" s="36">
         <f xml:space="preserve"> AVERAGE($D$25:M25)</f>
         <v>1.575</v>
       </c>
-      <c r="N33" s="67">
+      <c r="N33" s="36">
         <f xml:space="preserve"> AVERAGE($D$25:N25)</f>
         <v>1.4318181818181819</v>
       </c>
-      <c r="O33" s="77">
+      <c r="O33" s="41">
         <f xml:space="preserve"> AVERAGE($D$25:O25)</f>
         <v>1.3125</v>
       </c>
     </row>
     <row r="35" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="C35" s="41" t="s">
+      <c r="C35" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D35" s="42">
+      <c r="D35" s="24">
         <v>1</v>
       </c>
-      <c r="E35" s="42">
+      <c r="E35" s="24">
         <v>2</v>
       </c>
-      <c r="F35" s="43" t="s">
+      <c r="F35" s="25" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" s="53" t="s">
+      <c r="A36" s="81" t="s">
         <v>24</v>
       </c>
-      <c r="B36" s="56" t="s">
+      <c r="B36" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="C36" s="57"/>
-      <c r="D36" s="45">
+      <c r="C36" s="71"/>
+      <c r="D36" s="26">
         <f xml:space="preserve"> SUM(D26:I26)</f>
         <v>2.75</v>
       </c>
-      <c r="E36" s="45">
+      <c r="E36" s="26">
         <f xml:space="preserve"> SUM(J26:O26)</f>
         <v>4</v>
       </c>
-      <c r="F36" s="46">
+      <c r="F36" s="27">
         <f xml:space="preserve"> SUM(D36:E36)</f>
         <v>6.75</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" s="54"/>
-      <c r="B37" s="58" t="s">
+      <c r="A37" s="82"/>
+      <c r="B37" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="C37" s="59"/>
-      <c r="D37" s="45">
+      <c r="C37" s="73"/>
+      <c r="D37" s="26">
         <f xml:space="preserve"> SUM(D27:I27)</f>
         <v>0</v>
       </c>
-      <c r="E37" s="45">
+      <c r="E37" s="26">
         <f xml:space="preserve"> SUM(J27:O27)</f>
         <v>7</v>
       </c>
-      <c r="F37" s="46">
+      <c r="F37" s="27">
         <f xml:space="preserve"> SUM(D37:E37)</f>
         <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A38" s="54"/>
-      <c r="B38" s="60" t="s">
+      <c r="A38" s="82"/>
+      <c r="B38" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="C38" s="61"/>
-      <c r="D38" s="45">
+      <c r="C38" s="75"/>
+      <c r="D38" s="26">
         <f xml:space="preserve"> SUM(D28:I28)</f>
         <v>0</v>
       </c>
-      <c r="E38" s="45">
+      <c r="E38" s="26">
         <f xml:space="preserve"> SUM(J28:O28)</f>
         <v>2</v>
       </c>
-      <c r="F38" s="46">
+      <c r="F38" s="27">
         <f xml:space="preserve"> SUM(D38:E38)</f>
         <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A39" s="55"/>
-      <c r="B39" s="52" t="s">
+      <c r="A39" s="83"/>
+      <c r="B39" s="84" t="s">
         <v>25</v>
       </c>
-      <c r="C39" s="51"/>
-      <c r="D39" s="45">
+      <c r="C39" s="85"/>
+      <c r="D39" s="26">
         <f xml:space="preserve"> SUM(D25:I25)</f>
         <v>2.75</v>
       </c>
-      <c r="E39" s="45">
+      <c r="E39" s="26">
         <f xml:space="preserve"> SUM(J25:O25)</f>
         <v>13</v>
       </c>
-      <c r="F39" s="46">
+      <c r="F39" s="27">
         <f xml:space="preserve"> SUM(D39:E39)</f>
         <v>15.75</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A41" s="11" t="s">
+      <c r="A41" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="B41" s="56" t="s">
+      <c r="B41" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="C41" s="57"/>
-      <c r="D41" s="62">
+      <c r="C41" s="71"/>
+      <c r="D41" s="31">
         <f xml:space="preserve"> D36</f>
         <v>2.75</v>
       </c>
-      <c r="E41" s="62">
+      <c r="E41" s="31">
         <f xml:space="preserve"> AVERAGE(D36:E36)</f>
         <v>3.375</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A42" s="11"/>
-      <c r="B42" s="58" t="s">
+      <c r="A42" s="56"/>
+      <c r="B42" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="C42" s="59"/>
-      <c r="D42" s="62">
+      <c r="C42" s="73"/>
+      <c r="D42" s="31">
         <f xml:space="preserve"> D37</f>
         <v>0</v>
       </c>
-      <c r="E42" s="62">
+      <c r="E42" s="31">
         <f xml:space="preserve"> AVERAGE(D37:E37)</f>
         <v>3.5</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A43" s="11"/>
-      <c r="B43" s="60" t="s">
+      <c r="A43" s="56"/>
+      <c r="B43" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="C43" s="61"/>
-      <c r="D43" s="62">
+      <c r="C43" s="75"/>
+      <c r="D43" s="31">
         <f xml:space="preserve"> D38</f>
         <v>0</v>
       </c>
-      <c r="E43" s="62">
+      <c r="E43" s="31">
         <f xml:space="preserve"> AVERAGE(D38:E38)</f>
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A44" s="11"/>
-      <c r="B44" s="49" t="s">
+      <c r="A44" s="56"/>
+      <c r="B44" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="C44" s="50"/>
-      <c r="D44" s="62">
+      <c r="C44" s="77"/>
+      <c r="D44" s="31">
         <f xml:space="preserve"> D39</f>
         <v>2.75</v>
       </c>
-      <c r="E44" s="62">
+      <c r="E44" s="31">
         <f xml:space="preserve"> AVERAGE(D39:E39)</f>
         <v>7.875</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="D1:I1"/>
+    <mergeCell ref="J1:O1"/>
+    <mergeCell ref="B5:B16"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="A5:A24"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="A30:A33"/>
     <mergeCell ref="A41:A44"/>
@@ -7145,20 +9847,1226 @@
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="B44:C44"/>
-    <mergeCell ref="A5:A24"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P44"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="33.42578125" customWidth="1"/>
+    <col min="13" max="13" width="16.28515625" customWidth="1"/>
+    <col min="16" max="16" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D1" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="93"/>
+      <c r="N1" s="93"/>
+      <c r="O1" s="94"/>
+      <c r="P1" s="96"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1">
+        <v>41975</v>
+      </c>
+      <c r="E2" s="1">
+        <v>41976</v>
+      </c>
+      <c r="F2" s="1">
+        <v>41977</v>
+      </c>
+      <c r="G2" s="1">
+        <v>41978</v>
+      </c>
+      <c r="H2" s="1">
+        <v>41979</v>
+      </c>
+      <c r="I2" s="1">
+        <v>41980</v>
+      </c>
+      <c r="J2" s="1">
+        <v>41981</v>
+      </c>
+      <c r="K2" s="1">
+        <v>41982</v>
+      </c>
+      <c r="L2" s="1">
+        <v>41983</v>
+      </c>
+      <c r="M2" s="94"/>
+      <c r="N2" s="94"/>
+      <c r="O2" s="94"/>
+      <c r="P2" s="96"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3">
+        <v>2</v>
+      </c>
+      <c r="F3" s="3">
+        <v>3</v>
+      </c>
+      <c r="G3" s="3">
+        <v>4</v>
+      </c>
+      <c r="H3" s="3">
+        <v>5</v>
+      </c>
+      <c r="I3" s="3">
+        <v>6</v>
+      </c>
+      <c r="J3" s="3">
+        <v>7</v>
+      </c>
+      <c r="K3" s="3">
+        <v>8</v>
+      </c>
+      <c r="L3" s="3">
+        <v>9</v>
+      </c>
+      <c r="M3" s="95"/>
+      <c r="N3" s="94"/>
+      <c r="O3" s="94"/>
+      <c r="P3" s="96"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B4" s="97" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="97" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="N4" s="96"/>
+      <c r="O4" s="96"/>
+      <c r="P4" s="96"/>
+    </row>
+    <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="78" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="98">
+        <v>1</v>
+      </c>
+      <c r="C5" s="99" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="11">
+        <f t="shared" ref="D5:L5" si="0">SUM(D6:D8)</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F5" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G5" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H5" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I5" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J5" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K5" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L5" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M5" s="12">
+        <f>SUM(D5:L5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="79"/>
+      <c r="B6" s="100"/>
+      <c r="C6" s="101" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="16">
+        <f>SUM(D6:L6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="79"/>
+      <c r="B7" s="100"/>
+      <c r="C7" s="101" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="16">
+        <f>SUM(D7:L7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="79"/>
+      <c r="B8" s="102"/>
+      <c r="C8" s="103" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="20">
+        <f>SUM(D8:L8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="79"/>
+      <c r="B9" s="104" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="105" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="11">
+        <f t="shared" ref="D9:L9" si="1">SUM(D10:D12)</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F9" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H9" s="11">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="I9" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L9" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M9" s="12">
+        <f>SUM(D9:L9)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="79"/>
+      <c r="B10" s="106"/>
+      <c r="C10" s="101" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="16">
+        <f>SUM(D10:L10)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="79"/>
+      <c r="B11" s="106"/>
+      <c r="C11" s="101" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="16">
+        <f>SUM(D11:L11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="79"/>
+      <c r="B12" s="106"/>
+      <c r="C12" s="103" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="20">
+        <f>SUM(D12:L12)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="79"/>
+      <c r="B13" s="106"/>
+      <c r="C13" s="107" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="11">
+        <f t="shared" ref="D13:L13" si="2">SUM(D14:D16)</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F13" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L13" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M13" s="12">
+        <f>SUM(D13:L13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="79"/>
+      <c r="B14" s="106"/>
+      <c r="C14" s="101" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="16">
+        <f>SUM(D14:L14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="79"/>
+      <c r="B15" s="106"/>
+      <c r="C15" s="101" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="16">
+        <f>SUM(D15:L15)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="79"/>
+      <c r="B16" s="106"/>
+      <c r="C16" s="101" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="20">
+        <f>SUM(D16:L16)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="78" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="87"/>
+      <c r="C17" s="99" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="11">
+        <f t="shared" ref="D17:L17" si="3">SUM(D18:D20)</f>
+        <v>0</v>
+      </c>
+      <c r="E17" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F17" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H17" s="11">
+        <f t="shared" si="3"/>
+        <v>5.5</v>
+      </c>
+      <c r="I17" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K17" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L17" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M17" s="12">
+        <f>SUM(D17:L17)</f>
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="79"/>
+      <c r="B18" s="88"/>
+      <c r="C18" s="101" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15">
+        <v>5.5</v>
+      </c>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="16">
+        <f>SUM(D18:L18)</f>
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="79"/>
+      <c r="B19" s="88"/>
+      <c r="C19" s="101" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="16">
+        <f>SUM(D19:L19)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="79"/>
+      <c r="B20" s="88"/>
+      <c r="C20" s="103" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="20">
+        <f>SUM(D20:L20)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="79"/>
+      <c r="B21" s="108"/>
+      <c r="C21" s="109" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="22">
+        <f t="shared" ref="D21:L21" si="4">SUM(D22:D24)</f>
+        <v>0</v>
+      </c>
+      <c r="E21" s="22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F21" s="22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G21" s="22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H21" s="22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I21" s="22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J21" s="22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L21" s="22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M21" s="12">
+        <f>SUM(D21:L21)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="79"/>
+      <c r="B22" s="108"/>
+      <c r="C22" s="101" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="16">
+        <f>SUM(D22:L22)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="79"/>
+      <c r="B23" s="108"/>
+      <c r="C23" s="101" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="16">
+        <f>SUM(D23:L23)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="80"/>
+      <c r="B24" s="110"/>
+      <c r="C24" s="103" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="20">
+        <f>SUM(D24:L24)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B25" s="111" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="111"/>
+      <c r="D25" s="47">
+        <f t="shared" ref="D25:M28" si="5">SUM(D5,D9,D13,D17,D21)</f>
+        <v>0</v>
+      </c>
+      <c r="E25" s="47">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F25" s="47">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G25" s="47">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H25" s="47">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="I25" s="47">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J25" s="47">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K25" s="47">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L25" s="47">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M25" s="12">
+        <f>SUM(D25:L25)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C26" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E26" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F26" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G26" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H26" s="42">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="I26" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J26" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K26" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L26" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M26" s="43">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C27" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E27" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F27" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G27" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H27" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I27" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J27" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K27" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L27" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M27" s="43">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C28" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="44">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E28" s="44">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F28" s="44">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G28" s="44">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H28" s="44">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I28" s="44">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J28" s="44">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K28" s="44">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L28" s="44">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M28" s="45">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="67" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="136" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="137"/>
+      <c r="D30" s="32">
+        <f xml:space="preserve"> D26</f>
+        <v>0</v>
+      </c>
+      <c r="E30" s="33">
+        <f xml:space="preserve"> AVERAGE($D$18:E26)</f>
+        <v>0</v>
+      </c>
+      <c r="F30" s="33">
+        <f xml:space="preserve"> AVERAGE($D$18:F26)</f>
+        <v>0</v>
+      </c>
+      <c r="G30" s="33">
+        <f xml:space="preserve"> AVERAGE($D$18:G26)</f>
+        <v>0</v>
+      </c>
+      <c r="H30" s="33">
+        <f xml:space="preserve"> AVERAGE($D$18:H26)</f>
+        <v>1.09375</v>
+      </c>
+      <c r="I30" s="33">
+        <f xml:space="preserve"> AVERAGE($D$18:I26)</f>
+        <v>0.92105263157894735</v>
+      </c>
+      <c r="J30" s="33">
+        <f xml:space="preserve"> AVERAGE($D$18:J26)</f>
+        <v>0.79545454545454541</v>
+      </c>
+      <c r="K30" s="33">
+        <f xml:space="preserve"> AVERAGE($D$18:K26)</f>
+        <v>0.7</v>
+      </c>
+      <c r="L30" s="37">
+        <f xml:space="preserve"> AVERAGE($D$18:L26)</f>
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="68"/>
+      <c r="B31" s="138" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="73"/>
+      <c r="D31" s="38">
+        <f xml:space="preserve"> D27</f>
+        <v>0</v>
+      </c>
+      <c r="E31" s="38">
+        <f xml:space="preserve"> AVERAGE($D$27:E27)</f>
+        <v>0</v>
+      </c>
+      <c r="F31" s="38">
+        <f xml:space="preserve"> AVERAGE($D$27:F27)</f>
+        <v>0</v>
+      </c>
+      <c r="G31" s="38">
+        <f xml:space="preserve"> AVERAGE($D$27:G27)</f>
+        <v>0</v>
+      </c>
+      <c r="H31" s="38">
+        <f xml:space="preserve"> AVERAGE($D$27:H27)</f>
+        <v>0</v>
+      </c>
+      <c r="I31" s="38">
+        <f xml:space="preserve"> AVERAGE($D$27:I27)</f>
+        <v>0</v>
+      </c>
+      <c r="J31" s="38">
+        <f xml:space="preserve"> AVERAGE($D$27:J27)</f>
+        <v>0</v>
+      </c>
+      <c r="K31" s="38">
+        <f xml:space="preserve"> AVERAGE($D$27:K27)</f>
+        <v>0</v>
+      </c>
+      <c r="L31" s="39">
+        <f xml:space="preserve"> AVERAGE($D$27:L27)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="68"/>
+      <c r="B32" s="139" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="75"/>
+      <c r="D32" s="34">
+        <f xml:space="preserve"> D28</f>
+        <v>0</v>
+      </c>
+      <c r="E32" s="34">
+        <f xml:space="preserve"> AVERAGE($D$28:E28)</f>
+        <v>0</v>
+      </c>
+      <c r="F32" s="34">
+        <f xml:space="preserve"> AVERAGE($D$28:F28)</f>
+        <v>0</v>
+      </c>
+      <c r="G32" s="34">
+        <f xml:space="preserve"> AVERAGE($D$28:G28)</f>
+        <v>0</v>
+      </c>
+      <c r="H32" s="34">
+        <f xml:space="preserve"> AVERAGE($D$28:H28)</f>
+        <v>0</v>
+      </c>
+      <c r="I32" s="34">
+        <f xml:space="preserve"> AVERAGE($D$28:I28)</f>
+        <v>0</v>
+      </c>
+      <c r="J32" s="34">
+        <f xml:space="preserve"> AVERAGE($D$28:J28)</f>
+        <v>0</v>
+      </c>
+      <c r="K32" s="34">
+        <f xml:space="preserve"> AVERAGE($D$28:K28)</f>
+        <v>0</v>
+      </c>
+      <c r="L32" s="40">
+        <f xml:space="preserve"> AVERAGE($D$28:L28)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="69"/>
+      <c r="B33" s="65" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33" s="66"/>
+      <c r="D33" s="35">
+        <f xml:space="preserve"> D25</f>
+        <v>0</v>
+      </c>
+      <c r="E33" s="36">
+        <f xml:space="preserve"> AVERAGE($D$25:E25)</f>
+        <v>0</v>
+      </c>
+      <c r="F33" s="36">
+        <f xml:space="preserve"> AVERAGE($D$25:F25)</f>
+        <v>0</v>
+      </c>
+      <c r="G33" s="36">
+        <f xml:space="preserve"> AVERAGE($D$25:G25)</f>
+        <v>0</v>
+      </c>
+      <c r="H33" s="36">
+        <f xml:space="preserve"> AVERAGE($D$25:H25)</f>
+        <v>1.2</v>
+      </c>
+      <c r="I33" s="36">
+        <f xml:space="preserve"> AVERAGE($D$25:I25)</f>
+        <v>1</v>
+      </c>
+      <c r="J33" s="36">
+        <f xml:space="preserve"> AVERAGE($D$25:J25)</f>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="K33" s="36">
+        <f xml:space="preserve"> AVERAGE($D$25:K25)</f>
+        <v>0.75</v>
+      </c>
+      <c r="L33" s="41">
+        <f xml:space="preserve"> AVERAGE($D$25:L25)</f>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="C35" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D35" s="24">
+        <v>1</v>
+      </c>
+      <c r="E35" s="24">
+        <v>2</v>
+      </c>
+      <c r="F35" s="25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="81" t="s">
+        <v>24</v>
+      </c>
+      <c r="B36" s="70" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="71"/>
+      <c r="D36" s="26">
+        <f xml:space="preserve"> SUM(D26:I26)</f>
+        <v>6</v>
+      </c>
+      <c r="E36" s="26">
+        <f xml:space="preserve"> SUM(J26:L26)</f>
+        <v>0</v>
+      </c>
+      <c r="F36" s="27">
+        <f xml:space="preserve"> SUM(D36:E36)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="82"/>
+      <c r="B37" s="72" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="73"/>
+      <c r="D37" s="26">
+        <f xml:space="preserve"> SUM(D27:I27)</f>
+        <v>0</v>
+      </c>
+      <c r="E37" s="26">
+        <f xml:space="preserve"> SUM(J27:L27)</f>
+        <v>0</v>
+      </c>
+      <c r="F37" s="27">
+        <f xml:space="preserve"> SUM(D37:E37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="82"/>
+      <c r="B38" s="74" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="75"/>
+      <c r="D38" s="26">
+        <f xml:space="preserve"> SUM(D28:I28)</f>
+        <v>0</v>
+      </c>
+      <c r="E38" s="26">
+        <f xml:space="preserve"> SUM(J28:L28)</f>
+        <v>0</v>
+      </c>
+      <c r="F38" s="27">
+        <f xml:space="preserve"> SUM(D38:E38)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="83"/>
+      <c r="B39" s="84" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39" s="85"/>
+      <c r="D39" s="26">
+        <f xml:space="preserve"> SUM(D25:I25)</f>
+        <v>6</v>
+      </c>
+      <c r="E39" s="26">
+        <f xml:space="preserve"> SUM(J25:L25)</f>
+        <v>0</v>
+      </c>
+      <c r="F39" s="27">
+        <f xml:space="preserve"> SUM(D39:E39)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="56" t="s">
+        <v>26</v>
+      </c>
+      <c r="B41" s="70" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" s="71"/>
+      <c r="D41" s="31">
+        <f xml:space="preserve"> D36</f>
+        <v>6</v>
+      </c>
+      <c r="E41" s="31">
+        <f xml:space="preserve"> AVERAGE(D36:E36)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="56"/>
+      <c r="B42" s="72" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" s="73"/>
+      <c r="D42" s="31">
+        <f xml:space="preserve"> D37</f>
+        <v>0</v>
+      </c>
+      <c r="E42" s="31">
+        <f xml:space="preserve"> AVERAGE(D37:E37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="56"/>
+      <c r="B43" s="74" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" s="75"/>
+      <c r="D43" s="31">
+        <f xml:space="preserve"> D38</f>
+        <v>0</v>
+      </c>
+      <c r="E43" s="31">
+        <f xml:space="preserve"> AVERAGE(D38:E38)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="56"/>
+      <c r="B44" s="76" t="s">
+        <v>25</v>
+      </c>
+      <c r="C44" s="77"/>
+      <c r="D44" s="31">
+        <f xml:space="preserve"> D39</f>
+        <v>6</v>
+      </c>
+      <c r="E44" s="31">
+        <f xml:space="preserve"> AVERAGE(D39:E39)</f>
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A41:A44"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="A5:A16"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="B33:C33"/>
     <mergeCell ref="A36:A39"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="B37:C37"/>
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D1:I1"/>
-    <mergeCell ref="J1:O1"/>
-    <mergeCell ref="B5:B16"/>
     <mergeCell ref="B17:B20"/>
     <mergeCell ref="B21:B24"/>
+    <mergeCell ref="B9:B16"/>
+    <mergeCell ref="A17:A24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/documents/Effort and Velocity.xlsx
+++ b/documents/Effort and Velocity.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="295"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="295" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Product" sheetId="1" r:id="rId1"/>
@@ -874,165 +874,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1082,23 +941,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1114,31 +958,7 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1150,6 +970,186 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1347,16 +1347,16 @@
                   <c:v>1.2794117647058822</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.2083333333333333</c:v>
+                  <c:v>1.3194444444444444</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.1447368421052631</c:v>
+                  <c:v>1.25</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.0874999999999999</c:v>
+                  <c:v>1.1875</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.0357142857142858</c:v>
+                  <c:v>1.1309523809523809</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1502,7 +1502,7 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0</c:v>
@@ -1528,11 +1528,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="105016704"/>
-        <c:axId val="105018496"/>
+        <c:axId val="36816768"/>
+        <c:axId val="36818304"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="105016704"/>
+        <c:axId val="36816768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1542,14 +1542,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105018496"/>
+        <c:crossAx val="36818304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="105018496"/>
+        <c:axId val="36818304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1560,7 +1560,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105016704"/>
+        <c:crossAx val="36816768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1612,7 +1612,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1833,11 +1832,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="114222208"/>
-        <c:axId val="114223744"/>
+        <c:axId val="37504896"/>
+        <c:axId val="37506432"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="114222208"/>
+        <c:axId val="37504896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1847,14 +1846,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114223744"/>
+        <c:crossAx val="37506432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="114223744"/>
+        <c:axId val="37506432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1865,14 +1864,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114222208"/>
+        <c:crossAx val="37504896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1917,7 +1915,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2138,11 +2135,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="114695552"/>
-        <c:axId val="114709632"/>
+        <c:axId val="41353600"/>
+        <c:axId val="41355136"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="114695552"/>
+        <c:axId val="41353600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2152,14 +2149,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114709632"/>
+        <c:crossAx val="41355136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="114709632"/>
+        <c:axId val="41355136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2170,14 +2167,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114695552"/>
+        <c:crossAx val="41353600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2222,7 +2218,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2446,11 +2441,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="114747264"/>
-        <c:axId val="114748800"/>
+        <c:axId val="41376384"/>
+        <c:axId val="41378176"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="114747264"/>
+        <c:axId val="41376384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2460,14 +2455,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114748800"/>
+        <c:crossAx val="41378176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="114748800"/>
+        <c:axId val="41378176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2478,14 +2473,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114747264"/>
+        <c:crossAx val="41376384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2530,7 +2524,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2606,16 +2599,16 @@
                   <c:v>1.2</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>1.3333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1428571428571428</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.8571428571428571</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.75</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.66666666666666663</c:v>
+                  <c:v>0.88888888888888884</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2689,7 +2682,7 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -2715,11 +2708,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="38541184"/>
-        <c:axId val="38542720"/>
+        <c:axId val="41428480"/>
+        <c:axId val="41430016"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="38541184"/>
+        <c:axId val="41428480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2729,14 +2722,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="38542720"/>
+        <c:crossAx val="41430016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="38542720"/>
+        <c:axId val="41430016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2747,14 +2740,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="38541184"/>
+        <c:crossAx val="41428480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2799,7 +2791,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2875,16 +2866,16 @@
                   <c:v>1.09375</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.92105263157894735</c:v>
+                  <c:v>1.131578947368421</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.79545454545454541</c:v>
+                  <c:v>0.97727272727272729</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.7</c:v>
+                  <c:v>0.86</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.625</c:v>
+                  <c:v>0.7678571428571429</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2958,7 +2949,7 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -2984,11 +2975,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="102859904"/>
-        <c:axId val="102861440"/>
+        <c:axId val="41467904"/>
+        <c:axId val="41469440"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="102859904"/>
+        <c:axId val="41467904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2998,14 +2989,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102861440"/>
+        <c:crossAx val="41469440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="102861440"/>
+        <c:axId val="41469440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3016,14 +3007,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102859904"/>
+        <c:crossAx val="41467904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3068,7 +3058,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3253,11 +3242,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="39539072"/>
-        <c:axId val="39540608"/>
+        <c:axId val="41818368"/>
+        <c:axId val="41828352"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="39539072"/>
+        <c:axId val="41818368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3267,14 +3256,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="39540608"/>
+        <c:crossAx val="41828352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="39540608"/>
+        <c:axId val="41828352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3285,14 +3274,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="39539072"/>
+        <c:crossAx val="41818368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3337,7 +3325,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3522,11 +3509,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="39554048"/>
-        <c:axId val="39588608"/>
+        <c:axId val="41861888"/>
+        <c:axId val="41863424"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="39554048"/>
+        <c:axId val="41861888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3536,14 +3523,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="39588608"/>
+        <c:crossAx val="41863424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="39588608"/>
+        <c:axId val="41863424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3554,14 +3541,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="39554048"/>
+        <c:crossAx val="41861888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3611,7 +3597,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3759,16 +3744,16 @@
                   <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.70833333333333337</c:v>
+                  <c:v>0.81944444444444442</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.67105263157894735</c:v>
+                  <c:v>0.77631578947368418</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.63749999999999996</c:v>
+                  <c:v>0.73750000000000004</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.6071428571428571</c:v>
+                  <c:v>0.70238095238095233</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3914,7 +3899,7 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0</c:v>
@@ -3940,11 +3925,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="105326464"/>
-        <c:axId val="105328000"/>
+        <c:axId val="37126528"/>
+        <c:axId val="37128064"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="105326464"/>
+        <c:axId val="37126528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3954,14 +3939,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105328000"/>
+        <c:crossAx val="37128064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="105328000"/>
+        <c:axId val="37128064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3972,14 +3957,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105326464"/>
+        <c:crossAx val="37126528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4029,7 +4013,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4358,11 +4341,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="105353600"/>
-        <c:axId val="105355136"/>
+        <c:axId val="37157120"/>
+        <c:axId val="37158912"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="105353600"/>
+        <c:axId val="37157120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4372,14 +4355,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105355136"/>
+        <c:crossAx val="37158912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="105355136"/>
+        <c:axId val="37158912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4390,14 +4373,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105353600"/>
+        <c:crossAx val="37157120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4447,7 +4429,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4776,11 +4757,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="108399232"/>
-        <c:axId val="108401024"/>
+        <c:axId val="37184256"/>
+        <c:axId val="37185792"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="108399232"/>
+        <c:axId val="37184256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4790,14 +4771,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108401024"/>
+        <c:crossAx val="37185792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="108401024"/>
+        <c:axId val="37185792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4808,14 +4789,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108399232"/>
+        <c:crossAx val="37184256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4920,7 +4900,7 @@
                   <c:v>7.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.4375</c:v>
+                  <c:v>5.9375</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4973,7 +4953,7 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4990,11 +4970,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="108430464"/>
-        <c:axId val="108432000"/>
+        <c:axId val="37221888"/>
+        <c:axId val="37223424"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="108430464"/>
+        <c:axId val="37221888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5004,7 +4984,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108432000"/>
+        <c:crossAx val="37223424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5012,7 +4992,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="108432000"/>
+        <c:axId val="37223424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5023,7 +5003,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108430464"/>
+        <c:crossAx val="37221888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5080,7 +5060,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5135,7 +5114,7 @@
                   <c:v>4.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.1875</c:v>
+                  <c:v>3.6875</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5188,7 +5167,7 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5205,11 +5184,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="114107904"/>
-        <c:axId val="114109440"/>
+        <c:axId val="37318656"/>
+        <c:axId val="37320192"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="114107904"/>
+        <c:axId val="37318656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5219,7 +5198,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114109440"/>
+        <c:crossAx val="37320192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5227,7 +5206,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="114109440"/>
+        <c:axId val="37320192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5238,14 +5217,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114107904"/>
+        <c:crossAx val="37318656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5295,7 +5273,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5420,11 +5397,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="114141440"/>
-        <c:axId val="114143232"/>
+        <c:axId val="37357824"/>
+        <c:axId val="37359616"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="114141440"/>
+        <c:axId val="37357824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5434,7 +5411,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114143232"/>
+        <c:crossAx val="37359616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5442,7 +5419,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="114143232"/>
+        <c:axId val="37359616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5453,14 +5430,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114141440"/>
+        <c:crossAx val="37357824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5510,7 +5486,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5635,11 +5610,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="114254592"/>
-        <c:axId val="114256128"/>
+        <c:axId val="37393152"/>
+        <c:axId val="37394688"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="114254592"/>
+        <c:axId val="37393152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5649,7 +5624,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114256128"/>
+        <c:crossAx val="37394688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5657,7 +5632,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="114256128"/>
+        <c:axId val="37394688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5668,14 +5643,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114254592"/>
+        <c:crossAx val="37393152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5720,7 +5694,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5941,11 +5914,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="114195072"/>
-        <c:axId val="114196864"/>
+        <c:axId val="37461376"/>
+        <c:axId val="37483648"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="114195072"/>
+        <c:axId val="37461376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5955,14 +5928,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114196864"/>
+        <c:crossAx val="37483648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="114196864"/>
+        <c:axId val="37483648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5973,14 +5946,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114195072"/>
+        <c:crossAx val="37461376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -6807,8 +6779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:X36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6817,62 +6789,62 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="D2" s="59" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
-      <c r="N2" s="60"/>
-      <c r="O2" s="61"/>
-      <c r="P2" s="59" t="s">
+      <c r="D2" s="106" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="107"/>
+      <c r="J2" s="107"/>
+      <c r="K2" s="107"/>
+      <c r="L2" s="107"/>
+      <c r="M2" s="107"/>
+      <c r="N2" s="107"/>
+      <c r="O2" s="108"/>
+      <c r="P2" s="106" t="s">
         <v>39</v>
       </c>
-      <c r="Q2" s="60"/>
-      <c r="R2" s="60"/>
-      <c r="S2" s="60"/>
-      <c r="T2" s="60"/>
-      <c r="U2" s="60"/>
-      <c r="V2" s="60"/>
-      <c r="W2" s="60"/>
-      <c r="X2" s="61"/>
+      <c r="Q2" s="107"/>
+      <c r="R2" s="107"/>
+      <c r="S2" s="107"/>
+      <c r="T2" s="107"/>
+      <c r="U2" s="107"/>
+      <c r="V2" s="107"/>
+      <c r="W2" s="107"/>
+      <c r="X2" s="108"/>
     </row>
     <row r="3" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="D3" s="57" t="s">
+      <c r="D3" s="112" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="59" t="s">
+      <c r="E3" s="113"/>
+      <c r="F3" s="113"/>
+      <c r="G3" s="113"/>
+      <c r="H3" s="113"/>
+      <c r="I3" s="113"/>
+      <c r="J3" s="106" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60"/>
-      <c r="M3" s="60"/>
-      <c r="N3" s="60"/>
-      <c r="O3" s="61"/>
-      <c r="P3" s="59" t="s">
+      <c r="K3" s="107"/>
+      <c r="L3" s="107"/>
+      <c r="M3" s="107"/>
+      <c r="N3" s="107"/>
+      <c r="O3" s="108"/>
+      <c r="P3" s="106" t="s">
         <v>40</v>
       </c>
-      <c r="Q3" s="60"/>
-      <c r="R3" s="60"/>
-      <c r="S3" s="60"/>
-      <c r="T3" s="60"/>
-      <c r="U3" s="59" t="s">
+      <c r="Q3" s="107"/>
+      <c r="R3" s="107"/>
+      <c r="S3" s="107"/>
+      <c r="T3" s="107"/>
+      <c r="U3" s="106" t="s">
         <v>41</v>
       </c>
-      <c r="V3" s="60"/>
-      <c r="W3" s="60"/>
-      <c r="X3" s="61"/>
+      <c r="V3" s="107"/>
+      <c r="W3" s="107"/>
+      <c r="X3" s="108"/>
     </row>
     <row r="4" spans="2:24" x14ac:dyDescent="0.25">
       <c r="D4" s="1">
@@ -7005,91 +6977,91 @@
       </c>
     </row>
     <row r="6" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B6" s="62" t="s">
+      <c r="B6" s="114" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="122">
+      <c r="D6" s="75">
         <v>0.75</v>
       </c>
-      <c r="E6" s="123">
-        <v>0</v>
-      </c>
-      <c r="F6" s="123">
-        <v>0</v>
-      </c>
-      <c r="G6" s="123">
-        <v>0</v>
-      </c>
-      <c r="H6" s="123">
-        <v>0</v>
-      </c>
-      <c r="I6" s="123">
+      <c r="E6" s="76">
+        <v>0</v>
+      </c>
+      <c r="F6" s="76">
+        <v>0</v>
+      </c>
+      <c r="G6" s="76">
+        <v>0</v>
+      </c>
+      <c r="H6" s="76">
+        <v>0</v>
+      </c>
+      <c r="I6" s="76">
         <v>2</v>
       </c>
-      <c r="J6" s="123">
+      <c r="J6" s="76">
         <v>4</v>
       </c>
-      <c r="K6" s="123">
-        <v>0</v>
-      </c>
-      <c r="L6" s="123">
-        <v>0</v>
-      </c>
-      <c r="M6" s="123">
-        <v>0</v>
-      </c>
-      <c r="N6" s="123">
-        <v>0</v>
-      </c>
-      <c r="O6" s="124">
-        <v>0</v>
-      </c>
-      <c r="P6" s="125">
+      <c r="K6" s="76">
+        <v>0</v>
+      </c>
+      <c r="L6" s="76">
+        <v>0</v>
+      </c>
+      <c r="M6" s="76">
+        <v>0</v>
+      </c>
+      <c r="N6" s="76">
+        <v>0</v>
+      </c>
+      <c r="O6" s="77">
+        <v>0</v>
+      </c>
+      <c r="P6" s="78">
         <f>'Sp2'!D26</f>
         <v>0</v>
       </c>
-      <c r="Q6" s="126">
+      <c r="Q6" s="79">
         <f>'Sp2'!E26</f>
         <v>0</v>
       </c>
-      <c r="R6" s="126">
+      <c r="R6" s="79">
         <f>'Sp2'!F26</f>
         <v>0</v>
       </c>
-      <c r="S6" s="126">
+      <c r="S6" s="79">
         <f>'Sp2'!G26</f>
         <v>0</v>
       </c>
-      <c r="T6" s="126">
+      <c r="T6" s="79">
         <f>'Sp2'!H26</f>
         <v>6</v>
       </c>
-      <c r="U6" s="126">
+      <c r="U6" s="79">
         <f>'Sp2'!I26</f>
-        <v>0</v>
-      </c>
-      <c r="V6" s="126">
+        <v>2</v>
+      </c>
+      <c r="V6" s="79">
         <f>'Sp2'!J26</f>
         <v>0</v>
       </c>
-      <c r="W6" s="126">
+      <c r="W6" s="79">
         <f>'Sp2'!K26</f>
         <v>0</v>
       </c>
-      <c r="X6" s="127">
+      <c r="X6" s="80">
         <f>'Sp2'!L26</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B7" s="63"/>
+      <c r="B7" s="115"/>
       <c r="C7" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="118">
+      <c r="D7" s="71">
         <v>0</v>
       </c>
       <c r="E7" s="42">
@@ -7125,49 +7097,49 @@
       <c r="O7" s="43">
         <v>0</v>
       </c>
-      <c r="P7" s="112">
+      <c r="P7" s="65">
         <f>'Sp2'!D27</f>
         <v>0</v>
       </c>
-      <c r="Q7" s="107">
+      <c r="Q7" s="63">
         <f>'Sp2'!E27</f>
         <v>0</v>
       </c>
-      <c r="R7" s="107">
+      <c r="R7" s="63">
         <f>'Sp2'!F27</f>
         <v>0</v>
       </c>
-      <c r="S7" s="107">
+      <c r="S7" s="63">
         <f>'Sp2'!G27</f>
         <v>0</v>
       </c>
-      <c r="T7" s="107">
+      <c r="T7" s="63">
         <f>'Sp2'!H27</f>
         <v>0</v>
       </c>
-      <c r="U7" s="107">
+      <c r="U7" s="63">
         <f>'Sp2'!I27</f>
         <v>0</v>
       </c>
-      <c r="V7" s="107">
+      <c r="V7" s="63">
         <f>'Sp2'!J27</f>
         <v>0</v>
       </c>
-      <c r="W7" s="107">
+      <c r="W7" s="63">
         <f>'Sp2'!K27</f>
         <v>0</v>
       </c>
-      <c r="X7" s="113">
+      <c r="X7" s="66">
         <f>'Sp2'!L27</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B8" s="63"/>
+      <c r="B8" s="115"/>
       <c r="C8" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="118">
+      <c r="D8" s="71">
         <v>0</v>
       </c>
       <c r="E8" s="42">
@@ -7203,147 +7175,147 @@
       <c r="O8" s="43">
         <v>0</v>
       </c>
-      <c r="P8" s="112">
+      <c r="P8" s="65">
         <f>'Sp2'!D28</f>
         <v>0</v>
       </c>
-      <c r="Q8" s="107">
+      <c r="Q8" s="63">
         <f>'Sp2'!E28</f>
         <v>0</v>
       </c>
-      <c r="R8" s="107">
+      <c r="R8" s="63">
         <f>'Sp2'!F28</f>
         <v>0</v>
       </c>
-      <c r="S8" s="107">
+      <c r="S8" s="63">
         <f>'Sp2'!G28</f>
         <v>0</v>
       </c>
-      <c r="T8" s="107">
+      <c r="T8" s="63">
         <f>'Sp2'!H28</f>
         <v>0</v>
       </c>
-      <c r="U8" s="107">
+      <c r="U8" s="63">
         <f>'Sp2'!I28</f>
         <v>0</v>
       </c>
-      <c r="V8" s="107">
+      <c r="V8" s="63">
         <f>'Sp2'!J28</f>
         <v>0</v>
       </c>
-      <c r="W8" s="107">
+      <c r="W8" s="63">
         <f>'Sp2'!K28</f>
         <v>0</v>
       </c>
-      <c r="X8" s="113">
+      <c r="X8" s="66">
         <f>'Sp2'!L28</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B9" s="64"/>
-      <c r="C9" s="116" t="s">
+      <c r="B9" s="116"/>
+      <c r="C9" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="119">
+      <c r="D9" s="72">
         <v>0.75</v>
       </c>
-      <c r="E9" s="120">
-        <v>0</v>
-      </c>
-      <c r="F9" s="120">
-        <v>0</v>
-      </c>
-      <c r="G9" s="120">
-        <v>0</v>
-      </c>
-      <c r="H9" s="120">
-        <v>0</v>
-      </c>
-      <c r="I9" s="120">
+      <c r="E9" s="73">
+        <v>0</v>
+      </c>
+      <c r="F9" s="73">
+        <v>0</v>
+      </c>
+      <c r="G9" s="73">
+        <v>0</v>
+      </c>
+      <c r="H9" s="73">
+        <v>0</v>
+      </c>
+      <c r="I9" s="73">
         <v>2</v>
       </c>
-      <c r="J9" s="120">
+      <c r="J9" s="73">
         <v>7.5</v>
       </c>
-      <c r="K9" s="120">
+      <c r="K9" s="73">
         <v>5.5</v>
       </c>
-      <c r="L9" s="120">
-        <v>0</v>
-      </c>
-      <c r="M9" s="120">
-        <v>0</v>
-      </c>
-      <c r="N9" s="120">
-        <v>0</v>
-      </c>
-      <c r="O9" s="121">
-        <v>0</v>
-      </c>
-      <c r="P9" s="128">
+      <c r="L9" s="73">
+        <v>0</v>
+      </c>
+      <c r="M9" s="73">
+        <v>0</v>
+      </c>
+      <c r="N9" s="73">
+        <v>0</v>
+      </c>
+      <c r="O9" s="74">
+        <v>0</v>
+      </c>
+      <c r="P9" s="81">
         <f>'Sp2'!D25</f>
         <v>0</v>
       </c>
-      <c r="Q9" s="129">
+      <c r="Q9" s="82">
         <f>'Sp2'!E25</f>
         <v>0</v>
       </c>
-      <c r="R9" s="129">
+      <c r="R9" s="82">
         <f>'Sp2'!F25</f>
         <v>0</v>
       </c>
-      <c r="S9" s="129">
+      <c r="S9" s="82">
         <f>'Sp2'!G25</f>
         <v>0</v>
       </c>
-      <c r="T9" s="129">
+      <c r="T9" s="82">
         <f>'Sp2'!H25</f>
         <v>6</v>
       </c>
-      <c r="U9" s="129">
+      <c r="U9" s="82">
         <f>'Sp2'!I25</f>
-        <v>0</v>
-      </c>
-      <c r="V9" s="129">
+        <v>2</v>
+      </c>
+      <c r="V9" s="82">
         <f>'Sp2'!J25</f>
         <v>0</v>
       </c>
-      <c r="W9" s="129">
+      <c r="W9" s="82">
         <f>'Sp2'!K25</f>
         <v>0</v>
       </c>
-      <c r="X9" s="130">
+      <c r="X9" s="83">
         <f>'Sp2'!L25</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B10" s="5"/>
-      <c r="D10" s="114"/>
-      <c r="E10" s="96"/>
-      <c r="F10" s="96"/>
-      <c r="G10" s="96"/>
-      <c r="H10" s="96"/>
-      <c r="I10" s="96"/>
-      <c r="J10" s="96"/>
-      <c r="K10" s="96"/>
-      <c r="L10" s="96"/>
-      <c r="M10" s="96"/>
-      <c r="N10" s="96"/>
-      <c r="O10" s="115"/>
-      <c r="P10" s="114"/>
-      <c r="Q10" s="96"/>
-      <c r="R10" s="96"/>
-      <c r="S10" s="96"/>
-      <c r="T10" s="96"/>
-      <c r="U10" s="96"/>
-      <c r="V10" s="96"/>
-      <c r="W10" s="96"/>
-      <c r="X10" s="115"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="57"/>
+      <c r="K10" s="57"/>
+      <c r="L10" s="57"/>
+      <c r="M10" s="57"/>
+      <c r="N10" s="57"/>
+      <c r="O10" s="68"/>
+      <c r="P10" s="67"/>
+      <c r="Q10" s="57"/>
+      <c r="R10" s="57"/>
+      <c r="S10" s="57"/>
+      <c r="T10" s="57"/>
+      <c r="U10" s="57"/>
+      <c r="V10" s="57"/>
+      <c r="W10" s="57"/>
+      <c r="X10" s="68"/>
     </row>
     <row r="11" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="62" t="s">
+      <c r="B11" s="114" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="28" t="s">
@@ -7418,23 +7390,23 @@
       </c>
       <c r="U11" s="33">
         <f>AVERAGE($D$6:U6)</f>
-        <v>0.70833333333333337</v>
+        <v>0.81944444444444442</v>
       </c>
       <c r="V11" s="33">
         <f>AVERAGE($D$6:V6)</f>
-        <v>0.67105263157894735</v>
+        <v>0.77631578947368418</v>
       </c>
       <c r="W11" s="33">
         <f>AVERAGE($D$6:W6)</f>
-        <v>0.63749999999999996</v>
+        <v>0.73750000000000004</v>
       </c>
       <c r="X11" s="37">
         <f>AVERAGE($D$6:X6)</f>
-        <v>0.6071428571428571</v>
+        <v>0.70238095238095233</v>
       </c>
     </row>
     <row r="12" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B12" s="63"/>
+      <c r="B12" s="115"/>
       <c r="C12" s="29" t="s">
         <v>8</v>
       </c>
@@ -7523,7 +7495,7 @@
       </c>
     </row>
     <row r="13" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B13" s="63"/>
+      <c r="B13" s="115"/>
       <c r="C13" s="30" t="s">
         <v>9</v>
       </c>
@@ -7612,694 +7584,694 @@
       </c>
     </row>
     <row r="14" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B14" s="64"/>
-      <c r="C14" s="116" t="s">
+      <c r="B14" s="116"/>
+      <c r="C14" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="133">
+      <c r="D14" s="86">
         <v>0.75</v>
       </c>
-      <c r="E14" s="140">
+      <c r="E14" s="89">
         <f>AVERAGE($D$9:E9)</f>
         <v>0.375</v>
       </c>
-      <c r="F14" s="140">
+      <c r="F14" s="89">
         <f>AVERAGE($D$9:F9)</f>
         <v>0.25</v>
       </c>
-      <c r="G14" s="140">
+      <c r="G14" s="89">
         <f>AVERAGE($D$9:G9)</f>
         <v>0.1875</v>
       </c>
-      <c r="H14" s="140">
+      <c r="H14" s="89">
         <f>AVERAGE($D$9:H9)</f>
         <v>0.15</v>
       </c>
-      <c r="I14" s="140">
+      <c r="I14" s="89">
         <f>AVERAGE($D$9:I9)</f>
         <v>0.45833333333333331</v>
       </c>
-      <c r="J14" s="140">
+      <c r="J14" s="89">
         <f>AVERAGE($D$9:J9)</f>
         <v>1.4642857142857142</v>
       </c>
-      <c r="K14" s="140">
+      <c r="K14" s="89">
         <f>AVERAGE($D$9:K9)</f>
         <v>1.96875</v>
       </c>
-      <c r="L14" s="140">
+      <c r="L14" s="89">
         <f>AVERAGE($D$9:L9)</f>
         <v>1.75</v>
       </c>
-      <c r="M14" s="140">
+      <c r="M14" s="89">
         <f>AVERAGE($D$9:M9)</f>
         <v>1.575</v>
       </c>
-      <c r="N14" s="140">
+      <c r="N14" s="89">
         <f>AVERAGE($D$9:N9)</f>
         <v>1.4318181818181819</v>
       </c>
-      <c r="O14" s="141">
+      <c r="O14" s="90">
         <f>AVERAGE($D$9:O9)</f>
         <v>1.3125</v>
       </c>
-      <c r="P14" s="140">
+      <c r="P14" s="89">
         <f>AVERAGE($D$9:P9)</f>
         <v>1.2115384615384615</v>
       </c>
-      <c r="Q14" s="140">
+      <c r="Q14" s="89">
         <f>AVERAGE($D$9:Q9)</f>
         <v>1.125</v>
       </c>
-      <c r="R14" s="140">
+      <c r="R14" s="89">
         <f>AVERAGE($D$9:R9)</f>
         <v>1.05</v>
       </c>
-      <c r="S14" s="140">
+      <c r="S14" s="89">
         <f>AVERAGE($D$9:S9)</f>
         <v>0.984375</v>
       </c>
-      <c r="T14" s="140">
+      <c r="T14" s="89">
         <f>AVERAGE($D$9:T9)</f>
         <v>1.2794117647058822</v>
       </c>
-      <c r="U14" s="140">
+      <c r="U14" s="89">
         <f>AVERAGE($D$9:U9)</f>
-        <v>1.2083333333333333</v>
-      </c>
-      <c r="V14" s="140">
+        <v>1.3194444444444444</v>
+      </c>
+      <c r="V14" s="89">
         <f>AVERAGE($D$9:V9)</f>
-        <v>1.1447368421052631</v>
-      </c>
-      <c r="W14" s="140">
+        <v>1.25</v>
+      </c>
+      <c r="W14" s="89">
         <f>AVERAGE($D$9:W9)</f>
-        <v>1.0874999999999999</v>
-      </c>
-      <c r="X14" s="141">
+        <v>1.1875</v>
+      </c>
+      <c r="X14" s="90">
         <f>AVERAGE($D$9:X9)</f>
-        <v>1.0357142857142858</v>
+        <v>1.1309523809523809</v>
       </c>
     </row>
     <row r="15" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B15" s="5"/>
-      <c r="D15" s="114"/>
-      <c r="E15" s="96"/>
-      <c r="F15" s="96"/>
-      <c r="G15" s="96"/>
-      <c r="H15" s="96"/>
-      <c r="I15" s="96"/>
-      <c r="J15" s="96"/>
-      <c r="K15" s="96"/>
-      <c r="L15" s="96"/>
-      <c r="M15" s="96"/>
-      <c r="N15" s="96"/>
-      <c r="O15" s="115"/>
-      <c r="P15" s="114"/>
-      <c r="Q15" s="96"/>
-      <c r="R15" s="96"/>
-      <c r="S15" s="96"/>
-      <c r="T15" s="96"/>
-      <c r="U15" s="96"/>
-      <c r="V15" s="96"/>
-      <c r="W15" s="96"/>
-      <c r="X15" s="115"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="57"/>
+      <c r="K15" s="57"/>
+      <c r="L15" s="57"/>
+      <c r="M15" s="57"/>
+      <c r="N15" s="57"/>
+      <c r="O15" s="68"/>
+      <c r="P15" s="67"/>
+      <c r="Q15" s="57"/>
+      <c r="R15" s="57"/>
+      <c r="S15" s="57"/>
+      <c r="T15" s="57"/>
+      <c r="U15" s="57"/>
+      <c r="V15" s="57"/>
+      <c r="W15" s="57"/>
+      <c r="X15" s="68"/>
     </row>
     <row r="16" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B16" s="67" t="s">
+      <c r="B16" s="109" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="134" t="s">
+      <c r="C16" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="97">
+      <c r="D16" s="58">
         <f>D6</f>
         <v>0.75</v>
       </c>
-      <c r="E16" s="131">
+      <c r="E16" s="84">
         <f>D16+E6</f>
         <v>0.75</v>
       </c>
-      <c r="F16" s="131">
+      <c r="F16" s="84">
         <f t="shared" ref="F16:P16" si="0">E16+F6</f>
         <v>0.75</v>
       </c>
-      <c r="G16" s="131">
+      <c r="G16" s="84">
         <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
-      <c r="H16" s="131">
+      <c r="H16" s="84">
         <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
-      <c r="I16" s="131">
+      <c r="I16" s="84">
         <f t="shared" si="0"/>
         <v>2.75</v>
       </c>
-      <c r="J16" s="131">
+      <c r="J16" s="84">
         <f t="shared" si="0"/>
         <v>6.75</v>
       </c>
-      <c r="K16" s="131">
+      <c r="K16" s="84">
         <f t="shared" si="0"/>
         <v>6.75</v>
       </c>
-      <c r="L16" s="131">
+      <c r="L16" s="84">
         <f t="shared" si="0"/>
         <v>6.75</v>
       </c>
-      <c r="M16" s="131">
+      <c r="M16" s="84">
         <f t="shared" si="0"/>
         <v>6.75</v>
       </c>
-      <c r="N16" s="131">
+      <c r="N16" s="84">
         <f t="shared" si="0"/>
         <v>6.75</v>
       </c>
-      <c r="O16" s="132">
+      <c r="O16" s="85">
         <f t="shared" si="0"/>
         <v>6.75</v>
       </c>
-      <c r="P16" s="132">
+      <c r="P16" s="85">
         <f t="shared" si="0"/>
         <v>6.75</v>
       </c>
-      <c r="Q16" s="132">
+      <c r="Q16" s="85">
         <f t="shared" ref="Q16:Q19" si="1">P16+Q6</f>
         <v>6.75</v>
       </c>
-      <c r="R16" s="132">
+      <c r="R16" s="85">
         <f t="shared" ref="R16:R19" si="2">Q16+R6</f>
         <v>6.75</v>
       </c>
-      <c r="S16" s="132">
+      <c r="S16" s="85">
         <f t="shared" ref="S16:S19" si="3">R16+S6</f>
         <v>6.75</v>
       </c>
-      <c r="T16" s="132">
+      <c r="T16" s="85">
         <f t="shared" ref="T16:T19" si="4">S16+T6</f>
         <v>12.75</v>
       </c>
-      <c r="U16" s="132">
+      <c r="U16" s="85">
         <f t="shared" ref="U16:U19" si="5">T16+U6</f>
-        <v>12.75</v>
-      </c>
-      <c r="V16" s="132">
+        <v>14.75</v>
+      </c>
+      <c r="V16" s="85">
         <f t="shared" ref="V16:V19" si="6">U16+V6</f>
-        <v>12.75</v>
-      </c>
-      <c r="W16" s="132">
+        <v>14.75</v>
+      </c>
+      <c r="W16" s="85">
         <f t="shared" ref="W16:W19" si="7">V16+W6</f>
-        <v>12.75</v>
-      </c>
-      <c r="X16" s="132">
+        <v>14.75</v>
+      </c>
+      <c r="X16" s="85">
         <f t="shared" ref="X16:X19" si="8">W16+X6</f>
-        <v>12.75</v>
+        <v>14.75</v>
       </c>
     </row>
     <row r="17" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B17" s="68"/>
-      <c r="C17" s="117" t="s">
+      <c r="B17" s="110"/>
+      <c r="C17" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="114">
+      <c r="D17" s="67">
         <f t="shared" ref="D17:D19" si="9">D7</f>
         <v>0</v>
       </c>
-      <c r="E17" s="96">
+      <c r="E17" s="57">
         <f t="shared" ref="E17:P19" si="10">D17+E7</f>
         <v>0</v>
       </c>
-      <c r="F17" s="96">
+      <c r="F17" s="57">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="G17" s="96">
+      <c r="G17" s="57">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="H17" s="96">
+      <c r="H17" s="57">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I17" s="96">
+      <c r="I17" s="57">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="J17" s="96">
+      <c r="J17" s="57">
         <f t="shared" si="10"/>
         <v>2</v>
       </c>
-      <c r="K17" s="96">
+      <c r="K17" s="57">
         <f t="shared" si="10"/>
         <v>7</v>
       </c>
-      <c r="L17" s="96">
+      <c r="L17" s="57">
         <f t="shared" si="10"/>
         <v>7</v>
       </c>
-      <c r="M17" s="96">
+      <c r="M17" s="57">
         <f t="shared" si="10"/>
         <v>7</v>
       </c>
-      <c r="N17" s="96">
+      <c r="N17" s="57">
         <f t="shared" si="10"/>
         <v>7</v>
       </c>
-      <c r="O17" s="115">
+      <c r="O17" s="68">
         <f t="shared" si="10"/>
         <v>7</v>
       </c>
-      <c r="P17" s="115">
+      <c r="P17" s="68">
         <f t="shared" si="10"/>
         <v>7</v>
       </c>
-      <c r="Q17" s="115">
+      <c r="Q17" s="68">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="R17" s="115">
+      <c r="R17" s="68">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="S17" s="115">
+      <c r="S17" s="68">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="T17" s="115">
+      <c r="T17" s="68">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="U17" s="115">
+      <c r="U17" s="68">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="V17" s="115">
+      <c r="V17" s="68">
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
-      <c r="W17" s="115">
+      <c r="W17" s="68">
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="X17" s="115">
+      <c r="X17" s="68">
         <f t="shared" si="8"/>
         <v>7</v>
       </c>
     </row>
     <row r="18" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B18" s="68"/>
-      <c r="C18" s="117" t="s">
+      <c r="B18" s="110"/>
+      <c r="C18" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="114">
+      <c r="D18" s="67">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="E18" s="96">
+      <c r="E18" s="57">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="F18" s="96">
+      <c r="F18" s="57">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="G18" s="96">
+      <c r="G18" s="57">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="H18" s="96">
+      <c r="H18" s="57">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I18" s="96">
+      <c r="I18" s="57">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="J18" s="96">
+      <c r="J18" s="57">
         <f t="shared" si="10"/>
         <v>1.5</v>
       </c>
-      <c r="K18" s="96">
+      <c r="K18" s="57">
         <f t="shared" si="10"/>
         <v>2</v>
       </c>
-      <c r="L18" s="96">
+      <c r="L18" s="57">
         <f t="shared" si="10"/>
         <v>2</v>
       </c>
-      <c r="M18" s="96">
+      <c r="M18" s="57">
         <f t="shared" si="10"/>
         <v>2</v>
       </c>
-      <c r="N18" s="96">
+      <c r="N18" s="57">
         <f t="shared" si="10"/>
         <v>2</v>
       </c>
-      <c r="O18" s="115">
+      <c r="O18" s="68">
         <f t="shared" si="10"/>
         <v>2</v>
       </c>
-      <c r="P18" s="115">
+      <c r="P18" s="68">
         <f t="shared" si="10"/>
         <v>2</v>
       </c>
-      <c r="Q18" s="115">
+      <c r="Q18" s="68">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="R18" s="115">
+      <c r="R18" s="68">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="S18" s="115">
+      <c r="S18" s="68">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="T18" s="115">
+      <c r="T18" s="68">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="U18" s="115">
+      <c r="U18" s="68">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="V18" s="115">
+      <c r="V18" s="68">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="W18" s="115">
+      <c r="W18" s="68">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="X18" s="115">
+      <c r="X18" s="68">
         <f t="shared" si="8"/>
         <v>2</v>
       </c>
     </row>
     <row r="19" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B19" s="69"/>
-      <c r="C19" s="135" t="s">
+      <c r="B19" s="111"/>
+      <c r="C19" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="D19" s="119">
+      <c r="D19" s="72">
         <f t="shared" si="9"/>
         <v>0.75</v>
       </c>
-      <c r="E19" s="120">
+      <c r="E19" s="73">
         <f t="shared" si="10"/>
         <v>0.75</v>
       </c>
-      <c r="F19" s="120">
+      <c r="F19" s="73">
         <f t="shared" si="10"/>
         <v>0.75</v>
       </c>
-      <c r="G19" s="120">
+      <c r="G19" s="73">
         <f t="shared" si="10"/>
         <v>0.75</v>
       </c>
-      <c r="H19" s="120">
+      <c r="H19" s="73">
         <f t="shared" si="10"/>
         <v>0.75</v>
       </c>
-      <c r="I19" s="120">
+      <c r="I19" s="73">
         <f t="shared" si="10"/>
         <v>2.75</v>
       </c>
-      <c r="J19" s="120">
+      <c r="J19" s="73">
         <f t="shared" si="10"/>
         <v>10.25</v>
       </c>
-      <c r="K19" s="120">
+      <c r="K19" s="73">
         <f t="shared" si="10"/>
         <v>15.75</v>
       </c>
-      <c r="L19" s="120">
+      <c r="L19" s="73">
         <f t="shared" si="10"/>
         <v>15.75</v>
       </c>
-      <c r="M19" s="120">
+      <c r="M19" s="73">
         <f t="shared" si="10"/>
         <v>15.75</v>
       </c>
-      <c r="N19" s="120">
+      <c r="N19" s="73">
         <f t="shared" si="10"/>
         <v>15.75</v>
       </c>
-      <c r="O19" s="121">
+      <c r="O19" s="74">
         <f t="shared" si="10"/>
         <v>15.75</v>
       </c>
-      <c r="P19" s="121">
+      <c r="P19" s="74">
         <f t="shared" si="10"/>
         <v>15.75</v>
       </c>
-      <c r="Q19" s="121">
+      <c r="Q19" s="74">
         <f t="shared" si="1"/>
         <v>15.75</v>
       </c>
-      <c r="R19" s="121">
+      <c r="R19" s="74">
         <f t="shared" si="2"/>
         <v>15.75</v>
       </c>
-      <c r="S19" s="121">
+      <c r="S19" s="74">
         <f t="shared" si="3"/>
         <v>15.75</v>
       </c>
-      <c r="T19" s="121">
+      <c r="T19" s="74">
         <f t="shared" si="4"/>
         <v>21.75</v>
       </c>
-      <c r="U19" s="121">
+      <c r="U19" s="74">
         <f t="shared" si="5"/>
-        <v>21.75</v>
-      </c>
-      <c r="V19" s="121">
+        <v>23.75</v>
+      </c>
+      <c r="V19" s="74">
         <f t="shared" si="6"/>
-        <v>21.75</v>
-      </c>
-      <c r="W19" s="121">
+        <v>23.75</v>
+      </c>
+      <c r="W19" s="74">
         <f t="shared" si="7"/>
-        <v>21.75</v>
-      </c>
-      <c r="X19" s="121">
+        <v>23.75</v>
+      </c>
+      <c r="X19" s="74">
         <f t="shared" si="8"/>
-        <v>21.75</v>
+        <v>23.75</v>
       </c>
     </row>
     <row r="21" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="54" t="s">
+      <c r="B21" s="119" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="155"/>
-      <c r="D21" s="159">
+      <c r="C21" s="120"/>
+      <c r="D21" s="121">
         <v>1</v>
       </c>
-      <c r="E21" s="160"/>
-      <c r="F21" s="157">
+      <c r="E21" s="122"/>
+      <c r="F21" s="117">
         <v>2</v>
       </c>
-      <c r="G21" s="55"/>
+      <c r="G21" s="118"/>
     </row>
     <row r="22" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B22" s="142" t="s">
+      <c r="B22" s="123" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="156"/>
-      <c r="D22" s="161">
+      <c r="C22" s="124"/>
+      <c r="D22" s="101">
         <v>1</v>
       </c>
-      <c r="E22" s="162">
+      <c r="E22" s="102">
         <v>2</v>
       </c>
-      <c r="F22" s="158">
+      <c r="F22" s="100">
         <v>3</v>
       </c>
-      <c r="G22" s="143">
+      <c r="G22" s="91">
         <v>4</v>
       </c>
     </row>
     <row r="23" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B23" s="67" t="s">
+      <c r="B23" s="109" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="134" t="s">
+      <c r="C23" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="D23" s="163">
+      <c r="D23" s="103">
         <f xml:space="preserve"> SUM(D6:I6)</f>
         <v>2.75</v>
       </c>
-      <c r="E23" s="147">
+      <c r="E23" s="95">
         <f xml:space="preserve"> SUM(J6:O6)</f>
         <v>4</v>
       </c>
-      <c r="F23" s="146">
+      <c r="F23" s="103">
         <f xml:space="preserve"> SUM(P6:T6)</f>
         <v>6</v>
       </c>
-      <c r="G23" s="147">
-        <f xml:space="preserve"> SUM(L6:Q6)</f>
-        <v>0</v>
+      <c r="G23" s="95">
+        <f xml:space="preserve"> SUM(U6:X6)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B24" s="68"/>
-      <c r="C24" s="117" t="s">
+      <c r="B24" s="110"/>
+      <c r="C24" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="164">
+      <c r="D24" s="104">
         <f t="shared" ref="D24:D26" si="11" xml:space="preserve"> SUM(D7:I7)</f>
         <v>0</v>
       </c>
-      <c r="E24" s="149">
+      <c r="E24" s="97">
         <f t="shared" ref="E24:E26" si="12" xml:space="preserve"> SUM(J7:O7)</f>
         <v>7</v>
       </c>
-      <c r="F24" s="148">
+      <c r="F24" s="104">
         <f t="shared" ref="F24:F26" si="13" xml:space="preserve"> SUM(P7:T7)</f>
         <v>0</v>
       </c>
-      <c r="G24" s="149">
-        <f t="shared" ref="G24:G26" si="14" xml:space="preserve"> SUM(L7:Q7)</f>
+      <c r="G24" s="97">
+        <f t="shared" ref="G24:G26" si="14" xml:space="preserve"> SUM(U7:X7)</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B25" s="68"/>
-      <c r="C25" s="117" t="s">
+      <c r="B25" s="110"/>
+      <c r="C25" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="164">
+      <c r="D25" s="104">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="E25" s="149">
+      <c r="E25" s="97">
         <f t="shared" si="12"/>
         <v>2</v>
       </c>
-      <c r="F25" s="148">
+      <c r="F25" s="104">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="G25" s="149">
+      <c r="G25" s="97">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B26" s="69"/>
-      <c r="C26" s="135" t="s">
+      <c r="B26" s="111"/>
+      <c r="C26" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="D26" s="165">
+      <c r="D26" s="105">
         <f t="shared" si="11"/>
         <v>2.75</v>
       </c>
-      <c r="E26" s="151">
+      <c r="E26" s="99">
         <f t="shared" si="12"/>
         <v>13</v>
       </c>
-      <c r="F26" s="150">
+      <c r="F26" s="105">
         <f t="shared" si="13"/>
         <v>6</v>
       </c>
-      <c r="G26" s="151">
+      <c r="G26" s="99">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B27" s="144"/>
-      <c r="C27" s="145"/>
+      <c r="B27" s="92"/>
+      <c r="C27" s="93"/>
     </row>
     <row r="28" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B28" s="152" t="s">
+      <c r="B28" s="125" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="134" t="s">
+      <c r="C28" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="D28" s="163">
+      <c r="D28" s="103">
         <f xml:space="preserve"> D23</f>
         <v>2.75</v>
       </c>
-      <c r="E28" s="147">
+      <c r="E28" s="95">
         <f xml:space="preserve"> AVERAGE($D$23:E23)</f>
         <v>3.375</v>
       </c>
-      <c r="F28" s="146">
+      <c r="F28" s="94">
         <f xml:space="preserve"> AVERAGE($D$23:F23)</f>
         <v>4.25</v>
       </c>
-      <c r="G28" s="147">
+      <c r="G28" s="95">
         <f xml:space="preserve"> AVERAGE($D$23:G23)</f>
-        <v>3.1875</v>
+        <v>3.6875</v>
       </c>
     </row>
     <row r="29" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B29" s="153"/>
-      <c r="C29" s="117" t="s">
+      <c r="B29" s="126"/>
+      <c r="C29" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="D29" s="164">
-        <f t="shared" ref="D29:F31" si="15" xml:space="preserve"> D24</f>
-        <v>0</v>
-      </c>
-      <c r="E29" s="149">
+      <c r="D29" s="104">
+        <f t="shared" ref="D29:D31" si="15" xml:space="preserve"> D24</f>
+        <v>0</v>
+      </c>
+      <c r="E29" s="97">
         <f xml:space="preserve"> AVERAGE($D$24:E24)</f>
         <v>3.5</v>
       </c>
-      <c r="F29" s="148">
+      <c r="F29" s="96">
         <f xml:space="preserve"> AVERAGE($D$24:F24)</f>
         <v>2.3333333333333335</v>
       </c>
-      <c r="G29" s="149">
+      <c r="G29" s="97">
         <f xml:space="preserve"> AVERAGE($D$24:G24)</f>
         <v>1.75</v>
       </c>
     </row>
     <row r="30" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B30" s="153"/>
-      <c r="C30" s="117" t="s">
+      <c r="B30" s="126"/>
+      <c r="C30" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="D30" s="164">
+      <c r="D30" s="104">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="E30" s="149">
+      <c r="E30" s="97">
         <f xml:space="preserve"> AVERAGE($D$25:E25)</f>
         <v>1</v>
       </c>
-      <c r="F30" s="148">
+      <c r="F30" s="96">
         <f xml:space="preserve"> AVERAGE($D$25:F25)</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="G30" s="149">
+      <c r="G30" s="97">
         <f xml:space="preserve"> AVERAGE($D$25:G25)</f>
         <v>0.5</v>
       </c>
     </row>
     <row r="31" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B31" s="154"/>
-      <c r="C31" s="135" t="s">
+      <c r="B31" s="127"/>
+      <c r="C31" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="D31" s="165">
+      <c r="D31" s="105">
         <f t="shared" si="15"/>
         <v>2.75</v>
       </c>
-      <c r="E31" s="151">
+      <c r="E31" s="99">
         <f xml:space="preserve"> AVERAGE($D$26:E26)</f>
         <v>7.875</v>
       </c>
-      <c r="F31" s="150">
+      <c r="F31" s="98">
         <f xml:space="preserve"> AVERAGE($D$26:F26)</f>
         <v>7.25</v>
       </c>
-      <c r="G31" s="151">
+      <c r="G31" s="99">
         <f xml:space="preserve"> AVERAGE($D$26:G26)</f>
-        <v>5.4375</v>
+        <v>5.9375</v>
       </c>
     </row>
     <row r="32" spans="2:24" x14ac:dyDescent="0.25">
@@ -8307,93 +8279,93 @@
       <c r="C32" s="6"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B33" s="67" t="s">
+      <c r="B33" s="109" t="s">
         <v>29</v>
       </c>
-      <c r="C33" s="134" t="s">
+      <c r="C33" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="D33" s="163">
+      <c r="D33" s="103">
         <f xml:space="preserve"> D23</f>
         <v>2.75</v>
       </c>
-      <c r="E33" s="147">
+      <c r="E33" s="95">
         <f xml:space="preserve"> D33 + E23</f>
         <v>6.75</v>
       </c>
-      <c r="F33" s="146">
+      <c r="F33" s="94">
         <f t="shared" ref="F33:G36" si="16" xml:space="preserve"> E33 + F23</f>
         <v>12.75</v>
       </c>
-      <c r="G33" s="147">
+      <c r="G33" s="95">
         <f t="shared" si="16"/>
-        <v>12.75</v>
+        <v>14.75</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B34" s="68"/>
-      <c r="C34" s="117" t="s">
+      <c r="B34" s="110"/>
+      <c r="C34" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="D34" s="164">
-        <f t="shared" ref="D34:F36" si="17" xml:space="preserve"> D24</f>
-        <v>0</v>
-      </c>
-      <c r="E34" s="149">
+      <c r="D34" s="104">
+        <f t="shared" ref="D34:D36" si="17" xml:space="preserve"> D24</f>
+        <v>0</v>
+      </c>
+      <c r="E34" s="97">
         <f t="shared" ref="E34:E36" si="18" xml:space="preserve"> D34 + E24</f>
         <v>7</v>
       </c>
-      <c r="F34" s="148">
+      <c r="F34" s="96">
         <f t="shared" si="16"/>
         <v>7</v>
       </c>
-      <c r="G34" s="149">
+      <c r="G34" s="97">
         <f t="shared" si="16"/>
         <v>7</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B35" s="68"/>
-      <c r="C35" s="117" t="s">
+      <c r="B35" s="110"/>
+      <c r="C35" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="D35" s="164">
+      <c r="D35" s="104">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="E35" s="149">
+      <c r="E35" s="97">
         <f t="shared" si="18"/>
         <v>2</v>
       </c>
-      <c r="F35" s="148">
+      <c r="F35" s="96">
         <f t="shared" si="16"/>
         <v>2</v>
       </c>
-      <c r="G35" s="149">
+      <c r="G35" s="97">
         <f t="shared" si="16"/>
         <v>2</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B36" s="69"/>
-      <c r="C36" s="135" t="s">
+      <c r="B36" s="111"/>
+      <c r="C36" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="D36" s="165">
+      <c r="D36" s="105">
         <f t="shared" si="17"/>
         <v>2.75</v>
       </c>
-      <c r="E36" s="151">
+      <c r="E36" s="99">
         <f t="shared" si="18"/>
         <v>15.75</v>
       </c>
-      <c r="F36" s="150">
+      <c r="F36" s="98">
         <f t="shared" si="16"/>
         <v>21.75</v>
       </c>
-      <c r="G36" s="151">
+      <c r="G36" s="99">
         <f t="shared" si="16"/>
-        <v>21.75</v>
+        <v>23.75</v>
       </c>
     </row>
   </sheetData>
@@ -8439,22 +8411,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D1" s="59" t="s">
+      <c r="D1" s="106" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="58" t="s">
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="113" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="86"/>
+      <c r="K1" s="113"/>
+      <c r="L1" s="113"/>
+      <c r="M1" s="113"/>
+      <c r="N1" s="113"/>
+      <c r="O1" s="128"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C2" s="6" t="s">
@@ -8562,10 +8534,10 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="78" t="s">
+      <c r="A5" s="135" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="87">
+      <c r="B5" s="129">
         <v>2</v>
       </c>
       <c r="C5" s="10" t="s">
@@ -8625,8 +8597,8 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="79"/>
-      <c r="B6" s="88"/>
+      <c r="A6" s="136"/>
+      <c r="B6" s="130"/>
       <c r="C6" s="13" t="s">
         <v>7</v>
       </c>
@@ -8650,8 +8622,8 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="79"/>
-      <c r="B7" s="88"/>
+      <c r="A7" s="136"/>
+      <c r="B7" s="130"/>
       <c r="C7" s="13" t="s">
         <v>8</v>
       </c>
@@ -8675,8 +8647,8 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="79"/>
-      <c r="B8" s="88"/>
+      <c r="A8" s="136"/>
+      <c r="B8" s="130"/>
       <c r="C8" s="17" t="s">
         <v>9</v>
       </c>
@@ -8700,8 +8672,8 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="79"/>
-      <c r="B9" s="88"/>
+      <c r="A9" s="136"/>
+      <c r="B9" s="130"/>
       <c r="C9" s="21" t="s">
         <v>16</v>
       </c>
@@ -8759,8 +8731,8 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="79"/>
-      <c r="B10" s="88"/>
+      <c r="A10" s="136"/>
+      <c r="B10" s="130"/>
       <c r="C10" s="13" t="s">
         <v>7</v>
       </c>
@@ -8782,8 +8754,8 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="79"/>
-      <c r="B11" s="88"/>
+      <c r="A11" s="136"/>
+      <c r="B11" s="130"/>
       <c r="C11" s="13" t="s">
         <v>8</v>
       </c>
@@ -8805,8 +8777,8 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="79"/>
-      <c r="B12" s="88"/>
+      <c r="A12" s="136"/>
+      <c r="B12" s="130"/>
       <c r="C12" s="17" t="s">
         <v>9</v>
       </c>
@@ -8828,8 +8800,8 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="79"/>
-      <c r="B13" s="88"/>
+      <c r="A13" s="136"/>
+      <c r="B13" s="130"/>
       <c r="C13" s="21" t="s">
         <v>17</v>
       </c>
@@ -8887,8 +8859,8 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="79"/>
-      <c r="B14" s="88"/>
+      <c r="A14" s="136"/>
+      <c r="B14" s="130"/>
       <c r="C14" s="13" t="s">
         <v>7</v>
       </c>
@@ -8910,8 +8882,8 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="79"/>
-      <c r="B15" s="88"/>
+      <c r="A15" s="136"/>
+      <c r="B15" s="130"/>
       <c r="C15" s="13" t="s">
         <v>8</v>
       </c>
@@ -8933,8 +8905,8 @@
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="79"/>
-      <c r="B16" s="89"/>
+      <c r="A16" s="136"/>
+      <c r="B16" s="131"/>
       <c r="C16" s="17" t="s">
         <v>9</v>
       </c>
@@ -8960,8 +8932,8 @@
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="79"/>
-      <c r="B17" s="87">
+      <c r="A17" s="136"/>
+      <c r="B17" s="129">
         <v>3</v>
       </c>
       <c r="C17" s="21" t="s">
@@ -9021,8 +8993,8 @@
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="79"/>
-      <c r="B18" s="88"/>
+      <c r="A18" s="136"/>
+      <c r="B18" s="130"/>
       <c r="C18" s="13" t="s">
         <v>7</v>
       </c>
@@ -9048,8 +9020,8 @@
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="79"/>
-      <c r="B19" s="88"/>
+      <c r="A19" s="136"/>
+      <c r="B19" s="130"/>
       <c r="C19" s="13" t="s">
         <v>8</v>
       </c>
@@ -9071,8 +9043,8 @@
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="79"/>
-      <c r="B20" s="89"/>
+      <c r="A20" s="136"/>
+      <c r="B20" s="131"/>
       <c r="C20" s="17" t="s">
         <v>9</v>
       </c>
@@ -9094,8 +9066,8 @@
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="79"/>
-      <c r="B21" s="90"/>
+      <c r="A21" s="136"/>
+      <c r="B21" s="132"/>
       <c r="C21" s="21" t="s">
         <v>19</v>
       </c>
@@ -9153,8 +9125,8 @@
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="79"/>
-      <c r="B22" s="91"/>
+      <c r="A22" s="136"/>
+      <c r="B22" s="133"/>
       <c r="C22" s="13" t="s">
         <v>7</v>
       </c>
@@ -9176,8 +9148,8 @@
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="79"/>
-      <c r="B23" s="91"/>
+      <c r="A23" s="136"/>
+      <c r="B23" s="133"/>
       <c r="C23" s="13" t="s">
         <v>8</v>
       </c>
@@ -9201,8 +9173,8 @@
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="80"/>
-      <c r="B24" s="92"/>
+      <c r="A24" s="137"/>
+      <c r="B24" s="134"/>
       <c r="C24" s="17" t="s">
         <v>9</v>
       </c>
@@ -9452,7 +9424,7 @@
       </c>
     </row>
     <row r="30" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="67" t="s">
+      <c r="A30" s="109" t="s">
         <v>5</v>
       </c>
       <c r="B30" s="48" t="s">
@@ -9509,7 +9481,7 @@
       </c>
     </row>
     <row r="31" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="68"/>
+      <c r="A31" s="110"/>
       <c r="B31" s="50" t="s">
         <v>8</v>
       </c>
@@ -9564,7 +9536,7 @@
       </c>
     </row>
     <row r="32" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="68"/>
+      <c r="A32" s="110"/>
       <c r="B32" s="52" t="s">
         <v>9</v>
       </c>
@@ -9619,11 +9591,11 @@
       </c>
     </row>
     <row r="33" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="69"/>
-      <c r="B33" s="65" t="s">
+      <c r="A33" s="111"/>
+      <c r="B33" s="149" t="s">
         <v>25</v>
       </c>
-      <c r="C33" s="66"/>
+      <c r="C33" s="150"/>
       <c r="D33" s="35">
         <f xml:space="preserve"> D25</f>
         <v>0.75</v>
@@ -9688,13 +9660,13 @@
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" s="81" t="s">
+      <c r="A36" s="138" t="s">
         <v>24</v>
       </c>
-      <c r="B36" s="70" t="s">
+      <c r="B36" s="141" t="s">
         <v>7</v>
       </c>
-      <c r="C36" s="71"/>
+      <c r="C36" s="142"/>
       <c r="D36" s="26">
         <f xml:space="preserve"> SUM(D26:I26)</f>
         <v>2.75</v>
@@ -9709,11 +9681,11 @@
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" s="82"/>
-      <c r="B37" s="72" t="s">
+      <c r="A37" s="139"/>
+      <c r="B37" s="143" t="s">
         <v>8</v>
       </c>
-      <c r="C37" s="73"/>
+      <c r="C37" s="144"/>
       <c r="D37" s="26">
         <f xml:space="preserve"> SUM(D27:I27)</f>
         <v>0</v>
@@ -9728,11 +9700,11 @@
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A38" s="82"/>
-      <c r="B38" s="74" t="s">
+      <c r="A38" s="139"/>
+      <c r="B38" s="145" t="s">
         <v>9</v>
       </c>
-      <c r="C38" s="75"/>
+      <c r="C38" s="146"/>
       <c r="D38" s="26">
         <f xml:space="preserve"> SUM(D28:I28)</f>
         <v>0</v>
@@ -9747,11 +9719,11 @@
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A39" s="83"/>
-      <c r="B39" s="84" t="s">
+      <c r="A39" s="140"/>
+      <c r="B39" s="147" t="s">
         <v>25</v>
       </c>
-      <c r="C39" s="85"/>
+      <c r="C39" s="148"/>
       <c r="D39" s="26">
         <f xml:space="preserve"> SUM(D25:I25)</f>
         <v>2.75</v>
@@ -9766,13 +9738,13 @@
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A41" s="56" t="s">
+      <c r="A41" s="151" t="s">
         <v>26</v>
       </c>
-      <c r="B41" s="70" t="s">
+      <c r="B41" s="141" t="s">
         <v>7</v>
       </c>
-      <c r="C41" s="71"/>
+      <c r="C41" s="142"/>
       <c r="D41" s="31">
         <f xml:space="preserve"> D36</f>
         <v>2.75</v>
@@ -9783,11 +9755,11 @@
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A42" s="56"/>
-      <c r="B42" s="72" t="s">
+      <c r="A42" s="151"/>
+      <c r="B42" s="143" t="s">
         <v>8</v>
       </c>
-      <c r="C42" s="73"/>
+      <c r="C42" s="144"/>
       <c r="D42" s="31">
         <f xml:space="preserve"> D37</f>
         <v>0</v>
@@ -9798,11 +9770,11 @@
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A43" s="56"/>
-      <c r="B43" s="74" t="s">
+      <c r="A43" s="151"/>
+      <c r="B43" s="145" t="s">
         <v>9</v>
       </c>
-      <c r="C43" s="75"/>
+      <c r="C43" s="146"/>
       <c r="D43" s="31">
         <f xml:space="preserve"> D38</f>
         <v>0</v>
@@ -9813,11 +9785,11 @@
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A44" s="56"/>
-      <c r="B44" s="76" t="s">
+      <c r="A44" s="151"/>
+      <c r="B44" s="152" t="s">
         <v>25</v>
       </c>
-      <c r="C44" s="77"/>
+      <c r="C44" s="153"/>
       <c r="D44" s="31">
         <f xml:space="preserve"> D39</f>
         <v>2.75</v>
@@ -9829,11 +9801,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="D1:I1"/>
-    <mergeCell ref="J1:O1"/>
-    <mergeCell ref="B5:B16"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="A41:A44"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
     <mergeCell ref="A5:A24"/>
     <mergeCell ref="A36:A39"/>
     <mergeCell ref="B36:C36"/>
@@ -9842,11 +9814,11 @@
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="A30:A33"/>
-    <mergeCell ref="A41:A44"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D1:I1"/>
+    <mergeCell ref="J1:O1"/>
+    <mergeCell ref="B5:B16"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="B21:B24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9858,35 +9830,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P44"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="33.42578125" customWidth="1"/>
+    <col min="3" max="3" width="61.28515625" customWidth="1"/>
     <col min="13" max="13" width="16.28515625" customWidth="1"/>
     <col min="16" max="16" width="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D1" s="59" t="s">
+      <c r="D1" s="106" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="59" t="s">
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="106" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="93"/>
-      <c r="N1" s="93"/>
-      <c r="O1" s="94"/>
-      <c r="P1" s="96"/>
+      <c r="J1" s="107"/>
+      <c r="K1" s="107"/>
+      <c r="L1" s="108"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="57"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C2" s="6" t="s">
@@ -9919,10 +9891,10 @@
       <c r="L2" s="1">
         <v>41983</v>
       </c>
-      <c r="M2" s="94"/>
-      <c r="N2" s="94"/>
-      <c r="O2" s="94"/>
-      <c r="P2" s="96"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="57"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C3" s="6" t="s">
@@ -9955,16 +9927,16 @@
       <c r="L3" s="3">
         <v>9</v>
       </c>
-      <c r="M3" s="95"/>
-      <c r="N3" s="94"/>
-      <c r="O3" s="94"/>
-      <c r="P3" s="96"/>
+      <c r="M3" s="56"/>
+      <c r="N3" s="55"/>
+      <c r="O3" s="55"/>
+      <c r="P3" s="57"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B4" s="97" t="s">
+      <c r="B4" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="97" t="s">
+      <c r="C4" s="58" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="8"/>
@@ -9979,18 +9951,18 @@
       <c r="M4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="N4" s="96"/>
-      <c r="O4" s="96"/>
-      <c r="P4" s="96"/>
+      <c r="N4" s="57"/>
+      <c r="O4" s="57"/>
+      <c r="P4" s="57"/>
     </row>
     <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="78" t="s">
+      <c r="A5" s="135" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="98">
+      <c r="B5" s="159">
         <v>1</v>
       </c>
-      <c r="C5" s="99" t="s">
+      <c r="C5" s="59" t="s">
         <v>31</v>
       </c>
       <c r="D5" s="11">
@@ -10030,14 +10002,14 @@
         <v>0</v>
       </c>
       <c r="M5" s="12">
-        <f>SUM(D5:L5)</f>
+        <f t="shared" ref="M5:M25" si="1">SUM(D5:L5)</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="79"/>
-      <c r="B6" s="100"/>
-      <c r="C6" s="101" t="s">
+      <c r="A6" s="136"/>
+      <c r="B6" s="160"/>
+      <c r="C6" s="60" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="14"/>
@@ -10050,14 +10022,14 @@
       <c r="K6" s="15"/>
       <c r="L6" s="15"/>
       <c r="M6" s="16">
-        <f>SUM(D6:L6)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="79"/>
-      <c r="B7" s="100"/>
-      <c r="C7" s="101" t="s">
+      <c r="A7" s="136"/>
+      <c r="B7" s="160"/>
+      <c r="C7" s="60" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="14"/>
@@ -10070,14 +10042,14 @@
       <c r="K7" s="15"/>
       <c r="L7" s="15"/>
       <c r="M7" s="16">
-        <f>SUM(D7:L7)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="79"/>
-      <c r="B8" s="102"/>
-      <c r="C8" s="103" t="s">
+      <c r="A8" s="136"/>
+      <c r="B8" s="161"/>
+      <c r="C8" s="61" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="18"/>
@@ -10090,63 +10062,63 @@
       <c r="K8" s="19"/>
       <c r="L8" s="19"/>
       <c r="M8" s="20">
-        <f>SUM(D8:L8)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="79"/>
-      <c r="B9" s="104" t="s">
+      <c r="A9" s="136"/>
+      <c r="B9" s="164" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="105" t="s">
+      <c r="C9" s="62" t="s">
         <v>33</v>
       </c>
       <c r="D9" s="11">
-        <f t="shared" ref="D9:L9" si="1">SUM(D10:D12)</f>
+        <f t="shared" ref="D9:L9" si="2">SUM(D10:D12)</f>
         <v>0</v>
       </c>
       <c r="E9" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F9" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H9" s="11">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="I9" s="11">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="J9" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L9" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M9" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F9" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G9" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H9" s="11">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-      <c r="I9" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J9" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K9" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L9" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M9" s="12">
-        <f>SUM(D9:L9)</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="79"/>
-      <c r="B10" s="106"/>
-      <c r="C10" s="101" t="s">
+      <c r="A10" s="136"/>
+      <c r="B10" s="165"/>
+      <c r="C10" s="60" t="s">
         <v>7</v>
       </c>
       <c r="D10" s="14"/>
@@ -10156,19 +10128,21 @@
       <c r="H10" s="15">
         <v>0.5</v>
       </c>
-      <c r="I10" s="15"/>
+      <c r="I10" s="15">
+        <v>0.5</v>
+      </c>
       <c r="J10" s="15"/>
       <c r="K10" s="15"/>
       <c r="L10" s="15"/>
       <c r="M10" s="16">
-        <f>SUM(D10:L10)</f>
-        <v>0.5</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="79"/>
-      <c r="B11" s="106"/>
-      <c r="C11" s="101" t="s">
+      <c r="A11" s="136"/>
+      <c r="B11" s="165"/>
+      <c r="C11" s="60" t="s">
         <v>8</v>
       </c>
       <c r="D11" s="14"/>
@@ -10181,14 +10155,14 @@
       <c r="K11" s="15"/>
       <c r="L11" s="15"/>
       <c r="M11" s="16">
-        <f>SUM(D11:L11)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="79"/>
-      <c r="B12" s="106"/>
-      <c r="C12" s="103" t="s">
+      <c r="A12" s="136"/>
+      <c r="B12" s="165"/>
+      <c r="C12" s="61" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="18"/>
@@ -10201,61 +10175,61 @@
       <c r="K12" s="19"/>
       <c r="L12" s="19"/>
       <c r="M12" s="20">
-        <f>SUM(D12:L12)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="79"/>
-      <c r="B13" s="106"/>
-      <c r="C13" s="107" t="s">
+      <c r="A13" s="136"/>
+      <c r="B13" s="165"/>
+      <c r="C13" s="63" t="s">
         <v>34</v>
       </c>
       <c r="D13" s="11">
-        <f t="shared" ref="D13:L13" si="2">SUM(D14:D16)</f>
+        <f t="shared" ref="D13:L13" si="3">SUM(D14:D16)</f>
         <v>0</v>
       </c>
       <c r="E13" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F13" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G13" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H13" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I13" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1.5</v>
       </c>
       <c r="J13" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K13" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L13" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M13" s="12">
-        <f>SUM(D13:L13)</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1.5</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="79"/>
-      <c r="B14" s="106"/>
-      <c r="C14" s="101" t="s">
+      <c r="A14" s="136"/>
+      <c r="B14" s="165"/>
+      <c r="C14" s="60" t="s">
         <v>7</v>
       </c>
       <c r="D14" s="14"/>
@@ -10263,19 +10237,21 @@
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
+      <c r="I14" s="15">
+        <v>1.5</v>
+      </c>
       <c r="J14" s="15"/>
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
       <c r="M14" s="16">
-        <f>SUM(D14:L14)</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1.5</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="79"/>
-      <c r="B15" s="106"/>
-      <c r="C15" s="101" t="s">
+      <c r="A15" s="136"/>
+      <c r="B15" s="165"/>
+      <c r="C15" s="60" t="s">
         <v>8</v>
       </c>
       <c r="D15" s="14"/>
@@ -10288,14 +10264,14 @@
       <c r="K15" s="15"/>
       <c r="L15" s="15"/>
       <c r="M15" s="16">
-        <f>SUM(D15:L15)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="79"/>
-      <c r="B16" s="106"/>
-      <c r="C16" s="101" t="s">
+      <c r="A16" s="136"/>
+      <c r="B16" s="165"/>
+      <c r="C16" s="60" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="18"/>
@@ -10308,63 +10284,63 @@
       <c r="K16" s="19"/>
       <c r="L16" s="19"/>
       <c r="M16" s="20">
-        <f>SUM(D16:L16)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="78" t="s">
+      <c r="A17" s="135" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="87"/>
-      <c r="C17" s="99" t="s">
+      <c r="B17" s="129"/>
+      <c r="C17" s="59" t="s">
         <v>36</v>
       </c>
       <c r="D17" s="11">
-        <f t="shared" ref="D17:L17" si="3">SUM(D18:D20)</f>
+        <f t="shared" ref="D17:L17" si="4">SUM(D18:D20)</f>
         <v>0</v>
       </c>
       <c r="E17" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F17" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G17" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H17" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.5</v>
       </c>
       <c r="I17" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J17" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K17" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L17" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M17" s="12">
-        <f>SUM(D17:L17)</f>
+        <f t="shared" si="1"/>
         <v>5.5</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="79"/>
-      <c r="B18" s="88"/>
-      <c r="C18" s="101" t="s">
+      <c r="A18" s="136"/>
+      <c r="B18" s="130"/>
+      <c r="C18" s="60" t="s">
         <v>7</v>
       </c>
       <c r="D18" s="14"/>
@@ -10379,14 +10355,14 @@
       <c r="K18" s="15"/>
       <c r="L18" s="15"/>
       <c r="M18" s="16">
-        <f>SUM(D18:L18)</f>
+        <f t="shared" si="1"/>
         <v>5.5</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="79"/>
-      <c r="B19" s="88"/>
-      <c r="C19" s="101" t="s">
+      <c r="A19" s="136"/>
+      <c r="B19" s="130"/>
+      <c r="C19" s="60" t="s">
         <v>8</v>
       </c>
       <c r="D19" s="14"/>
@@ -10399,14 +10375,14 @@
       <c r="K19" s="15"/>
       <c r="L19" s="15"/>
       <c r="M19" s="16">
-        <f>SUM(D19:L19)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="79"/>
-      <c r="B20" s="88"/>
-      <c r="C20" s="103" t="s">
+      <c r="A20" s="136"/>
+      <c r="B20" s="130"/>
+      <c r="C20" s="61" t="s">
         <v>9</v>
       </c>
       <c r="D20" s="18"/>
@@ -10419,61 +10395,61 @@
       <c r="K20" s="19"/>
       <c r="L20" s="19"/>
       <c r="M20" s="20">
-        <f>SUM(D20:L20)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="79"/>
-      <c r="B21" s="108"/>
-      <c r="C21" s="109" t="s">
+      <c r="A21" s="136"/>
+      <c r="B21" s="162"/>
+      <c r="C21" s="64" t="s">
         <v>37</v>
       </c>
       <c r="D21" s="22">
-        <f t="shared" ref="D21:L21" si="4">SUM(D22:D24)</f>
+        <f t="shared" ref="D21:L21" si="5">SUM(D22:D24)</f>
         <v>0</v>
       </c>
       <c r="E21" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F21" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G21" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H21" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I21" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J21" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K21" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L21" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M21" s="12">
-        <f>SUM(D21:L21)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="79"/>
-      <c r="B22" s="108"/>
-      <c r="C22" s="101" t="s">
+      <c r="A22" s="136"/>
+      <c r="B22" s="162"/>
+      <c r="C22" s="60" t="s">
         <v>7</v>
       </c>
       <c r="D22" s="14"/>
@@ -10486,14 +10462,14 @@
       <c r="K22" s="15"/>
       <c r="L22" s="15"/>
       <c r="M22" s="16">
-        <f>SUM(D22:L22)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="79"/>
-      <c r="B23" s="108"/>
-      <c r="C23" s="101" t="s">
+      <c r="A23" s="136"/>
+      <c r="B23" s="162"/>
+      <c r="C23" s="60" t="s">
         <v>8</v>
       </c>
       <c r="D23" s="14"/>
@@ -10506,14 +10482,14 @@
       <c r="K23" s="15"/>
       <c r="L23" s="15"/>
       <c r="M23" s="16">
-        <f>SUM(D23:L23)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="80"/>
-      <c r="B24" s="110"/>
-      <c r="C24" s="103" t="s">
+      <c r="A24" s="137"/>
+      <c r="B24" s="163"/>
+      <c r="C24" s="61" t="s">
         <v>9</v>
       </c>
       <c r="D24" s="18"/>
@@ -10526,54 +10502,54 @@
       <c r="K24" s="19"/>
       <c r="L24" s="19"/>
       <c r="M24" s="20">
-        <f>SUM(D24:L24)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B25" s="111" t="s">
+      <c r="B25" s="154" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="111"/>
+      <c r="C25" s="154"/>
       <c r="D25" s="47">
-        <f t="shared" ref="D25:M28" si="5">SUM(D5,D9,D13,D17,D21)</f>
+        <f t="shared" ref="D25:M28" si="6">SUM(D5,D9,D13,D17,D21)</f>
         <v>0</v>
       </c>
       <c r="E25" s="47">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F25" s="47">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G25" s="47">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H25" s="47">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="I25" s="47">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>2</v>
       </c>
       <c r="J25" s="47">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K25" s="47">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L25" s="47">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M25" s="12">
-        <f>SUM(D25:L25)</f>
-        <v>6</v>
+        <f t="shared" si="1"/>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -10581,44 +10557,44 @@
         <v>7</v>
       </c>
       <c r="D26" s="42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E26" s="42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F26" s="42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G26" s="42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H26" s="42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="I26" s="42">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>2</v>
       </c>
       <c r="J26" s="42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K26" s="42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L26" s="42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M26" s="43">
-        <f t="shared" si="5"/>
-        <v>6</v>
+        <f t="shared" si="6"/>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -10626,43 +10602,43 @@
         <v>8</v>
       </c>
       <c r="D27" s="42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E27" s="42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F27" s="42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G27" s="42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H27" s="42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I27" s="42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J27" s="42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K27" s="42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L27" s="42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M27" s="43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -10671,54 +10647,54 @@
         <v>9</v>
       </c>
       <c r="D28" s="44">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E28" s="44">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F28" s="44">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G28" s="44">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H28" s="44">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I28" s="44">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J28" s="44">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K28" s="44">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L28" s="44">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M28" s="45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="67" t="s">
+      <c r="A30" s="109" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="136" t="s">
+      <c r="B30" s="155" t="s">
         <v>7</v>
       </c>
-      <c r="C30" s="137"/>
+      <c r="C30" s="156"/>
       <c r="D30" s="32">
         <f xml:space="preserve"> D26</f>
         <v>0</v>
@@ -10741,27 +10717,27 @@
       </c>
       <c r="I30" s="33">
         <f xml:space="preserve"> AVERAGE($D$18:I26)</f>
-        <v>0.92105263157894735</v>
+        <v>1.131578947368421</v>
       </c>
       <c r="J30" s="33">
         <f xml:space="preserve"> AVERAGE($D$18:J26)</f>
-        <v>0.79545454545454541</v>
+        <v>0.97727272727272729</v>
       </c>
       <c r="K30" s="33">
         <f xml:space="preserve"> AVERAGE($D$18:K26)</f>
-        <v>0.7</v>
+        <v>0.86</v>
       </c>
       <c r="L30" s="37">
         <f xml:space="preserve"> AVERAGE($D$18:L26)</f>
-        <v>0.625</v>
+        <v>0.7678571428571429</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="68"/>
-      <c r="B31" s="138" t="s">
+      <c r="A31" s="110"/>
+      <c r="B31" s="157" t="s">
         <v>8</v>
       </c>
-      <c r="C31" s="73"/>
+      <c r="C31" s="144"/>
       <c r="D31" s="38">
         <f xml:space="preserve"> D27</f>
         <v>0</v>
@@ -10800,11 +10776,11 @@
       </c>
     </row>
     <row r="32" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="68"/>
-      <c r="B32" s="139" t="s">
+      <c r="A32" s="110"/>
+      <c r="B32" s="158" t="s">
         <v>9</v>
       </c>
-      <c r="C32" s="75"/>
+      <c r="C32" s="146"/>
       <c r="D32" s="34">
         <f xml:space="preserve"> D28</f>
         <v>0</v>
@@ -10843,11 +10819,11 @@
       </c>
     </row>
     <row r="33" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="69"/>
-      <c r="B33" s="65" t="s">
+      <c r="A33" s="111"/>
+      <c r="B33" s="149" t="s">
         <v>25</v>
       </c>
-      <c r="C33" s="66"/>
+      <c r="C33" s="150"/>
       <c r="D33" s="35">
         <f xml:space="preserve"> D25</f>
         <v>0</v>
@@ -10870,19 +10846,19 @@
       </c>
       <c r="I33" s="36">
         <f xml:space="preserve"> AVERAGE($D$25:I25)</f>
-        <v>1</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="J33" s="36">
         <f xml:space="preserve"> AVERAGE($D$25:J25)</f>
-        <v>0.8571428571428571</v>
+        <v>1.1428571428571428</v>
       </c>
       <c r="K33" s="36">
         <f xml:space="preserve"> AVERAGE($D$25:K25)</f>
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="L33" s="41">
         <f xml:space="preserve"> AVERAGE($D$25:L25)</f>
-        <v>0.66666666666666663</v>
+        <v>0.88888888888888884</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -10900,16 +10876,16 @@
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="81" t="s">
+      <c r="A36" s="138" t="s">
         <v>24</v>
       </c>
-      <c r="B36" s="70" t="s">
+      <c r="B36" s="141" t="s">
         <v>7</v>
       </c>
-      <c r="C36" s="71"/>
+      <c r="C36" s="142"/>
       <c r="D36" s="26">
         <f xml:space="preserve"> SUM(D26:I26)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E36" s="26">
         <f xml:space="preserve"> SUM(J26:L26)</f>
@@ -10917,15 +10893,15 @@
       </c>
       <c r="F36" s="27">
         <f xml:space="preserve"> SUM(D36:E36)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="82"/>
-      <c r="B37" s="72" t="s">
+      <c r="A37" s="139"/>
+      <c r="B37" s="143" t="s">
         <v>8</v>
       </c>
-      <c r="C37" s="73"/>
+      <c r="C37" s="144"/>
       <c r="D37" s="26">
         <f xml:space="preserve"> SUM(D27:I27)</f>
         <v>0</v>
@@ -10940,11 +10916,11 @@
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="82"/>
-      <c r="B38" s="74" t="s">
+      <c r="A38" s="139"/>
+      <c r="B38" s="145" t="s">
         <v>9</v>
       </c>
-      <c r="C38" s="75"/>
+      <c r="C38" s="146"/>
       <c r="D38" s="26">
         <f xml:space="preserve"> SUM(D28:I28)</f>
         <v>0</v>
@@ -10959,14 +10935,14 @@
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="83"/>
-      <c r="B39" s="84" t="s">
+      <c r="A39" s="140"/>
+      <c r="B39" s="147" t="s">
         <v>25</v>
       </c>
-      <c r="C39" s="85"/>
+      <c r="C39" s="148"/>
       <c r="D39" s="26">
         <f xml:space="preserve"> SUM(D25:I25)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E39" s="26">
         <f xml:space="preserve"> SUM(J25:L25)</f>
@@ -10974,32 +10950,32 @@
       </c>
       <c r="F39" s="27">
         <f xml:space="preserve"> SUM(D39:E39)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="56" t="s">
+      <c r="A41" s="151" t="s">
         <v>26</v>
       </c>
-      <c r="B41" s="70" t="s">
+      <c r="B41" s="141" t="s">
         <v>7</v>
       </c>
-      <c r="C41" s="71"/>
+      <c r="C41" s="142"/>
       <c r="D41" s="31">
         <f xml:space="preserve"> D36</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E41" s="31">
         <f xml:space="preserve"> AVERAGE(D36:E36)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="56"/>
-      <c r="B42" s="72" t="s">
+      <c r="A42" s="151"/>
+      <c r="B42" s="143" t="s">
         <v>8</v>
       </c>
-      <c r="C42" s="73"/>
+      <c r="C42" s="144"/>
       <c r="D42" s="31">
         <f xml:space="preserve"> D37</f>
         <v>0</v>
@@ -11010,11 +10986,11 @@
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="56"/>
-      <c r="B43" s="74" t="s">
+      <c r="A43" s="151"/>
+      <c r="B43" s="145" t="s">
         <v>9</v>
       </c>
-      <c r="C43" s="75"/>
+      <c r="C43" s="146"/>
       <c r="D43" s="31">
         <f xml:space="preserve"> D38</f>
         <v>0</v>
@@ -11025,22 +11001,32 @@
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="56"/>
-      <c r="B44" s="76" t="s">
+      <c r="A44" s="151"/>
+      <c r="B44" s="152" t="s">
         <v>25</v>
       </c>
-      <c r="C44" s="77"/>
+      <c r="C44" s="153"/>
       <c r="D44" s="31">
         <f xml:space="preserve"> D39</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E44" s="31">
         <f xml:space="preserve"> AVERAGE(D39:E39)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="A5:A16"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="B9:B16"/>
+    <mergeCell ref="A17:A24"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="B31:C31"/>
@@ -11050,21 +11036,11 @@
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="A5:A16"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="B33:C33"/>
     <mergeCell ref="A36:A39"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="B37:C37"/>
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="B9:B16"/>
-    <mergeCell ref="A17:A24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/documents/Effort and Velocity.xlsx
+++ b/documents/Effort and Velocity.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="295" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="295"/>
   </bookViews>
   <sheets>
     <sheet name="Product" sheetId="1" r:id="rId1"/>
@@ -1036,6 +1036,63 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1057,78 +1114,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1149,6 +1134,21 @@
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1335,28 +1335,28 @@
                   <c:v>1.2115384615384615</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.125</c:v>
+                  <c:v>1.4107142857142858</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.05</c:v>
+                  <c:v>1.3166666666666667</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.984375</c:v>
+                  <c:v>1.234375</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.2794117647058822</c:v>
+                  <c:v>1.75</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.3194444444444444</c:v>
+                  <c:v>2.6527777777777777</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.25</c:v>
+                  <c:v>2.513157894736842</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.1875</c:v>
+                  <c:v>2.3875000000000002</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.1309523809523809</c:v>
+                  <c:v>2.2738095238095237</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1490,7 +1490,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0</c:v>
@@ -1499,10 +1499,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0</c:v>
@@ -1528,11 +1528,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="36816768"/>
-        <c:axId val="36818304"/>
+        <c:axId val="75844992"/>
+        <c:axId val="85931136"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="36816768"/>
+        <c:axId val="75844992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1542,14 +1542,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="36818304"/>
+        <c:crossAx val="85931136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="36818304"/>
+        <c:axId val="85931136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1560,7 +1560,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="36816768"/>
+        <c:crossAx val="75844992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1612,6 +1612,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1832,11 +1833,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="37504896"/>
-        <c:axId val="37506432"/>
+        <c:axId val="85999616"/>
+        <c:axId val="86001152"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="37504896"/>
+        <c:axId val="85999616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1846,14 +1847,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="37506432"/>
+        <c:crossAx val="86001152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="37506432"/>
+        <c:axId val="86001152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1864,13 +1865,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="37504896"/>
+        <c:crossAx val="85999616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1915,6 +1917,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2135,11 +2138,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="41353600"/>
-        <c:axId val="41355136"/>
+        <c:axId val="86010112"/>
+        <c:axId val="86020096"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="41353600"/>
+        <c:axId val="86010112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2149,14 +2152,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="41355136"/>
+        <c:crossAx val="86020096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="41355136"/>
+        <c:axId val="86020096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2167,13 +2170,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="41353600"/>
+        <c:crossAx val="86010112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2218,6 +2222,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2441,11 +2446,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="41376384"/>
-        <c:axId val="41378176"/>
+        <c:axId val="86053632"/>
+        <c:axId val="86055168"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="41376384"/>
+        <c:axId val="86053632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2455,14 +2460,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="41378176"/>
+        <c:crossAx val="86055168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="41378176"/>
+        <c:axId val="86055168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2473,13 +2478,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="41376384"/>
+        <c:crossAx val="86053632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2524,6 +2530,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2587,28 +2594,28 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1.3333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.2</c:v>
+                  <c:v>2.8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.3333333333333333</c:v>
+                  <c:v>5.333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.1428571428571428</c:v>
+                  <c:v>4.5714285714285712</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.88888888888888884</c:v>
+                  <c:v>3.5555555555555554</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2670,7 +2677,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -2679,10 +2686,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -2708,11 +2715,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="41428480"/>
-        <c:axId val="41430016"/>
+        <c:axId val="86101376"/>
+        <c:axId val="86107264"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="41428480"/>
+        <c:axId val="86101376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2722,14 +2729,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="41430016"/>
+        <c:crossAx val="86107264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="41430016"/>
+        <c:axId val="86107264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2740,13 +2747,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="41428480"/>
+        <c:crossAx val="86101376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2791,6 +2799,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2854,28 +2863,28 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.66666666666666663</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.44444444444444442</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.33333333333333331</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.09375</c:v>
+                  <c:v>1.59375</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.131578947368421</c:v>
+                  <c:v>2.5952380952380953</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.97727272727272729</c:v>
+                  <c:v>2.2708333333333335</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.86</c:v>
+                  <c:v>2.0185185185185186</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.7678571428571429</c:v>
+                  <c:v>1.8166666666666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2949,7 +2958,7 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -2975,11 +2984,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="41467904"/>
-        <c:axId val="41469440"/>
+        <c:axId val="86345600"/>
+        <c:axId val="86347136"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="41467904"/>
+        <c:axId val="86345600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2989,14 +2998,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="41469440"/>
+        <c:crossAx val="86347136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="41469440"/>
+        <c:axId val="86347136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3007,13 +3016,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="41467904"/>
+        <c:crossAx val="86345600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3058,6 +3068,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3121,28 +3132,28 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1.3333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1.6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>3.8333333333333335</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>3.2857142857142856</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>2.875</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>2.5555555555555554</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3204,7 +3215,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -3213,10 +3224,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -3242,11 +3253,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="41818368"/>
-        <c:axId val="41828352"/>
+        <c:axId val="88621440"/>
+        <c:axId val="88622976"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="41818368"/>
+        <c:axId val="88621440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3256,14 +3267,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="41828352"/>
+        <c:crossAx val="88622976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="41828352"/>
+        <c:axId val="88622976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3274,13 +3285,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="41818368"/>
+        <c:crossAx val="88621440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3325,6 +3337,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3509,11 +3522,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="41861888"/>
-        <c:axId val="41863424"/>
+        <c:axId val="88660608"/>
+        <c:axId val="88662400"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="41861888"/>
+        <c:axId val="88660608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3523,14 +3536,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="41863424"/>
+        <c:crossAx val="88662400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="41863424"/>
+        <c:axId val="88662400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3541,13 +3554,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="41861888"/>
+        <c:crossAx val="88660608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3597,6 +3611,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3744,16 +3759,16 @@
                   <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.81944444444444442</c:v>
+                  <c:v>0.875</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.77631578947368418</c:v>
+                  <c:v>0.82894736842105265</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.73750000000000004</c:v>
+                  <c:v>0.78749999999999998</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.70238095238095233</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3899,7 +3914,7 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0</c:v>
@@ -3925,11 +3940,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="37126528"/>
-        <c:axId val="37128064"/>
+        <c:axId val="69957888"/>
+        <c:axId val="69959680"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="37126528"/>
+        <c:axId val="69957888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3939,14 +3954,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="37128064"/>
+        <c:crossAx val="69959680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="37128064"/>
+        <c:axId val="69959680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3957,13 +3972,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="37126528"/>
+        <c:crossAx val="69957888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4013,6 +4029,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4148,28 +4165,28 @@
                   <c:v>0.53846153846153844</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.5</c:v>
+                  <c:v>0.7857142857142857</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.46666666666666667</c:v>
+                  <c:v>0.73333333333333328</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.4375</c:v>
+                  <c:v>0.6875</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.41176470588235292</c:v>
+                  <c:v>0.88235294117647056</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.3888888888888889</c:v>
+                  <c:v>1.6666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.36842105263157893</c:v>
+                  <c:v>1.5789473684210527</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.35</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.33333333333333331</c:v>
+                  <c:v>1.4285714285714286</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4303,7 +4320,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0</c:v>
@@ -4312,10 +4329,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0</c:v>
@@ -4341,11 +4358,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="37157120"/>
-        <c:axId val="37158912"/>
+        <c:axId val="85721856"/>
+        <c:axId val="85723392"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="37157120"/>
+        <c:axId val="85721856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4355,14 +4372,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="37158912"/>
+        <c:crossAx val="85723392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="37158912"/>
+        <c:axId val="85723392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4373,13 +4390,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="37157120"/>
+        <c:crossAx val="85721856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4429,6 +4447,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4757,11 +4776,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="37184256"/>
-        <c:axId val="37185792"/>
+        <c:axId val="85736448"/>
+        <c:axId val="85742336"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="37184256"/>
+        <c:axId val="85736448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4771,14 +4790,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="37185792"/>
+        <c:crossAx val="85742336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="37185792"/>
+        <c:axId val="85742336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4789,13 +4808,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="37184256"/>
+        <c:crossAx val="85736448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4897,10 +4917,10 @@
                   <c:v>7.875</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.25</c:v>
+                  <c:v>9.9166666666666661</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.9375</c:v>
+                  <c:v>11.9375</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4950,10 +4970,10 @@
                   <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4970,11 +4990,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="37221888"/>
-        <c:axId val="37223424"/>
+        <c:axId val="85753856"/>
+        <c:axId val="85755392"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="37221888"/>
+        <c:axId val="85753856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4984,7 +5004,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="37223424"/>
+        <c:crossAx val="85755392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4992,7 +5012,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="37223424"/>
+        <c:axId val="85755392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5003,7 +5023,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="37221888"/>
+        <c:crossAx val="85753856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5060,6 +5080,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5114,7 +5135,7 @@
                   <c:v>4.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.6875</c:v>
+                  <c:v>3.9375</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5167,7 +5188,7 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5184,11 +5205,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="37318656"/>
-        <c:axId val="37320192"/>
+        <c:axId val="85772928"/>
+        <c:axId val="85778816"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="37318656"/>
+        <c:axId val="85772928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5198,7 +5219,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="37320192"/>
+        <c:crossAx val="85778816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5206,7 +5227,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="37320192"/>
+        <c:axId val="85778816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5217,13 +5238,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="37318656"/>
+        <c:crossAx val="85772928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5273,6 +5295,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5324,10 +5347,10 @@
                   <c:v>3.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.3333333333333335</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.75</c:v>
+                  <c:v>7.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5377,10 +5400,10 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5397,11 +5420,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="37357824"/>
-        <c:axId val="37359616"/>
+        <c:axId val="85857408"/>
+        <c:axId val="85858944"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="37357824"/>
+        <c:axId val="85857408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5411,7 +5434,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="37359616"/>
+        <c:crossAx val="85858944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5419,7 +5442,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="37359616"/>
+        <c:axId val="85858944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5430,13 +5453,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="37357824"/>
+        <c:crossAx val="85857408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5486,6 +5510,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5610,11 +5635,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="37393152"/>
-        <c:axId val="37394688"/>
+        <c:axId val="85876096"/>
+        <c:axId val="85894272"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="37393152"/>
+        <c:axId val="85876096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5624,7 +5649,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="37394688"/>
+        <c:crossAx val="85894272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5632,7 +5657,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="37394688"/>
+        <c:axId val="85894272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5643,13 +5668,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="37393152"/>
+        <c:crossAx val="85876096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5694,6 +5720,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5914,11 +5941,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="37461376"/>
-        <c:axId val="37483648"/>
+        <c:axId val="85960576"/>
+        <c:axId val="85962112"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="37461376"/>
+        <c:axId val="85960576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5928,14 +5955,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="37483648"/>
+        <c:crossAx val="85962112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="37483648"/>
+        <c:axId val="85962112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5946,13 +5973,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="37461376"/>
+        <c:crossAx val="85960576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -6779,8 +6807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:X36"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7041,7 +7069,7 @@
       </c>
       <c r="U6" s="79">
         <f>'Sp2'!I26</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V6" s="79">
         <f>'Sp2'!J26</f>
@@ -7103,7 +7131,7 @@
       </c>
       <c r="Q7" s="63">
         <f>'Sp2'!E27</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R7" s="63">
         <f>'Sp2'!F27</f>
@@ -7115,11 +7143,11 @@
       </c>
       <c r="T7" s="63">
         <f>'Sp2'!H27</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U7" s="63">
         <f>'Sp2'!I27</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="V7" s="63">
         <f>'Sp2'!J27</f>
@@ -7259,7 +7287,7 @@
       </c>
       <c r="Q9" s="82">
         <f>'Sp2'!E25</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R9" s="82">
         <f>'Sp2'!F25</f>
@@ -7271,11 +7299,11 @@
       </c>
       <c r="T9" s="82">
         <f>'Sp2'!H25</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="U9" s="82">
         <f>'Sp2'!I25</f>
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="V9" s="82">
         <f>'Sp2'!J25</f>
@@ -7390,19 +7418,19 @@
       </c>
       <c r="U11" s="33">
         <f>AVERAGE($D$6:U6)</f>
-        <v>0.81944444444444442</v>
+        <v>0.875</v>
       </c>
       <c r="V11" s="33">
         <f>AVERAGE($D$6:V6)</f>
-        <v>0.77631578947368418</v>
+        <v>0.82894736842105265</v>
       </c>
       <c r="W11" s="33">
         <f>AVERAGE($D$6:W6)</f>
-        <v>0.73750000000000004</v>
+        <v>0.78749999999999998</v>
       </c>
       <c r="X11" s="37">
         <f>AVERAGE($D$6:X6)</f>
-        <v>0.70238095238095233</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="12" spans="2:24" x14ac:dyDescent="0.25">
@@ -7463,35 +7491,35 @@
       </c>
       <c r="Q12" s="38">
         <f>AVERAGE($D$7:Q7)</f>
-        <v>0.5</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="R12" s="38">
         <f>AVERAGE($D$7:R7)</f>
-        <v>0.46666666666666667</v>
+        <v>0.73333333333333328</v>
       </c>
       <c r="S12" s="38">
         <f>AVERAGE($D$7:S7)</f>
-        <v>0.4375</v>
+        <v>0.6875</v>
       </c>
       <c r="T12" s="38">
         <f>AVERAGE($D$7:T7)</f>
-        <v>0.41176470588235292</v>
+        <v>0.88235294117647056</v>
       </c>
       <c r="U12" s="38">
         <f>AVERAGE($D$7:U7)</f>
-        <v>0.3888888888888889</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="V12" s="38">
         <f>AVERAGE($D$7:V7)</f>
-        <v>0.36842105263157893</v>
+        <v>1.5789473684210527</v>
       </c>
       <c r="W12" s="38">
         <f>AVERAGE($D$7:W7)</f>
-        <v>0.35</v>
+        <v>1.5</v>
       </c>
       <c r="X12" s="39">
         <f>AVERAGE($D$7:X7)</f>
-        <v>0.33333333333333331</v>
+        <v>1.4285714285714286</v>
       </c>
     </row>
     <row r="13" spans="2:24" x14ac:dyDescent="0.25">
@@ -7641,35 +7669,35 @@
       </c>
       <c r="Q14" s="89">
         <f>AVERAGE($D$9:Q9)</f>
-        <v>1.125</v>
+        <v>1.4107142857142858</v>
       </c>
       <c r="R14" s="89">
         <f>AVERAGE($D$9:R9)</f>
-        <v>1.05</v>
+        <v>1.3166666666666667</v>
       </c>
       <c r="S14" s="89">
         <f>AVERAGE($D$9:S9)</f>
-        <v>0.984375</v>
+        <v>1.234375</v>
       </c>
       <c r="T14" s="89">
         <f>AVERAGE($D$9:T9)</f>
-        <v>1.2794117647058822</v>
+        <v>1.75</v>
       </c>
       <c r="U14" s="89">
         <f>AVERAGE($D$9:U9)</f>
-        <v>1.3194444444444444</v>
+        <v>2.6527777777777777</v>
       </c>
       <c r="V14" s="89">
         <f>AVERAGE($D$9:V9)</f>
-        <v>1.25</v>
+        <v>2.513157894736842</v>
       </c>
       <c r="W14" s="89">
         <f>AVERAGE($D$9:W9)</f>
-        <v>1.1875</v>
+        <v>2.3875000000000002</v>
       </c>
       <c r="X14" s="90">
         <f>AVERAGE($D$9:X9)</f>
-        <v>1.1309523809523809</v>
+        <v>2.2738095238095237</v>
       </c>
     </row>
     <row r="15" spans="2:24" x14ac:dyDescent="0.25">
@@ -7773,19 +7801,19 @@
       </c>
       <c r="U16" s="85">
         <f t="shared" ref="U16:U19" si="5">T16+U6</f>
-        <v>14.75</v>
+        <v>15.75</v>
       </c>
       <c r="V16" s="85">
         <f t="shared" ref="V16:V19" si="6">U16+V6</f>
-        <v>14.75</v>
+        <v>15.75</v>
       </c>
       <c r="W16" s="85">
         <f t="shared" ref="W16:W19" si="7">V16+W6</f>
-        <v>14.75</v>
+        <v>15.75</v>
       </c>
       <c r="X16" s="85">
         <f t="shared" ref="X16:X19" si="8">W16+X6</f>
-        <v>14.75</v>
+        <v>15.75</v>
       </c>
     </row>
     <row r="17" spans="2:24" x14ac:dyDescent="0.25">
@@ -7847,35 +7875,35 @@
       </c>
       <c r="Q17" s="68">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="R17" s="68">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="S17" s="68">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="T17" s="68">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="U17" s="68">
         <f t="shared" si="5"/>
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="V17" s="68">
         <f t="shared" si="6"/>
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="W17" s="68">
         <f t="shared" si="7"/>
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="X17" s="68">
         <f t="shared" si="8"/>
-        <v>7</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="2:24" x14ac:dyDescent="0.25">
@@ -8027,35 +8055,35 @@
       </c>
       <c r="Q19" s="74">
         <f t="shared" si="1"/>
-        <v>15.75</v>
+        <v>19.75</v>
       </c>
       <c r="R19" s="74">
         <f t="shared" si="2"/>
-        <v>15.75</v>
+        <v>19.75</v>
       </c>
       <c r="S19" s="74">
         <f t="shared" si="3"/>
-        <v>15.75</v>
+        <v>19.75</v>
       </c>
       <c r="T19" s="74">
         <f t="shared" si="4"/>
-        <v>21.75</v>
+        <v>29.75</v>
       </c>
       <c r="U19" s="74">
         <f t="shared" si="5"/>
-        <v>23.75</v>
+        <v>47.75</v>
       </c>
       <c r="V19" s="74">
         <f t="shared" si="6"/>
-        <v>23.75</v>
+        <v>47.75</v>
       </c>
       <c r="W19" s="74">
         <f t="shared" si="7"/>
-        <v>23.75</v>
+        <v>47.75</v>
       </c>
       <c r="X19" s="74">
         <f t="shared" si="8"/>
-        <v>23.75</v>
+        <v>47.75</v>
       </c>
     </row>
     <row r="21" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
@@ -8111,7 +8139,7 @@
       </c>
       <c r="G23" s="95">
         <f xml:space="preserve"> SUM(U6:X6)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="2:24" x14ac:dyDescent="0.25">
@@ -8129,11 +8157,11 @@
       </c>
       <c r="F24" s="104">
         <f t="shared" ref="F24:F26" si="13" xml:space="preserve"> SUM(P7:T7)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G24" s="97">
         <f t="shared" ref="G24:G26" si="14" xml:space="preserve"> SUM(U7:X7)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="2:24" x14ac:dyDescent="0.25">
@@ -8173,11 +8201,11 @@
       </c>
       <c r="F26" s="105">
         <f t="shared" si="13"/>
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G26" s="99">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="2:24" x14ac:dyDescent="0.25">
@@ -8205,7 +8233,7 @@
       </c>
       <c r="G28" s="95">
         <f xml:space="preserve"> AVERAGE($D$23:G23)</f>
-        <v>3.6875</v>
+        <v>3.9375</v>
       </c>
     </row>
     <row r="29" spans="2:24" x14ac:dyDescent="0.25">
@@ -8223,11 +8251,11 @@
       </c>
       <c r="F29" s="96">
         <f xml:space="preserve"> AVERAGE($D$24:F24)</f>
-        <v>2.3333333333333335</v>
+        <v>5</v>
       </c>
       <c r="G29" s="97">
         <f xml:space="preserve"> AVERAGE($D$24:G24)</f>
-        <v>1.75</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="30" spans="2:24" x14ac:dyDescent="0.25">
@@ -8267,11 +8295,11 @@
       </c>
       <c r="F31" s="98">
         <f xml:space="preserve"> AVERAGE($D$26:F26)</f>
-        <v>7.25</v>
+        <v>9.9166666666666661</v>
       </c>
       <c r="G31" s="99">
         <f xml:space="preserve"> AVERAGE($D$26:G26)</f>
-        <v>5.9375</v>
+        <v>11.9375</v>
       </c>
     </row>
     <row r="32" spans="2:24" x14ac:dyDescent="0.25">
@@ -8299,7 +8327,7 @@
       </c>
       <c r="G33" s="95">
         <f t="shared" si="16"/>
-        <v>14.75</v>
+        <v>15.75</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
@@ -8317,11 +8345,11 @@
       </c>
       <c r="F34" s="96">
         <f t="shared" si="16"/>
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="G34" s="97">
         <f t="shared" si="16"/>
-        <v>7</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
@@ -8361,11 +8389,11 @@
       </c>
       <c r="F36" s="98">
         <f t="shared" si="16"/>
-        <v>21.75</v>
+        <v>29.75</v>
       </c>
       <c r="G36" s="99">
         <f t="shared" si="16"/>
-        <v>23.75</v>
+        <v>47.75</v>
       </c>
     </row>
   </sheetData>
@@ -8400,7 +8428,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P44"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
@@ -8426,7 +8454,7 @@
       <c r="L1" s="113"/>
       <c r="M1" s="113"/>
       <c r="N1" s="113"/>
-      <c r="O1" s="128"/>
+      <c r="O1" s="147"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C2" s="6" t="s">
@@ -8534,10 +8562,10 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="135" t="s">
+      <c r="A5" s="137" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="129">
+      <c r="B5" s="148">
         <v>2</v>
       </c>
       <c r="C5" s="10" t="s">
@@ -8597,8 +8625,8 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="136"/>
-      <c r="B6" s="130"/>
+      <c r="A6" s="138"/>
+      <c r="B6" s="149"/>
       <c r="C6" s="13" t="s">
         <v>7</v>
       </c>
@@ -8622,8 +8650,8 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="136"/>
-      <c r="B7" s="130"/>
+      <c r="A7" s="138"/>
+      <c r="B7" s="149"/>
       <c r="C7" s="13" t="s">
         <v>8</v>
       </c>
@@ -8647,8 +8675,8 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="136"/>
-      <c r="B8" s="130"/>
+      <c r="A8" s="138"/>
+      <c r="B8" s="149"/>
       <c r="C8" s="17" t="s">
         <v>9</v>
       </c>
@@ -8672,8 +8700,8 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="136"/>
-      <c r="B9" s="130"/>
+      <c r="A9" s="138"/>
+      <c r="B9" s="149"/>
       <c r="C9" s="21" t="s">
         <v>16</v>
       </c>
@@ -8731,8 +8759,8 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="136"/>
-      <c r="B10" s="130"/>
+      <c r="A10" s="138"/>
+      <c r="B10" s="149"/>
       <c r="C10" s="13" t="s">
         <v>7</v>
       </c>
@@ -8754,8 +8782,8 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="136"/>
-      <c r="B11" s="130"/>
+      <c r="A11" s="138"/>
+      <c r="B11" s="149"/>
       <c r="C11" s="13" t="s">
         <v>8</v>
       </c>
@@ -8777,8 +8805,8 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="136"/>
-      <c r="B12" s="130"/>
+      <c r="A12" s="138"/>
+      <c r="B12" s="149"/>
       <c r="C12" s="17" t="s">
         <v>9</v>
       </c>
@@ -8800,8 +8828,8 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="136"/>
-      <c r="B13" s="130"/>
+      <c r="A13" s="138"/>
+      <c r="B13" s="149"/>
       <c r="C13" s="21" t="s">
         <v>17</v>
       </c>
@@ -8859,8 +8887,8 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="136"/>
-      <c r="B14" s="130"/>
+      <c r="A14" s="138"/>
+      <c r="B14" s="149"/>
       <c r="C14" s="13" t="s">
         <v>7</v>
       </c>
@@ -8882,8 +8910,8 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="136"/>
-      <c r="B15" s="130"/>
+      <c r="A15" s="138"/>
+      <c r="B15" s="149"/>
       <c r="C15" s="13" t="s">
         <v>8</v>
       </c>
@@ -8905,8 +8933,8 @@
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="136"/>
-      <c r="B16" s="131"/>
+      <c r="A16" s="138"/>
+      <c r="B16" s="150"/>
       <c r="C16" s="17" t="s">
         <v>9</v>
       </c>
@@ -8932,8 +8960,8 @@
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="136"/>
-      <c r="B17" s="129">
+      <c r="A17" s="138"/>
+      <c r="B17" s="148">
         <v>3</v>
       </c>
       <c r="C17" s="21" t="s">
@@ -8993,8 +9021,8 @@
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="136"/>
-      <c r="B18" s="130"/>
+      <c r="A18" s="138"/>
+      <c r="B18" s="149"/>
       <c r="C18" s="13" t="s">
         <v>7</v>
       </c>
@@ -9020,8 +9048,8 @@
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="136"/>
-      <c r="B19" s="130"/>
+      <c r="A19" s="138"/>
+      <c r="B19" s="149"/>
       <c r="C19" s="13" t="s">
         <v>8</v>
       </c>
@@ -9043,8 +9071,8 @@
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="136"/>
-      <c r="B20" s="131"/>
+      <c r="A20" s="138"/>
+      <c r="B20" s="150"/>
       <c r="C20" s="17" t="s">
         <v>9</v>
       </c>
@@ -9066,8 +9094,8 @@
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="136"/>
-      <c r="B21" s="132"/>
+      <c r="A21" s="138"/>
+      <c r="B21" s="151"/>
       <c r="C21" s="21" t="s">
         <v>19</v>
       </c>
@@ -9125,8 +9153,8 @@
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="136"/>
-      <c r="B22" s="133"/>
+      <c r="A22" s="138"/>
+      <c r="B22" s="152"/>
       <c r="C22" s="13" t="s">
         <v>7</v>
       </c>
@@ -9148,8 +9176,8 @@
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="136"/>
-      <c r="B23" s="133"/>
+      <c r="A23" s="138"/>
+      <c r="B23" s="152"/>
       <c r="C23" s="13" t="s">
         <v>8</v>
       </c>
@@ -9173,8 +9201,8 @@
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="137"/>
-      <c r="B24" s="134"/>
+      <c r="A24" s="139"/>
+      <c r="B24" s="153"/>
       <c r="C24" s="17" t="s">
         <v>9</v>
       </c>
@@ -9592,10 +9620,10 @@
     </row>
     <row r="33" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A33" s="111"/>
-      <c r="B33" s="149" t="s">
+      <c r="B33" s="145" t="s">
         <v>25</v>
       </c>
-      <c r="C33" s="150"/>
+      <c r="C33" s="146"/>
       <c r="D33" s="35">
         <f xml:space="preserve"> D25</f>
         <v>0.75</v>
@@ -9660,13 +9688,13 @@
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" s="138" t="s">
+      <c r="A36" s="140" t="s">
         <v>24</v>
       </c>
-      <c r="B36" s="141" t="s">
+      <c r="B36" s="129" t="s">
         <v>7</v>
       </c>
-      <c r="C36" s="142"/>
+      <c r="C36" s="130"/>
       <c r="D36" s="26">
         <f xml:space="preserve"> SUM(D26:I26)</f>
         <v>2.75</v>
@@ -9681,11 +9709,11 @@
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" s="139"/>
-      <c r="B37" s="143" t="s">
+      <c r="A37" s="141"/>
+      <c r="B37" s="131" t="s">
         <v>8</v>
       </c>
-      <c r="C37" s="144"/>
+      <c r="C37" s="132"/>
       <c r="D37" s="26">
         <f xml:space="preserve"> SUM(D27:I27)</f>
         <v>0</v>
@@ -9700,11 +9728,11 @@
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A38" s="139"/>
-      <c r="B38" s="145" t="s">
+      <c r="A38" s="141"/>
+      <c r="B38" s="133" t="s">
         <v>9</v>
       </c>
-      <c r="C38" s="146"/>
+      <c r="C38" s="134"/>
       <c r="D38" s="26">
         <f xml:space="preserve"> SUM(D28:I28)</f>
         <v>0</v>
@@ -9719,11 +9747,11 @@
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A39" s="140"/>
-      <c r="B39" s="147" t="s">
+      <c r="A39" s="142"/>
+      <c r="B39" s="143" t="s">
         <v>25</v>
       </c>
-      <c r="C39" s="148"/>
+      <c r="C39" s="144"/>
       <c r="D39" s="26">
         <f xml:space="preserve"> SUM(D25:I25)</f>
         <v>2.75</v>
@@ -9738,13 +9766,13 @@
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A41" s="151" t="s">
+      <c r="A41" s="128" t="s">
         <v>26</v>
       </c>
-      <c r="B41" s="141" t="s">
+      <c r="B41" s="129" t="s">
         <v>7</v>
       </c>
-      <c r="C41" s="142"/>
+      <c r="C41" s="130"/>
       <c r="D41" s="31">
         <f xml:space="preserve"> D36</f>
         <v>2.75</v>
@@ -9755,11 +9783,11 @@
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A42" s="151"/>
-      <c r="B42" s="143" t="s">
+      <c r="A42" s="128"/>
+      <c r="B42" s="131" t="s">
         <v>8</v>
       </c>
-      <c r="C42" s="144"/>
+      <c r="C42" s="132"/>
       <c r="D42" s="31">
         <f xml:space="preserve"> D37</f>
         <v>0</v>
@@ -9770,11 +9798,11 @@
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A43" s="151"/>
-      <c r="B43" s="145" t="s">
+      <c r="A43" s="128"/>
+      <c r="B43" s="133" t="s">
         <v>9</v>
       </c>
-      <c r="C43" s="146"/>
+      <c r="C43" s="134"/>
       <c r="D43" s="31">
         <f xml:space="preserve"> D38</f>
         <v>0</v>
@@ -9785,11 +9813,11 @@
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A44" s="151"/>
-      <c r="B44" s="152" t="s">
+      <c r="A44" s="128"/>
+      <c r="B44" s="135" t="s">
         <v>25</v>
       </c>
-      <c r="C44" s="153"/>
+      <c r="C44" s="136"/>
       <c r="D44" s="31">
         <f xml:space="preserve"> D39</f>
         <v>2.75</v>
@@ -9801,11 +9829,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A41:A44"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D1:I1"/>
+    <mergeCell ref="J1:O1"/>
+    <mergeCell ref="B5:B16"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="B21:B24"/>
     <mergeCell ref="A5:A24"/>
     <mergeCell ref="A36:A39"/>
     <mergeCell ref="B36:C36"/>
@@ -9814,11 +9842,11 @@
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="A30:A33"/>
-    <mergeCell ref="D1:I1"/>
-    <mergeCell ref="J1:O1"/>
-    <mergeCell ref="B5:B16"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="A41:A44"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9830,8 +9858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9956,10 +9984,10 @@
       <c r="P4" s="57"/>
     </row>
     <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="135" t="s">
+      <c r="A5" s="137" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="159">
+      <c r="B5" s="154">
         <v>1</v>
       </c>
       <c r="C5" s="59" t="s">
@@ -9971,7 +9999,7 @@
       </c>
       <c r="E5" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F5" s="11">
         <f t="shared" si="0"/>
@@ -9983,11 +10011,11 @@
       </c>
       <c r="H5" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I5" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J5" s="11">
         <f t="shared" si="0"/>
@@ -10003,12 +10031,12 @@
       </c>
       <c r="M5" s="12">
         <f t="shared" ref="M5:M25" si="1">SUM(D5:L5)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="136"/>
-      <c r="B6" s="160"/>
+      <c r="A6" s="138"/>
+      <c r="B6" s="155"/>
       <c r="C6" s="60" t="s">
         <v>7</v>
       </c>
@@ -10027,28 +10055,34 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="136"/>
-      <c r="B7" s="160"/>
+      <c r="A7" s="138"/>
+      <c r="B7" s="155"/>
       <c r="C7" s="60" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
+      <c r="E7" s="14">
+        <v>4</v>
+      </c>
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
+      <c r="H7" s="15">
+        <v>4</v>
+      </c>
+      <c r="I7" s="15">
+        <v>2</v>
+      </c>
       <c r="J7" s="15"/>
       <c r="K7" s="15"/>
       <c r="L7" s="15"/>
       <c r="M7" s="16">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="136"/>
-      <c r="B8" s="161"/>
+      <c r="A8" s="138"/>
+      <c r="B8" s="156"/>
       <c r="C8" s="61" t="s">
         <v>9</v>
       </c>
@@ -10067,8 +10101,8 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="136"/>
-      <c r="B9" s="164" t="s">
+      <c r="A9" s="138"/>
+      <c r="B9" s="159" t="s">
         <v>32</v>
       </c>
       <c r="C9" s="62" t="s">
@@ -10096,7 +10130,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" si="2"/>
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="J9" s="11">
         <f t="shared" si="2"/>
@@ -10112,12 +10146,12 @@
       </c>
       <c r="M9" s="12">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="136"/>
-      <c r="B10" s="165"/>
+      <c r="A10" s="138"/>
+      <c r="B10" s="160"/>
       <c r="C10" s="60" t="s">
         <v>7</v>
       </c>
@@ -10129,19 +10163,19 @@
         <v>0.5</v>
       </c>
       <c r="I10" s="15">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="J10" s="15"/>
       <c r="K10" s="15"/>
       <c r="L10" s="15"/>
       <c r="M10" s="16">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="136"/>
-      <c r="B11" s="165"/>
+      <c r="A11" s="138"/>
+      <c r="B11" s="160"/>
       <c r="C11" s="60" t="s">
         <v>8</v>
       </c>
@@ -10160,8 +10194,8 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="136"/>
-      <c r="B12" s="165"/>
+      <c r="A12" s="138"/>
+      <c r="B12" s="160"/>
       <c r="C12" s="61" t="s">
         <v>9</v>
       </c>
@@ -10180,8 +10214,8 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="136"/>
-      <c r="B13" s="165"/>
+      <c r="A13" s="138"/>
+      <c r="B13" s="160"/>
       <c r="C13" s="63" t="s">
         <v>34</v>
       </c>
@@ -10207,7 +10241,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" si="3"/>
-        <v>1.5</v>
+        <v>8</v>
       </c>
       <c r="J13" s="11">
         <f t="shared" si="3"/>
@@ -10223,12 +10257,12 @@
       </c>
       <c r="M13" s="12">
         <f t="shared" si="1"/>
-        <v>1.5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="136"/>
-      <c r="B14" s="165"/>
+      <c r="A14" s="138"/>
+      <c r="B14" s="160"/>
       <c r="C14" s="60" t="s">
         <v>7</v>
       </c>
@@ -10249,8 +10283,8 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="136"/>
-      <c r="B15" s="165"/>
+      <c r="A15" s="138"/>
+      <c r="B15" s="160"/>
       <c r="C15" s="60" t="s">
         <v>8</v>
       </c>
@@ -10259,18 +10293,20 @@
       <c r="F15" s="15"/>
       <c r="G15" s="15"/>
       <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
+      <c r="I15" s="15">
+        <v>6.5</v>
+      </c>
       <c r="J15" s="15"/>
       <c r="K15" s="15"/>
       <c r="L15" s="15"/>
       <c r="M15" s="16">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="136"/>
-      <c r="B16" s="165"/>
+      <c r="A16" s="138"/>
+      <c r="B16" s="160"/>
       <c r="C16" s="60" t="s">
         <v>9</v>
       </c>
@@ -10289,10 +10325,10 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="135" t="s">
+      <c r="A17" s="137" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="129"/>
+      <c r="B17" s="148"/>
       <c r="C17" s="59" t="s">
         <v>36</v>
       </c>
@@ -10318,7 +10354,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J17" s="11">
         <f t="shared" si="4"/>
@@ -10334,12 +10370,12 @@
       </c>
       <c r="M17" s="12">
         <f t="shared" si="1"/>
-        <v>5.5</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="136"/>
-      <c r="B18" s="130"/>
+      <c r="A18" s="138"/>
+      <c r="B18" s="149"/>
       <c r="C18" s="60" t="s">
         <v>7</v>
       </c>
@@ -10360,8 +10396,8 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="136"/>
-      <c r="B19" s="130"/>
+      <c r="A19" s="138"/>
+      <c r="B19" s="149"/>
       <c r="C19" s="60" t="s">
         <v>8</v>
       </c>
@@ -10370,18 +10406,20 @@
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
       <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
+      <c r="I19" s="15">
+        <v>5</v>
+      </c>
       <c r="J19" s="15"/>
       <c r="K19" s="15"/>
       <c r="L19" s="15"/>
       <c r="M19" s="16">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="136"/>
-      <c r="B20" s="130"/>
+      <c r="A20" s="138"/>
+      <c r="B20" s="149"/>
       <c r="C20" s="61" t="s">
         <v>9</v>
       </c>
@@ -10400,8 +10438,8 @@
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="136"/>
-      <c r="B21" s="162"/>
+      <c r="A21" s="138"/>
+      <c r="B21" s="157"/>
       <c r="C21" s="64" t="s">
         <v>37</v>
       </c>
@@ -10427,7 +10465,7 @@
       </c>
       <c r="I21" s="22">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="J21" s="22">
         <f t="shared" si="5"/>
@@ -10443,12 +10481,12 @@
       </c>
       <c r="M21" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="136"/>
-      <c r="B22" s="162"/>
+      <c r="A22" s="138"/>
+      <c r="B22" s="157"/>
       <c r="C22" s="60" t="s">
         <v>7</v>
       </c>
@@ -10467,8 +10505,8 @@
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="136"/>
-      <c r="B23" s="162"/>
+      <c r="A23" s="138"/>
+      <c r="B23" s="157"/>
       <c r="C23" s="60" t="s">
         <v>8</v>
       </c>
@@ -10477,18 +10515,20 @@
       <c r="F23" s="15"/>
       <c r="G23" s="15"/>
       <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
+      <c r="I23" s="15">
+        <v>1.5</v>
+      </c>
       <c r="J23" s="15"/>
       <c r="K23" s="15"/>
       <c r="L23" s="15"/>
       <c r="M23" s="16">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="137"/>
-      <c r="B24" s="163"/>
+      <c r="A24" s="139"/>
+      <c r="B24" s="158"/>
       <c r="C24" s="61" t="s">
         <v>9</v>
       </c>
@@ -10507,17 +10547,17 @@
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B25" s="154" t="s">
+      <c r="B25" s="161" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="154"/>
+      <c r="C25" s="161"/>
       <c r="D25" s="47">
         <f t="shared" ref="D25:M28" si="6">SUM(D5,D9,D13,D17,D21)</f>
         <v>0</v>
       </c>
       <c r="E25" s="47">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F25" s="47">
         <f t="shared" si="6"/>
@@ -10529,11 +10569,11 @@
       </c>
       <c r="H25" s="47">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I25" s="47">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="J25" s="47">
         <f t="shared" si="6"/>
@@ -10549,7 +10589,7 @@
       </c>
       <c r="M25" s="12">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -10578,7 +10618,7 @@
       </c>
       <c r="I26" s="42">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J26" s="42">
         <f t="shared" si="6"/>
@@ -10594,7 +10634,7 @@
       </c>
       <c r="M26" s="43">
         <f t="shared" si="6"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -10607,7 +10647,7 @@
       </c>
       <c r="E27" s="42">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F27" s="42">
         <f t="shared" si="6"/>
@@ -10619,11 +10659,11 @@
       </c>
       <c r="H27" s="42">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I27" s="42">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J27" s="42">
         <f t="shared" si="6"/>
@@ -10639,7 +10679,7 @@
       </c>
       <c r="M27" s="43">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -10691,96 +10731,96 @@
       <c r="A30" s="109" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="155" t="s">
+      <c r="B30" s="162" t="s">
         <v>7</v>
       </c>
-      <c r="C30" s="156"/>
+      <c r="C30" s="163"/>
       <c r="D30" s="32">
         <f xml:space="preserve"> D26</f>
         <v>0</v>
       </c>
       <c r="E30" s="33">
         <f xml:space="preserve"> AVERAGE($D$18:E26)</f>
-        <v>0</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="F30" s="33">
         <f xml:space="preserve"> AVERAGE($D$18:F26)</f>
-        <v>0</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="G30" s="33">
         <f xml:space="preserve"> AVERAGE($D$18:G26)</f>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="H30" s="33">
         <f xml:space="preserve"> AVERAGE($D$18:H26)</f>
-        <v>1.09375</v>
+        <v>1.59375</v>
       </c>
       <c r="I30" s="33">
         <f xml:space="preserve"> AVERAGE($D$18:I26)</f>
-        <v>1.131578947368421</v>
+        <v>2.5952380952380953</v>
       </c>
       <c r="J30" s="33">
         <f xml:space="preserve"> AVERAGE($D$18:J26)</f>
-        <v>0.97727272727272729</v>
+        <v>2.2708333333333335</v>
       </c>
       <c r="K30" s="33">
         <f xml:space="preserve"> AVERAGE($D$18:K26)</f>
-        <v>0.86</v>
+        <v>2.0185185185185186</v>
       </c>
       <c r="L30" s="37">
         <f xml:space="preserve"> AVERAGE($D$18:L26)</f>
-        <v>0.7678571428571429</v>
+        <v>1.8166666666666667</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="110"/>
-      <c r="B31" s="157" t="s">
+      <c r="B31" s="164" t="s">
         <v>8</v>
       </c>
-      <c r="C31" s="144"/>
+      <c r="C31" s="132"/>
       <c r="D31" s="38">
         <f xml:space="preserve"> D27</f>
         <v>0</v>
       </c>
       <c r="E31" s="38">
         <f xml:space="preserve"> AVERAGE($D$27:E27)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F31" s="38">
         <f xml:space="preserve"> AVERAGE($D$27:F27)</f>
-        <v>0</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="G31" s="38">
         <f xml:space="preserve"> AVERAGE($D$27:G27)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31" s="38">
         <f xml:space="preserve"> AVERAGE($D$27:H27)</f>
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="I31" s="38">
         <f xml:space="preserve"> AVERAGE($D$27:I27)</f>
-        <v>0</v>
+        <v>3.8333333333333335</v>
       </c>
       <c r="J31" s="38">
         <f xml:space="preserve"> AVERAGE($D$27:J27)</f>
-        <v>0</v>
+        <v>3.2857142857142856</v>
       </c>
       <c r="K31" s="38">
         <f xml:space="preserve"> AVERAGE($D$27:K27)</f>
-        <v>0</v>
+        <v>2.875</v>
       </c>
       <c r="L31" s="39">
         <f xml:space="preserve"> AVERAGE($D$27:L27)</f>
-        <v>0</v>
+        <v>2.5555555555555554</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="110"/>
-      <c r="B32" s="158" t="s">
+      <c r="B32" s="165" t="s">
         <v>9</v>
       </c>
-      <c r="C32" s="146"/>
+      <c r="C32" s="134"/>
       <c r="D32" s="34">
         <f xml:space="preserve"> D28</f>
         <v>0</v>
@@ -10820,45 +10860,45 @@
     </row>
     <row r="33" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A33" s="111"/>
-      <c r="B33" s="149" t="s">
+      <c r="B33" s="145" t="s">
         <v>25</v>
       </c>
-      <c r="C33" s="150"/>
+      <c r="C33" s="146"/>
       <c r="D33" s="35">
         <f xml:space="preserve"> D25</f>
         <v>0</v>
       </c>
       <c r="E33" s="36">
         <f xml:space="preserve"> AVERAGE($D$25:E25)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F33" s="36">
         <f xml:space="preserve"> AVERAGE($D$25:F25)</f>
-        <v>0</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="G33" s="36">
         <f xml:space="preserve"> AVERAGE($D$25:G25)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33" s="36">
         <f xml:space="preserve"> AVERAGE($D$25:H25)</f>
-        <v>1.2</v>
+        <v>2.8</v>
       </c>
       <c r="I33" s="36">
         <f xml:space="preserve"> AVERAGE($D$25:I25)</f>
-        <v>1.3333333333333333</v>
+        <v>5.333333333333333</v>
       </c>
       <c r="J33" s="36">
         <f xml:space="preserve"> AVERAGE($D$25:J25)</f>
-        <v>1.1428571428571428</v>
+        <v>4.5714285714285712</v>
       </c>
       <c r="K33" s="36">
         <f xml:space="preserve"> AVERAGE($D$25:K25)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L33" s="41">
         <f xml:space="preserve"> AVERAGE($D$25:L25)</f>
-        <v>0.88888888888888884</v>
+        <v>3.5555555555555554</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -10876,57 +10916,57 @@
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="138" t="s">
+      <c r="A36" s="140" t="s">
         <v>24</v>
       </c>
-      <c r="B36" s="141" t="s">
+      <c r="B36" s="129" t="s">
         <v>7</v>
       </c>
-      <c r="C36" s="142"/>
+      <c r="C36" s="130"/>
       <c r="D36" s="26">
-        <f xml:space="preserve"> SUM(D26:I26)</f>
-        <v>8</v>
+        <f xml:space="preserve"> SUM(D26:H26)</f>
+        <v>6</v>
       </c>
       <c r="E36" s="26">
-        <f xml:space="preserve"> SUM(J26:L26)</f>
-        <v>0</v>
+        <f xml:space="preserve"> SUM(I26:L26)</f>
+        <v>3</v>
       </c>
       <c r="F36" s="27">
         <f xml:space="preserve"> SUM(D36:E36)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="141"/>
+      <c r="B37" s="131" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="139"/>
-      <c r="B37" s="143" t="s">
+      <c r="C37" s="132"/>
+      <c r="D37" s="26">
+        <f t="shared" ref="D37:D38" si="7" xml:space="preserve"> SUM(D27:H27)</f>
         <v>8</v>
       </c>
-      <c r="C37" s="144"/>
-      <c r="D37" s="26">
-        <f xml:space="preserve"> SUM(D27:I27)</f>
-        <v>0</v>
-      </c>
       <c r="E37" s="26">
-        <f xml:space="preserve"> SUM(J27:L27)</f>
-        <v>0</v>
+        <f t="shared" ref="E37:E38" si="8" xml:space="preserve"> SUM(I27:L27)</f>
+        <v>15</v>
       </c>
       <c r="F37" s="27">
         <f xml:space="preserve"> SUM(D37:E37)</f>
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="139"/>
-      <c r="B38" s="145" t="s">
+      <c r="A38" s="141"/>
+      <c r="B38" s="133" t="s">
         <v>9</v>
       </c>
-      <c r="C38" s="146"/>
+      <c r="C38" s="134"/>
       <c r="D38" s="26">
-        <f xml:space="preserve"> SUM(D28:I28)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E38" s="26">
-        <f xml:space="preserve"> SUM(J28:L28)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F38" s="27">
@@ -10935,62 +10975,62 @@
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="140"/>
-      <c r="B39" s="147" t="s">
+      <c r="A39" s="142"/>
+      <c r="B39" s="143" t="s">
         <v>25</v>
       </c>
-      <c r="C39" s="148"/>
+      <c r="C39" s="144"/>
       <c r="D39" s="26">
-        <f xml:space="preserve"> SUM(D25:I25)</f>
-        <v>8</v>
+        <f xml:space="preserve"> SUM(D25:H25)</f>
+        <v>14</v>
       </c>
       <c r="E39" s="26">
-        <f xml:space="preserve"> SUM(J25:L25)</f>
-        <v>0</v>
+        <f xml:space="preserve"> SUM(I25:L25)</f>
+        <v>18</v>
       </c>
       <c r="F39" s="27">
         <f xml:space="preserve"> SUM(D39:E39)</f>
-        <v>8</v>
+        <v>32</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="151" t="s">
+      <c r="A41" s="128" t="s">
         <v>26</v>
       </c>
-      <c r="B41" s="141" t="s">
+      <c r="B41" s="129" t="s">
         <v>7</v>
       </c>
-      <c r="C41" s="142"/>
+      <c r="C41" s="130"/>
       <c r="D41" s="31">
         <f xml:space="preserve"> D36</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E41" s="31">
         <f xml:space="preserve"> AVERAGE(D36:E36)</f>
-        <v>4</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="151"/>
-      <c r="B42" s="143" t="s">
+      <c r="A42" s="128"/>
+      <c r="B42" s="131" t="s">
         <v>8</v>
       </c>
-      <c r="C42" s="144"/>
+      <c r="C42" s="132"/>
       <c r="D42" s="31">
         <f xml:space="preserve"> D37</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E42" s="31">
         <f xml:space="preserve"> AVERAGE(D37:E37)</f>
-        <v>0</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="151"/>
-      <c r="B43" s="145" t="s">
+      <c r="A43" s="128"/>
+      <c r="B43" s="133" t="s">
         <v>9</v>
       </c>
-      <c r="C43" s="146"/>
+      <c r="C43" s="134"/>
       <c r="D43" s="31">
         <f xml:space="preserve"> D38</f>
         <v>0</v>
@@ -11001,22 +11041,32 @@
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="151"/>
-      <c r="B44" s="152" t="s">
+      <c r="A44" s="128"/>
+      <c r="B44" s="135" t="s">
         <v>25</v>
       </c>
-      <c r="C44" s="153"/>
+      <c r="C44" s="136"/>
       <c r="D44" s="31">
         <f xml:space="preserve"> D39</f>
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E44" s="31">
         <f xml:space="preserve"> AVERAGE(D39:E39)</f>
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="A41:A44"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
     <mergeCell ref="D1:H1"/>
     <mergeCell ref="I1:L1"/>
     <mergeCell ref="A5:A16"/>
@@ -11031,16 +11081,6 @@
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="B32:C32"/>
-    <mergeCell ref="A41:A44"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
